--- a/Artworks.xlsx
+++ b/Artworks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangjin/web_renewal/hijonam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DFA457-1DE3-EC46-AF4B-E8F87FDB951B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C4F275-50DE-EE43-8811-B043CD6D12CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="3520" windowWidth="25640" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="8400" windowWidth="25640" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="325">
   <si>
     <t>category</t>
   </si>
@@ -987,6 +987,18 @@
   </si>
   <si>
     <t>A Bulging Image-0.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ottchil (Korean Lacquer Work)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Installation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fabric Collage</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1377,8 +1389,8 @@
   <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1689,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>324</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -2936,7 +2948,7 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>322</v>
       </c>
       <c r="C54" t="s">
         <v>119</v>
@@ -4212,7 +4224,7 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>209</v>
+        <v>323</v>
       </c>
       <c r="C98" t="s">
         <v>210</v>

--- a/Artworks.xlsx
+++ b/Artworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangjin/web_renewal/hijonam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C4F275-50DE-EE43-8811-B043CD6D12CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE5469B-F3F7-5B4A-8614-AB2DBA25DAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="8400" windowWidth="25640" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20720" yWindow="3760" windowWidth="30820" windowHeight="25000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="270">
   <si>
     <t>category</t>
   </si>
@@ -691,87 +691,45 @@
     <t>What’s Left-2017.jpg</t>
   </si>
   <si>
-    <t>Dragon Above the Clouds01</t>
-  </si>
-  <si>
     <t>Dragon Above the Clouds01-2017.jpg</t>
   </si>
   <si>
-    <t>Dragon Above the Clouds02</t>
-  </si>
-  <si>
     <t>Dragon Above the Clouds02-2017.jpg</t>
   </si>
   <si>
-    <t>Dragon Above the Clouds03</t>
-  </si>
-  <si>
     <t>Dragon Above the Clouds03-2017.jpg</t>
   </si>
   <si>
-    <t>For The Aborted Young Souls01</t>
-  </si>
-  <si>
     <t>For The Aborted Young Souls01-2017.jpg</t>
   </si>
   <si>
-    <t>For The Aborted Young Souls02</t>
-  </si>
-  <si>
     <t>For The Aborted Young Souls02-2017.jpg</t>
   </si>
   <si>
-    <t>For The Aborted Young Souls03</t>
-  </si>
-  <si>
     <t>For The Aborted Young Souls03-2017.jpg</t>
   </si>
   <si>
-    <t>For The Aborted Young Souls04</t>
-  </si>
-  <si>
     <t>For The Aborted Young Souls04-2017.jpg</t>
   </si>
   <si>
-    <t>For The Aborted Young Souls05</t>
-  </si>
-  <si>
     <t>For The Aborted Young Souls05-2017.jpg</t>
   </si>
   <si>
-    <t>Breeding01</t>
-  </si>
-  <si>
     <t>Breeding01_2017.jpg</t>
   </si>
   <si>
-    <t>Breeding02</t>
-  </si>
-  <si>
     <t>Breeding02_2017.jpg</t>
   </si>
   <si>
-    <t>Breeding03</t>
-  </si>
-  <si>
     <t>Breeding03_2017.jpg</t>
   </si>
   <si>
-    <t>Breeding04</t>
-  </si>
-  <si>
     <t>Breeding04_2017.jpg</t>
   </si>
   <si>
-    <t>Breeding05</t>
-  </si>
-  <si>
     <t>Breeding05_2017.jpg</t>
   </si>
   <si>
-    <t>Breeding06</t>
-  </si>
-  <si>
     <t>Breeding06_2017.jpg</t>
   </si>
   <si>
@@ -799,187 +757,13 @@
     <t>The Masks_2016.jpg</t>
   </si>
   <si>
-    <t>Hope and Birth01</t>
-  </si>
-  <si>
     <t>Hope and Birth01_2016.jpg</t>
   </si>
   <si>
-    <t>Hope and Birth02</t>
-  </si>
-  <si>
     <t>Hope and Birth02_2016.jpg</t>
   </si>
   <si>
-    <t>Hope and Birth03</t>
-  </si>
-  <si>
     <t>Hope and Birth03_2016.jpg</t>
-  </si>
-  <si>
-    <t>Exhibtions</t>
-  </si>
-  <si>
-    <t>Greece In Dialog with Greek History</t>
-  </si>
-  <si>
-    <t>Greece1</t>
-  </si>
-  <si>
-    <t>Greece1_2015.jpg</t>
-  </si>
-  <si>
-    <t>Greece2</t>
-  </si>
-  <si>
-    <t>Greece2_2015.jpg</t>
-  </si>
-  <si>
-    <t>Greece3</t>
-  </si>
-  <si>
-    <t>Greece3_2015.jpg</t>
-  </si>
-  <si>
-    <t>Greece4</t>
-  </si>
-  <si>
-    <t>Greece4_2015.jpg</t>
-  </si>
-  <si>
-    <t>Greece5</t>
-  </si>
-  <si>
-    <t>Greece5_2015.jpg</t>
-  </si>
-  <si>
-    <t>China Contemporary Haman</t>
-  </si>
-  <si>
-    <t>China1</t>
-  </si>
-  <si>
-    <t>China1_2017.jpg</t>
-  </si>
-  <si>
-    <t>China2</t>
-  </si>
-  <si>
-    <t>China2_2017.jpg</t>
-  </si>
-  <si>
-    <t>Saphira &amp; ventura Gallery</t>
-  </si>
-  <si>
-    <t>Saphira &amp; Ventura Gallery_00</t>
-  </si>
-  <si>
-    <t>Saphira &amp; Ventura Gallery_00_2022.jpg</t>
-  </si>
-  <si>
-    <t>Saphira &amp; Ventura Gallery_01</t>
-  </si>
-  <si>
-    <t>Saphira &amp; Ventura Gallery_01_2022.jpg</t>
-  </si>
-  <si>
-    <t>Saphira &amp; Ventura Gallery_02</t>
-  </si>
-  <si>
-    <t>Saphira &amp; Ventura Gallery_02_2022.jpg</t>
-  </si>
-  <si>
-    <t>Saphira &amp; Ventura Gallery_03</t>
-  </si>
-  <si>
-    <t>Saphira &amp; Ventura Gallery_03_2022.jpg</t>
-  </si>
-  <si>
-    <t>Saphira &amp; Ventura Gallery_04</t>
-  </si>
-  <si>
-    <t>Saphira &amp; Ventura Gallery_04_2022.jpg</t>
-  </si>
-  <si>
-    <t>Saphira &amp; Ventura Gallery_05</t>
-  </si>
-  <si>
-    <t>Saphira &amp; Ventura Gallery_05_2022.jpg</t>
-  </si>
-  <si>
-    <t>Saphira &amp; Ventura Gallery_06</t>
-  </si>
-  <si>
-    <t>Saphira &amp; Ventura Gallery_06_2022.jpg</t>
-  </si>
-  <si>
-    <t>Saphira &amp; Ventura Gallery_07</t>
-  </si>
-  <si>
-    <t>Saphira &amp; Ventura Gallery_07_2022.jpg</t>
-  </si>
-  <si>
-    <t>흰물결갤러리</t>
-  </si>
-  <si>
-    <t>흰물결갤러리01</t>
-  </si>
-  <si>
-    <t>흰물결갤러리01_2022.jpg</t>
-  </si>
-  <si>
-    <t>흰물결갤러리02</t>
-  </si>
-  <si>
-    <t>흰물결갤러리02_2022.jpg</t>
-  </si>
-  <si>
-    <t>흰물결갤러리03</t>
-  </si>
-  <si>
-    <t>흰물결갤러리03_2022.jpg</t>
-  </si>
-  <si>
-    <t>흰물결갤러리04</t>
-  </si>
-  <si>
-    <t>흰물결갤러리04_2022.jpg</t>
-  </si>
-  <si>
-    <t>흰물결갤러리05</t>
-  </si>
-  <si>
-    <t>흰물결갤러리05_2022.jpg</t>
-  </si>
-  <si>
-    <t>흰물결갤러리06</t>
-  </si>
-  <si>
-    <t>흰물결갤러리06_2022.jpg</t>
-  </si>
-  <si>
-    <t>흰물결갤러리07</t>
-  </si>
-  <si>
-    <t>흰물결갤러리07_2022.jpg</t>
-  </si>
-  <si>
-    <t>흰물결갤러리08</t>
-  </si>
-  <si>
-    <t>흰물결갤러리08_2022.jpg</t>
-  </si>
-  <si>
-    <t>흰물결갤러리09</t>
-  </si>
-  <si>
-    <t>흰물결갤러리09_2022.jpg</t>
-  </si>
-  <si>
-    <t>흰물결갤러리10</t>
-  </si>
-  <si>
-    <t>흰물결갤러리10_2022.jpg</t>
   </si>
   <si>
     <t>Consolation 2-2018.jpg</t>
@@ -1000,6 +784,63 @@
   <si>
     <t>Fabric Collage</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hope and Birth_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hope and Birth_02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hope and Birth_03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breeding_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breeding_02</t>
+  </si>
+  <si>
+    <t>Breeding_03</t>
+  </si>
+  <si>
+    <t>Breeding_04</t>
+  </si>
+  <si>
+    <t>Breeding_05</t>
+  </si>
+  <si>
+    <t>Breeding_06</t>
+  </si>
+  <si>
+    <t>For The Aborted Young Souls_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>For The Aborted Young Souls_02</t>
+  </si>
+  <si>
+    <t>For The Aborted Young Souls_03</t>
+  </si>
+  <si>
+    <t>For The Aborted Young Souls_04</t>
+  </si>
+  <si>
+    <t>For The Aborted Young Souls_05</t>
+  </si>
+  <si>
+    <t>Dragon Above the Clouds_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragon Above the Clouds_02</t>
+  </si>
+  <si>
+    <t>Dragon Above the Clouds_03</t>
   </si>
 </sst>
 </file>
@@ -1389,8 +1230,8 @@
   <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1461,7 +1302,7 @@
         <v>2018</v>
       </c>
       <c r="I2" t="s">
-        <v>320</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" customHeight="1">
@@ -1490,7 +1331,7 @@
         <v>2009</v>
       </c>
       <c r="I3" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.5" customHeight="1">
@@ -1701,7 +1542,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -2948,7 +2789,7 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="C54" t="s">
         <v>119</v>
@@ -4224,7 +4065,7 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>323</v>
+        <v>251</v>
       </c>
       <c r="C98" t="s">
         <v>210</v>
@@ -4378,7 +4219,7 @@
         <v>101</v>
       </c>
       <c r="E103" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="F103" s="5">
         <v>0</v>
@@ -4390,7 +4231,7 @@
         <v>2017</v>
       </c>
       <c r="I103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="19.5" customHeight="1">
@@ -4407,7 +4248,7 @@
         <v>102</v>
       </c>
       <c r="E104" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="F104" s="5">
         <v>0</v>
@@ -4419,7 +4260,7 @@
         <v>2017</v>
       </c>
       <c r="I104" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="19.5" customHeight="1">
@@ -4436,7 +4277,7 @@
         <v>103</v>
       </c>
       <c r="E105" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="F105" s="5">
         <v>0</v>
@@ -4448,7 +4289,7 @@
         <v>2017</v>
       </c>
       <c r="I105" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="19.5" customHeight="1">
@@ -4465,7 +4306,7 @@
         <v>104</v>
       </c>
       <c r="E106" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="F106" s="5">
         <v>0</v>
@@ -4477,7 +4318,7 @@
         <v>2017</v>
       </c>
       <c r="I106" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="19.5" customHeight="1">
@@ -4494,7 +4335,7 @@
         <v>105</v>
       </c>
       <c r="E107" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="F107" s="5">
         <v>0</v>
@@ -4506,7 +4347,7 @@
         <v>2017</v>
       </c>
       <c r="I107" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="19.5" customHeight="1">
@@ -4523,7 +4364,7 @@
         <v>106</v>
       </c>
       <c r="E108" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="F108" s="5">
         <v>0</v>
@@ -4535,7 +4376,7 @@
         <v>2017</v>
       </c>
       <c r="I108" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="19.5" customHeight="1">
@@ -4552,7 +4393,7 @@
         <v>107</v>
       </c>
       <c r="E109" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="F109" s="5">
         <v>0</v>
@@ -4564,7 +4405,7 @@
         <v>2017</v>
       </c>
       <c r="I109" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="19.5" customHeight="1">
@@ -4581,7 +4422,7 @@
         <v>108</v>
       </c>
       <c r="E110" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="F110" s="5">
         <v>0</v>
@@ -4593,7 +4434,7 @@
         <v>2017</v>
       </c>
       <c r="I110" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="19.5" customHeight="1">
@@ -4610,7 +4451,7 @@
         <v>109</v>
       </c>
       <c r="E111" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F111" s="5">
         <v>0</v>
@@ -4622,7 +4463,7 @@
         <v>2017</v>
       </c>
       <c r="I111" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="19.5" customHeight="1">
@@ -4639,7 +4480,7 @@
         <v>110</v>
       </c>
       <c r="E112" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="F112" s="5">
         <v>0</v>
@@ -4651,7 +4492,7 @@
         <v>2017</v>
       </c>
       <c r="I112" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="19.5" customHeight="1">
@@ -4668,7 +4509,7 @@
         <v>111</v>
       </c>
       <c r="E113" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="F113" s="5">
         <v>0</v>
@@ -4680,7 +4521,7 @@
         <v>2017</v>
       </c>
       <c r="I113" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="19.5" customHeight="1">
@@ -4697,7 +4538,7 @@
         <v>112</v>
       </c>
       <c r="E114" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="F114" s="5">
         <v>0</v>
@@ -4709,7 +4550,7 @@
         <v>2017</v>
       </c>
       <c r="I114" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="19.5" customHeight="1">
@@ -4726,7 +4567,7 @@
         <v>113</v>
       </c>
       <c r="E115" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="F115" s="5">
         <v>0</v>
@@ -4738,7 +4579,7 @@
         <v>2017</v>
       </c>
       <c r="I115" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="19.5" customHeight="1">
@@ -4755,7 +4596,7 @@
         <v>114</v>
       </c>
       <c r="E116" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="F116" s="5">
         <v>0</v>
@@ -4767,7 +4608,7 @@
         <v>2017</v>
       </c>
       <c r="I116" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="19.5" customHeight="1">
@@ -4784,7 +4625,7 @@
         <v>115</v>
       </c>
       <c r="E117" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="F117" s="5">
         <v>0</v>
@@ -4796,7 +4637,7 @@
         <v>2016</v>
       </c>
       <c r="I117" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="19.5" customHeight="1">
@@ -4813,7 +4654,7 @@
         <v>116</v>
       </c>
       <c r="E118" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F118" s="5">
         <v>0</v>
@@ -4825,7 +4666,7 @@
         <v>2017</v>
       </c>
       <c r="I118" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="19.5" customHeight="1">
@@ -4842,7 +4683,7 @@
         <v>117</v>
       </c>
       <c r="E119" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="F119" s="5">
         <v>400</v>
@@ -4854,7 +4695,7 @@
         <v>2016</v>
       </c>
       <c r="I119" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="19.5" customHeight="1">
@@ -4871,7 +4712,7 @@
         <v>118</v>
       </c>
       <c r="E120" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="F120" s="5">
         <v>0</v>
@@ -4883,7 +4724,7 @@
         <v>2016</v>
       </c>
       <c r="I120" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="19.5" customHeight="1">
@@ -4900,7 +4741,7 @@
         <v>119</v>
       </c>
       <c r="E121" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F121" s="5">
         <v>750</v>
@@ -4912,7 +4753,7 @@
         <v>2016</v>
       </c>
       <c r="I121" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="19.5" customHeight="1">
@@ -4929,7 +4770,7 @@
         <v>120</v>
       </c>
       <c r="E122" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F122" s="5">
         <v>750</v>
@@ -4941,7 +4782,7 @@
         <v>2016</v>
       </c>
       <c r="I122" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="19.5" customHeight="1">
@@ -4958,7 +4799,7 @@
         <v>121</v>
       </c>
       <c r="E123" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F123" s="5">
         <v>750</v>
@@ -4970,733 +4811,158 @@
         <v>2016</v>
       </c>
       <c r="I123" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A124" t="s">
-        <v>265</v>
-      </c>
-      <c r="B124" t="s">
-        <v>266</v>
-      </c>
-      <c r="C124" t="s">
-        <v>266</v>
-      </c>
-      <c r="D124" s="3">
-        <v>122</v>
-      </c>
-      <c r="E124" t="s">
-        <v>267</v>
-      </c>
-      <c r="F124" s="5">
-        <v>0</v>
-      </c>
-      <c r="G124" s="5">
-        <v>0</v>
-      </c>
-      <c r="H124" s="5">
-        <v>2015</v>
-      </c>
-      <c r="I124" t="s">
-        <v>268</v>
-      </c>
+      <c r="D124" s="3"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
     </row>
     <row r="125" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A125" t="s">
-        <v>265</v>
-      </c>
-      <c r="B125" t="s">
-        <v>266</v>
-      </c>
-      <c r="C125" t="s">
-        <v>266</v>
-      </c>
-      <c r="D125" s="3">
-        <v>123</v>
-      </c>
-      <c r="E125" t="s">
-        <v>269</v>
-      </c>
-      <c r="F125" s="5">
-        <v>0</v>
-      </c>
-      <c r="G125" s="5">
-        <v>0</v>
-      </c>
-      <c r="H125" s="5">
-        <v>2015</v>
-      </c>
-      <c r="I125" t="s">
-        <v>270</v>
-      </c>
+      <c r="D125" s="3"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
     </row>
     <row r="126" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A126" t="s">
-        <v>265</v>
-      </c>
-      <c r="B126" t="s">
-        <v>266</v>
-      </c>
-      <c r="C126" t="s">
-        <v>266</v>
-      </c>
-      <c r="D126" s="3">
-        <v>124</v>
-      </c>
-      <c r="E126" t="s">
-        <v>271</v>
-      </c>
-      <c r="F126" s="5">
-        <v>0</v>
-      </c>
-      <c r="G126" s="5">
-        <v>0</v>
-      </c>
-      <c r="H126" s="5">
-        <v>2015</v>
-      </c>
-      <c r="I126" t="s">
-        <v>272</v>
-      </c>
+      <c r="D126" s="3"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
     </row>
     <row r="127" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A127" t="s">
-        <v>265</v>
-      </c>
-      <c r="B127" t="s">
-        <v>266</v>
-      </c>
-      <c r="C127" t="s">
-        <v>266</v>
-      </c>
-      <c r="D127" s="3">
-        <v>125</v>
-      </c>
-      <c r="E127" t="s">
-        <v>273</v>
-      </c>
-      <c r="F127" s="5">
-        <v>0</v>
-      </c>
-      <c r="G127" s="5">
-        <v>0</v>
-      </c>
-      <c r="H127" s="5">
-        <v>2015</v>
-      </c>
-      <c r="I127" t="s">
-        <v>274</v>
-      </c>
+      <c r="D127" s="3"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
     </row>
     <row r="128" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A128" t="s">
-        <v>265</v>
-      </c>
-      <c r="B128" t="s">
-        <v>266</v>
-      </c>
-      <c r="C128" t="s">
-        <v>266</v>
-      </c>
-      <c r="D128" s="3">
-        <v>126</v>
-      </c>
-      <c r="E128" t="s">
-        <v>275</v>
-      </c>
-      <c r="F128" s="5">
-        <v>0</v>
-      </c>
-      <c r="G128" s="5">
-        <v>0</v>
-      </c>
-      <c r="H128" s="5">
-        <v>2015</v>
-      </c>
-      <c r="I128" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A129" t="s">
-        <v>265</v>
-      </c>
-      <c r="B129" t="s">
-        <v>277</v>
-      </c>
-      <c r="C129" t="s">
-        <v>277</v>
-      </c>
-      <c r="D129" s="3">
-        <v>127</v>
-      </c>
-      <c r="E129" t="s">
-        <v>278</v>
-      </c>
-      <c r="F129" s="5">
-        <v>0</v>
-      </c>
-      <c r="G129" s="5">
-        <v>0</v>
-      </c>
-      <c r="H129" s="5">
-        <v>2017</v>
-      </c>
-      <c r="I129" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A130" t="s">
-        <v>265</v>
-      </c>
-      <c r="B130" t="s">
-        <v>277</v>
-      </c>
-      <c r="C130" t="s">
-        <v>277</v>
-      </c>
-      <c r="D130" s="3">
-        <v>128</v>
-      </c>
-      <c r="E130" t="s">
-        <v>280</v>
-      </c>
-      <c r="F130" s="5">
-        <v>0</v>
-      </c>
-      <c r="G130" s="5">
-        <v>0</v>
-      </c>
-      <c r="H130" s="5">
-        <v>2017</v>
-      </c>
-      <c r="I130" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A131" t="s">
-        <v>265</v>
-      </c>
-      <c r="B131" t="s">
-        <v>282</v>
-      </c>
-      <c r="C131" t="s">
-        <v>282</v>
-      </c>
-      <c r="D131" s="3">
-        <v>129</v>
-      </c>
-      <c r="E131" t="s">
-        <v>283</v>
-      </c>
-      <c r="F131" s="5">
-        <v>0</v>
-      </c>
-      <c r="G131" s="5">
-        <v>0</v>
-      </c>
-      <c r="H131" s="5">
-        <v>2022</v>
-      </c>
-      <c r="I131" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A132" t="s">
-        <v>265</v>
-      </c>
-      <c r="B132" t="s">
-        <v>282</v>
-      </c>
-      <c r="C132" t="s">
-        <v>282</v>
-      </c>
-      <c r="D132" s="3">
-        <v>130</v>
-      </c>
-      <c r="E132" t="s">
-        <v>285</v>
-      </c>
-      <c r="F132" s="5">
-        <v>0</v>
-      </c>
-      <c r="G132" s="5">
-        <v>0</v>
-      </c>
-      <c r="H132" s="5">
-        <v>2022</v>
-      </c>
-      <c r="I132" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A133" t="s">
-        <v>265</v>
-      </c>
-      <c r="B133" t="s">
-        <v>282</v>
-      </c>
-      <c r="C133" t="s">
-        <v>282</v>
-      </c>
-      <c r="D133" s="3">
-        <v>131</v>
-      </c>
-      <c r="E133" t="s">
-        <v>287</v>
-      </c>
-      <c r="F133" s="5">
-        <v>0</v>
-      </c>
-      <c r="G133" s="5">
-        <v>0</v>
-      </c>
-      <c r="H133" s="5">
-        <v>2022</v>
-      </c>
-      <c r="I133" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A134" t="s">
-        <v>265</v>
-      </c>
-      <c r="B134" t="s">
-        <v>282</v>
-      </c>
-      <c r="C134" t="s">
-        <v>282</v>
-      </c>
-      <c r="D134" s="3">
-        <v>132</v>
-      </c>
-      <c r="E134" t="s">
-        <v>289</v>
-      </c>
-      <c r="F134" s="5">
-        <v>0</v>
-      </c>
-      <c r="G134" s="5">
-        <v>0</v>
-      </c>
-      <c r="H134" s="5">
-        <v>2022</v>
-      </c>
-      <c r="I134" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A135" t="s">
-        <v>265</v>
-      </c>
-      <c r="B135" t="s">
-        <v>282</v>
-      </c>
-      <c r="C135" t="s">
-        <v>282</v>
-      </c>
-      <c r="D135" s="3">
-        <v>133</v>
-      </c>
-      <c r="E135" t="s">
-        <v>291</v>
-      </c>
-      <c r="F135" s="5">
-        <v>0</v>
-      </c>
-      <c r="G135" s="5">
-        <v>0</v>
-      </c>
-      <c r="H135" s="5">
-        <v>2022</v>
-      </c>
-      <c r="I135" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A136" t="s">
-        <v>265</v>
-      </c>
-      <c r="B136" t="s">
-        <v>282</v>
-      </c>
-      <c r="C136" t="s">
-        <v>282</v>
-      </c>
-      <c r="D136" s="3">
-        <v>134</v>
-      </c>
-      <c r="E136" t="s">
-        <v>293</v>
-      </c>
-      <c r="F136" s="5">
-        <v>0</v>
-      </c>
-      <c r="G136" s="5">
-        <v>0</v>
-      </c>
-      <c r="H136" s="5">
-        <v>2022</v>
-      </c>
-      <c r="I136" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A137" t="s">
-        <v>265</v>
-      </c>
-      <c r="B137" t="s">
-        <v>282</v>
-      </c>
-      <c r="C137" t="s">
-        <v>282</v>
-      </c>
-      <c r="D137" s="3">
-        <v>135</v>
-      </c>
-      <c r="E137" t="s">
-        <v>295</v>
-      </c>
-      <c r="F137" s="5">
-        <v>0</v>
-      </c>
-      <c r="G137" s="5">
-        <v>0</v>
-      </c>
-      <c r="H137" s="5">
-        <v>2022</v>
-      </c>
-      <c r="I137" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A138" t="s">
-        <v>265</v>
-      </c>
-      <c r="B138" t="s">
-        <v>282</v>
-      </c>
-      <c r="C138" t="s">
-        <v>282</v>
-      </c>
-      <c r="D138" s="3">
-        <v>136</v>
-      </c>
-      <c r="E138" t="s">
-        <v>297</v>
-      </c>
-      <c r="F138" s="5">
-        <v>0</v>
-      </c>
-      <c r="G138" s="5">
-        <v>0</v>
-      </c>
-      <c r="H138" s="5">
-        <v>2022</v>
-      </c>
-      <c r="I138" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A139" t="s">
-        <v>265</v>
-      </c>
-      <c r="B139" t="s">
-        <v>299</v>
-      </c>
-      <c r="C139" t="s">
-        <v>299</v>
-      </c>
-      <c r="D139" s="3">
-        <v>137</v>
-      </c>
-      <c r="E139" t="s">
-        <v>300</v>
-      </c>
-      <c r="F139" s="5">
-        <v>0</v>
-      </c>
-      <c r="G139" s="5">
-        <v>0</v>
-      </c>
-      <c r="H139" s="5">
-        <v>2022</v>
-      </c>
-      <c r="I139" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A140" t="s">
-        <v>265</v>
-      </c>
-      <c r="B140" t="s">
-        <v>299</v>
-      </c>
-      <c r="C140" t="s">
-        <v>299</v>
-      </c>
-      <c r="D140" s="3">
-        <v>138</v>
-      </c>
-      <c r="E140" t="s">
-        <v>302</v>
-      </c>
-      <c r="F140" s="5">
-        <v>0</v>
-      </c>
-      <c r="G140" s="5">
-        <v>0</v>
-      </c>
-      <c r="H140" s="5">
-        <v>2022</v>
-      </c>
-      <c r="I140" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A141" t="s">
-        <v>265</v>
-      </c>
-      <c r="B141" t="s">
-        <v>299</v>
-      </c>
-      <c r="C141" t="s">
-        <v>299</v>
-      </c>
-      <c r="D141" s="3">
-        <v>139</v>
-      </c>
-      <c r="E141" t="s">
-        <v>304</v>
-      </c>
-      <c r="F141" s="5">
-        <v>0</v>
-      </c>
-      <c r="G141" s="5">
-        <v>0</v>
-      </c>
-      <c r="H141" s="5">
-        <v>2022</v>
-      </c>
-      <c r="I141" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A142" t="s">
-        <v>265</v>
-      </c>
-      <c r="B142" t="s">
-        <v>299</v>
-      </c>
-      <c r="C142" t="s">
-        <v>299</v>
-      </c>
-      <c r="D142" s="3">
-        <v>140</v>
-      </c>
-      <c r="E142" t="s">
-        <v>306</v>
-      </c>
-      <c r="F142" s="5">
-        <v>0</v>
-      </c>
-      <c r="G142" s="5">
-        <v>0</v>
-      </c>
-      <c r="H142" s="5">
-        <v>2022</v>
-      </c>
-      <c r="I142" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A143" t="s">
-        <v>265</v>
-      </c>
-      <c r="B143" t="s">
-        <v>299</v>
-      </c>
-      <c r="C143" t="s">
-        <v>299</v>
-      </c>
-      <c r="D143" s="3">
-        <v>141</v>
-      </c>
-      <c r="E143" t="s">
-        <v>308</v>
-      </c>
-      <c r="F143" s="5">
-        <v>0</v>
-      </c>
-      <c r="G143" s="5">
-        <v>0</v>
-      </c>
-      <c r="H143" s="5">
-        <v>2022</v>
-      </c>
-      <c r="I143" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A144" t="s">
-        <v>265</v>
-      </c>
-      <c r="B144" t="s">
-        <v>299</v>
-      </c>
-      <c r="C144" t="s">
-        <v>299</v>
-      </c>
-      <c r="D144" s="3">
-        <v>142</v>
-      </c>
-      <c r="E144" t="s">
-        <v>310</v>
-      </c>
-      <c r="F144" s="5">
-        <v>0</v>
-      </c>
-      <c r="G144" s="5">
-        <v>0</v>
-      </c>
-      <c r="H144" s="5">
-        <v>2022</v>
-      </c>
-      <c r="I144" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A145" t="s">
-        <v>265</v>
-      </c>
-      <c r="B145" t="s">
-        <v>299</v>
-      </c>
-      <c r="C145" t="s">
-        <v>299</v>
-      </c>
-      <c r="D145" s="3">
-        <v>143</v>
-      </c>
-      <c r="E145" t="s">
-        <v>312</v>
-      </c>
-      <c r="F145" s="5">
-        <v>0</v>
-      </c>
-      <c r="G145" s="5">
-        <v>0</v>
-      </c>
-      <c r="H145" s="5">
-        <v>2022</v>
-      </c>
-      <c r="I145" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A146" t="s">
-        <v>265</v>
-      </c>
-      <c r="B146" t="s">
-        <v>299</v>
-      </c>
-      <c r="C146" t="s">
-        <v>299</v>
-      </c>
-      <c r="D146" s="3">
-        <v>144</v>
-      </c>
-      <c r="E146" t="s">
-        <v>314</v>
-      </c>
-      <c r="F146" s="5">
-        <v>0</v>
-      </c>
-      <c r="G146" s="5">
-        <v>0</v>
-      </c>
-      <c r="H146" s="5">
-        <v>2022</v>
-      </c>
-      <c r="I146" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A147" t="s">
-        <v>265</v>
-      </c>
-      <c r="B147" t="s">
-        <v>299</v>
-      </c>
-      <c r="C147" t="s">
-        <v>299</v>
-      </c>
-      <c r="D147" s="3">
-        <v>145</v>
-      </c>
-      <c r="E147" t="s">
-        <v>316</v>
-      </c>
-      <c r="F147" s="5">
-        <v>0</v>
-      </c>
-      <c r="G147" s="5">
-        <v>0</v>
-      </c>
-      <c r="H147" s="5">
-        <v>2022</v>
-      </c>
-      <c r="I147" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A148" t="s">
-        <v>265</v>
-      </c>
-      <c r="B148" t="s">
-        <v>299</v>
-      </c>
-      <c r="C148" t="s">
-        <v>299</v>
-      </c>
-      <c r="D148" s="3">
-        <v>146</v>
-      </c>
-      <c r="E148" t="s">
-        <v>318</v>
-      </c>
-      <c r="F148" s="5">
-        <v>0</v>
-      </c>
-      <c r="G148" s="5">
-        <v>0</v>
-      </c>
-      <c r="H148" s="5">
-        <v>2022</v>
-      </c>
-      <c r="I148" t="s">
-        <v>319</v>
-      </c>
+      <c r="D128" s="3"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+    </row>
+    <row r="129" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D129" s="3"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+    </row>
+    <row r="130" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D130" s="3"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+    </row>
+    <row r="131" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D131" s="3"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+    </row>
+    <row r="132" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D132" s="3"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+    </row>
+    <row r="133" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D133" s="3"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+    </row>
+    <row r="134" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D134" s="3"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+    </row>
+    <row r="135" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D135" s="3"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+    </row>
+    <row r="136" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D136" s="3"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+    </row>
+    <row r="137" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D137" s="3"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+    </row>
+    <row r="138" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D138" s="3"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+    </row>
+    <row r="139" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D139" s="3"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+    </row>
+    <row r="140" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D140" s="3"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+    </row>
+    <row r="141" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D141" s="3"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+    </row>
+    <row r="142" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D142" s="3"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+    </row>
+    <row r="143" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D143" s="3"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+    </row>
+    <row r="144" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D144" s="3"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+    </row>
+    <row r="145" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D145" s="3"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+    </row>
+    <row r="146" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D146" s="3"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+    </row>
+    <row r="147" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D147" s="3"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+    </row>
+    <row r="148" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D148" s="3"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Artworks.xlsx
+++ b/Artworks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangjin/web_renewal/hijonam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE5469B-F3F7-5B4A-8614-AB2DBA25DAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB519D58-BD2B-6D4E-B53B-56111C5BA5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20720" yWindow="3760" windowWidth="30820" windowHeight="25000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2600" yWindow="3440" windowWidth="33400" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="273">
   <si>
     <t>category</t>
   </si>
@@ -841,6 +841,18 @@
   </si>
   <si>
     <t>Dragon Above the Clouds_03</t>
+  </si>
+  <si>
+    <t>mainImg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breeding01_2017.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denver Spanish Town-2022.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1227,11 +1239,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1245,9 +1257,10 @@
     <col min="7" max="7" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="54" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" customHeight="1">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1275,8 +1288,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J1" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1304,8 +1320,11 @@
       <c r="I2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1333,8 +1352,11 @@
       <c r="I3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1362,8 +1384,11 @@
       <c r="I4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1391,8 +1416,11 @@
       <c r="I5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1420,8 +1448,11 @@
       <c r="I6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1449,8 +1480,11 @@
       <c r="I7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1478,8 +1512,11 @@
       <c r="I8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1507,8 +1544,11 @@
       <c r="I9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1536,8 +1576,11 @@
       <c r="I10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1565,8 +1608,11 @@
       <c r="I11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1594,8 +1640,11 @@
       <c r="I12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1623,8 +1672,11 @@
       <c r="I13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1652,8 +1704,11 @@
       <c r="I14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1681,8 +1736,11 @@
       <c r="I15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1710,8 +1768,11 @@
       <c r="I16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19.5" customHeight="1">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1739,8 +1800,11 @@
       <c r="I17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1768,8 +1832,11 @@
       <c r="I18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1797,8 +1864,11 @@
       <c r="I19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="19.5" customHeight="1">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1826,8 +1896,11 @@
       <c r="I20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="19.5" customHeight="1">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1855,8 +1928,11 @@
       <c r="I21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="19.5" customHeight="1">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1884,8 +1960,11 @@
       <c r="I22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" customHeight="1">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1913,8 +1992,11 @@
       <c r="I23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="19.5" customHeight="1">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1942,8 +2024,11 @@
       <c r="I24" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="19.5" customHeight="1">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1971,8 +2056,11 @@
       <c r="I25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="19.5" customHeight="1">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2000,8 +2088,11 @@
       <c r="I26" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="19.5" customHeight="1">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2029,8 +2120,11 @@
       <c r="I27" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J27" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="19.5" customHeight="1">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2058,8 +2152,11 @@
       <c r="I28" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="19.5" customHeight="1">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2087,8 +2184,11 @@
       <c r="I29" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="19.5" customHeight="1">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2116,8 +2216,11 @@
       <c r="I30" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="19.5" customHeight="1">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2145,8 +2248,11 @@
       <c r="I31" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="19.5" customHeight="1">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2174,8 +2280,11 @@
       <c r="I32" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J32" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="19.5" customHeight="1">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -2203,8 +2312,11 @@
       <c r="I33" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="19.5" customHeight="1">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2232,8 +2344,11 @@
       <c r="I34" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="19.5" customHeight="1">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -2261,8 +2376,11 @@
       <c r="I35" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="19.5" customHeight="1">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2290,8 +2408,11 @@
       <c r="I36" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="19.5" customHeight="1">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -2319,8 +2440,11 @@
       <c r="I37" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="19.5" customHeight="1">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2348,8 +2472,11 @@
       <c r="I38" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="19.5" customHeight="1">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -2377,8 +2504,11 @@
       <c r="I39" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J39" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="19.5" customHeight="1">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2406,8 +2536,11 @@
       <c r="I40" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J40" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="19.5" customHeight="1">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -2435,8 +2568,11 @@
       <c r="I41" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J41" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="19.5" customHeight="1">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2464,8 +2600,11 @@
       <c r="I42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J42" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="19.5" customHeight="1">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2493,8 +2632,11 @@
       <c r="I43" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="19.5" customHeight="1">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -2522,8 +2664,11 @@
       <c r="I44" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J44" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="19.5" customHeight="1">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -2551,8 +2696,11 @@
       <c r="I45" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J45" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="19.5" customHeight="1">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2580,8 +2728,11 @@
       <c r="I46" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J46" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="19.5" customHeight="1">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2609,8 +2760,11 @@
       <c r="I47" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J47" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="19.5" customHeight="1">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2638,8 +2792,11 @@
       <c r="I48" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J48" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="19.5" customHeight="1">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -2667,8 +2824,11 @@
       <c r="I49" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="19.5" customHeight="1">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -2696,8 +2856,11 @@
       <c r="I50" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J50" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="19.5" customHeight="1">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -2725,8 +2888,11 @@
       <c r="I51" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="19.5" customHeight="1">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2754,8 +2920,11 @@
       <c r="I52" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J52" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="19.5" customHeight="1">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2783,8 +2952,11 @@
       <c r="I53" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J53" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="19.5" customHeight="1">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2812,8 +2984,11 @@
       <c r="I54" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="19.5" customHeight="1">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2841,8 +3016,11 @@
       <c r="I55" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="19.5" customHeight="1">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2870,8 +3048,11 @@
       <c r="I56" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="19.5" customHeight="1">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2899,8 +3080,11 @@
       <c r="I57" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="19.5" customHeight="1">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -2928,8 +3112,11 @@
       <c r="I58" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="19.5" customHeight="1">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2957,8 +3144,11 @@
       <c r="I59" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="19.5" customHeight="1">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2986,8 +3176,11 @@
       <c r="I60" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="19.5" customHeight="1">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -3015,8 +3208,11 @@
       <c r="I61" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J61" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="19.5" customHeight="1">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -3044,8 +3240,11 @@
       <c r="I62" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="19.5" customHeight="1">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -3073,8 +3272,11 @@
       <c r="I63" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="19.5" customHeight="1">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="I64" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="19.5" customHeight="1">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -3131,8 +3336,11 @@
       <c r="I65" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J65" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="19.5" customHeight="1">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -3160,8 +3368,11 @@
       <c r="I66" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="19.5" customHeight="1">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -3189,8 +3400,11 @@
       <c r="I67" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="19.5" customHeight="1">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -3218,8 +3432,11 @@
       <c r="I68" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J68" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="17.25" customHeight="1">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -3247,8 +3464,11 @@
       <c r="I69" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="17.25" customHeight="1">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -3276,8 +3496,11 @@
       <c r="I70" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J70" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="17.25" customHeight="1">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -3305,8 +3528,11 @@
       <c r="I71" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J71" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="17.25" customHeight="1">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -3334,8 +3560,11 @@
       <c r="I72" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J72" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="17.25" customHeight="1">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3363,8 +3592,11 @@
       <c r="I73" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J73" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="17.25" customHeight="1">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -3392,8 +3624,11 @@
       <c r="I74" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J74" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="17.25" customHeight="1">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -3421,8 +3656,11 @@
       <c r="I75" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J75" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="17.25" customHeight="1">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -3450,8 +3688,11 @@
       <c r="I76" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J76" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="17.25" customHeight="1">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -3479,8 +3720,11 @@
       <c r="I77" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J77" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="17.25" customHeight="1">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -3508,8 +3752,11 @@
       <c r="I78" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J78" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="17.25" customHeight="1">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -3537,8 +3784,11 @@
       <c r="I79" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J79" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="17.25" customHeight="1">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -3566,8 +3816,11 @@
       <c r="I80" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J80" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="17.25" customHeight="1">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -3595,8 +3848,11 @@
       <c r="I81" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J81" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="17.25" customHeight="1">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -3624,8 +3880,11 @@
       <c r="I82" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J82" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="17.25" customHeight="1">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -3653,8 +3912,11 @@
       <c r="I83" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J83" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="17.25" customHeight="1">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -3682,8 +3944,11 @@
       <c r="I84" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J84" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="17.25" customHeight="1">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -3711,8 +3976,11 @@
       <c r="I85" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J85" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="17.25" customHeight="1">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -3740,8 +4008,11 @@
       <c r="I86" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J86" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="17.25" customHeight="1">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -3769,8 +4040,11 @@
       <c r="I87" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J87" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="17.25" customHeight="1">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -3798,8 +4072,11 @@
       <c r="I88" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J88" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="17.25" customHeight="1">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -3827,8 +4104,11 @@
       <c r="I89" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J89" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="17.25" customHeight="1">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -3856,8 +4136,11 @@
       <c r="I90" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J90" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="17.25" customHeight="1">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -3885,8 +4168,11 @@
       <c r="I91" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J91" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="17.25" customHeight="1">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -3914,8 +4200,11 @@
       <c r="I92" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J92" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="17.25" customHeight="1">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -3943,8 +4232,11 @@
       <c r="I93" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J93" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="17.25" customHeight="1">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -3972,8 +4264,11 @@
       <c r="I94" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J94" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="17.25" customHeight="1">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -4001,8 +4296,11 @@
       <c r="I95" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J95" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="17.25" customHeight="1">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -4030,8 +4328,11 @@
       <c r="I96" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J96" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="17.25" customHeight="1">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -4059,8 +4360,11 @@
       <c r="I97" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J97" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="19.5" customHeight="1">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -4088,8 +4392,11 @@
       <c r="I98" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J98" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="19.5" customHeight="1">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -4117,8 +4424,11 @@
       <c r="I99" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J99" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="19.5" customHeight="1">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -4146,8 +4456,11 @@
       <c r="I100" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J100" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="19.5" customHeight="1">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -4175,8 +4488,11 @@
       <c r="I101" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J101" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="19.5" customHeight="1">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -4204,8 +4520,11 @@
       <c r="I102" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J102" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="19.5" customHeight="1">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -4233,8 +4552,11 @@
       <c r="I103" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J103" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="19.5" customHeight="1">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -4262,8 +4584,11 @@
       <c r="I104" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J104" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="19.5" customHeight="1">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -4291,8 +4616,11 @@
       <c r="I105" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J105" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="19.5" customHeight="1">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -4320,8 +4648,11 @@
       <c r="I106" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J106" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="19.5" customHeight="1">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -4349,8 +4680,11 @@
       <c r="I107" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J107" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="19.5" customHeight="1">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -4378,8 +4712,11 @@
       <c r="I108" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J108" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="19.5" customHeight="1">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -4407,8 +4744,11 @@
       <c r="I109" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J109" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="19.5" customHeight="1">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -4436,8 +4776,11 @@
       <c r="I110" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J110" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="19.5" customHeight="1">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -4465,8 +4808,11 @@
       <c r="I111" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J111" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="19.5" customHeight="1">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -4494,8 +4840,11 @@
       <c r="I112" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J112" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="19.5" customHeight="1">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -4523,8 +4872,11 @@
       <c r="I113" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J113" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="19.5" customHeight="1">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -4552,8 +4904,11 @@
       <c r="I114" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J114" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="19.5" customHeight="1">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -4581,8 +4936,11 @@
       <c r="I115" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J115" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="19.5" customHeight="1">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -4610,8 +4968,11 @@
       <c r="I116" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J116" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="19.5" customHeight="1">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -4639,8 +5000,11 @@
       <c r="I117" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J117" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="19.5" customHeight="1">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -4668,8 +5032,11 @@
       <c r="I118" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J118" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="19.5" customHeight="1">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -4697,8 +5064,11 @@
       <c r="I119" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J119" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="19.5" customHeight="1">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -4726,8 +5096,11 @@
       <c r="I120" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J120" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="19.5" customHeight="1">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -4755,8 +5128,11 @@
       <c r="I121" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J121" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="19.5" customHeight="1">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -4784,8 +5160,11 @@
       <c r="I122" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="19.5" customHeight="1">
+      <c r="J122" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="19.5" customHeight="1">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -4813,32 +5192,35 @@
       <c r="I123" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J123" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="17.25" customHeight="1">
       <c r="D124" s="3"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
     </row>
-    <row r="125" spans="1:9" ht="17.25" customHeight="1">
+    <row r="125" spans="1:10" ht="17.25" customHeight="1">
       <c r="D125" s="3"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
     </row>
-    <row r="126" spans="1:9" ht="17.25" customHeight="1">
+    <row r="126" spans="1:10" ht="17.25" customHeight="1">
       <c r="D126" s="3"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
     </row>
-    <row r="127" spans="1:9" ht="17.25" customHeight="1">
+    <row r="127" spans="1:10" ht="17.25" customHeight="1">
       <c r="D127" s="3"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
     </row>
-    <row r="128" spans="1:9" ht="17.25" customHeight="1">
+    <row r="128" spans="1:10" ht="17.25" customHeight="1">
       <c r="D128" s="3"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>

--- a/Artworks.xlsx
+++ b/Artworks.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangjin/web_renewal/hijonam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cording\hijonam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB519D58-BD2B-6D4E-B53B-56111C5BA5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9E0C5E-DFB7-4BB0-A98A-779E28021C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="3440" windowWidth="33400" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40580" yWindow="1320" windowWidth="29100" windowHeight="18610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$113</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="253">
   <si>
     <t>category</t>
   </si>
@@ -58,60 +74,15 @@
     <t>Oil on canvas</t>
   </si>
   <si>
-    <t>Consolation 2</t>
-  </si>
-  <si>
     <t>Patina</t>
   </si>
   <si>
-    <t>Patina on Steel plate</t>
-  </si>
-  <si>
-    <t>A Bulging Image</t>
-  </si>
-  <si>
     <t>Blue Moon Light</t>
   </si>
   <si>
-    <t>Blue Moon Light-2012.jpg</t>
-  </si>
-  <si>
-    <t>Daybreak</t>
-  </si>
-  <si>
-    <t>Daybreak-2012.jpg</t>
-  </si>
-  <si>
-    <t>Delphi 2</t>
-  </si>
-  <si>
-    <t>Delphi 2-2015.jpg</t>
-  </si>
-  <si>
     <t>Retrospective Image of the way</t>
   </si>
   <si>
-    <t>Retrospective Image of the way-2015.jpg</t>
-  </si>
-  <si>
-    <t>Together 2</t>
-  </si>
-  <si>
-    <t>Together 2-2015.jpg</t>
-  </si>
-  <si>
-    <t>Together</t>
-  </si>
-  <si>
-    <t>Together-2013.jpg</t>
-  </si>
-  <si>
-    <t>Untitled 4</t>
-  </si>
-  <si>
-    <t>Untitled 4-2015.jpg</t>
-  </si>
-  <si>
     <t>Fabric Collage</t>
   </si>
   <si>
@@ -121,27 +92,15 @@
     <t>Journey 1</t>
   </si>
   <si>
-    <t>Journey 1-2022.jpg</t>
-  </si>
-  <si>
     <t>Journey 2</t>
   </si>
   <si>
-    <t>Journey 2-2022.jpg</t>
-  </si>
-  <si>
     <t>Journey 3</t>
   </si>
   <si>
-    <t>Journey 3-2022.jpg</t>
-  </si>
-  <si>
     <t>Journey 4</t>
   </si>
   <si>
-    <t>Journey 4-2022.jpg</t>
-  </si>
-  <si>
     <t>Journey 5</t>
   </si>
   <si>
@@ -151,237 +110,90 @@
     <t>Journey 6</t>
   </si>
   <si>
-    <t>Journey 6-2022.jpg</t>
-  </si>
-  <si>
     <t>Journey 7</t>
   </si>
   <si>
-    <t>Journey 7-2022.jpg</t>
-  </si>
-  <si>
     <t>Journey 8</t>
   </si>
   <si>
-    <t>Journey 8-2022.jpg</t>
-  </si>
-  <si>
     <t>Delphi 1</t>
   </si>
   <si>
-    <t>Delphi 1-2015.jpg</t>
-  </si>
-  <si>
     <t>Spirit 1</t>
   </si>
   <si>
-    <t>Spirit 1-2022.jpg</t>
-  </si>
-  <si>
     <t>Spirit 2</t>
   </si>
   <si>
-    <t>Spirit 2-2022.jpg</t>
-  </si>
-  <si>
     <t>Spirit 3</t>
   </si>
   <si>
-    <t>Spirit 3-2022.jpg</t>
-  </si>
-  <si>
     <t>Spirit 4</t>
   </si>
   <si>
-    <t>Spirit 4-2022.jpg</t>
-  </si>
-  <si>
-    <t>Spirit 5</t>
-  </si>
-  <si>
-    <t>Spirit 5-2022.jpg</t>
-  </si>
-  <si>
-    <t>Spirit 6</t>
-  </si>
-  <si>
-    <t>Spirit 6-2022.jpg</t>
-  </si>
-  <si>
-    <t>6pm, maybe walk more</t>
-  </si>
-  <si>
-    <t>6pm, maybe walk more-2012.jpg</t>
-  </si>
-  <si>
-    <t>Catching the first moment</t>
-  </si>
-  <si>
-    <t>Catching the first moment-2012.jpg</t>
-  </si>
-  <si>
     <t>Denver Spanish Town</t>
   </si>
   <si>
-    <t>Denver Spanish Town-2022.jpg</t>
-  </si>
-  <si>
     <t>Dream</t>
   </si>
   <si>
-    <t>Dream-2018.jpg</t>
-  </si>
-  <si>
-    <t>Edge of Brooklyn</t>
-  </si>
-  <si>
-    <t>Edge of Brooklyn-2012.jpg</t>
-  </si>
-  <si>
-    <t>Full of opportunities</t>
-  </si>
-  <si>
-    <t>Full of opportunities-2009.jpg</t>
-  </si>
-  <si>
     <t>Greece Morning 1</t>
   </si>
   <si>
-    <t>Greece Morning 1-2022.jpg</t>
-  </si>
-  <si>
     <t>Greece Morning 2</t>
   </si>
   <si>
-    <t>Greece Morning 2-2022.jpg</t>
-  </si>
-  <si>
     <t>Green Greeting</t>
   </si>
   <si>
-    <t>Green Greeting-2022.jpg</t>
-  </si>
-  <si>
     <t>Life and Dream 2</t>
   </si>
   <si>
-    <t>Life and Dream 2-2022.jpg</t>
-  </si>
-  <si>
     <t>Life and Dream 3</t>
   </si>
   <si>
-    <t>Life and Dream 3-2018.jpg</t>
-  </si>
-  <si>
-    <t>Life and Dream 4</t>
-  </si>
-  <si>
-    <t>Life and Dream 4-2022.jpg</t>
-  </si>
-  <si>
     <t>Light of City 1</t>
   </si>
   <si>
-    <t>Light of City 1-2021.jpg</t>
-  </si>
-  <si>
     <t>Light of City 2</t>
   </si>
   <si>
-    <t>Light of City 2-2021.jpg</t>
-  </si>
-  <si>
     <t>Light of City 3</t>
   </si>
   <si>
-    <t>Light of City 3-2021.jpg</t>
-  </si>
-  <si>
     <t>Manhattan Street</t>
   </si>
   <si>
-    <t>Manhattan Street-2022.jpg</t>
-  </si>
-  <si>
     <t>Morning of City 1</t>
   </si>
   <si>
-    <t>Morning of City 1-2022.jpg</t>
-  </si>
-  <si>
     <t>Morning of City 2</t>
   </si>
   <si>
-    <t>Morning of City 2-2022.jpg</t>
-  </si>
-  <si>
     <t>Over the Rainbow 1</t>
   </si>
   <si>
-    <t>Over the Rainbow 1-2019.jpg</t>
-  </si>
-  <si>
     <t>Over the Rainbow 2</t>
   </si>
   <si>
-    <t>Over the Rainbow 2-2019.jpg</t>
-  </si>
-  <si>
-    <t>Pure magic</t>
-  </si>
-  <si>
-    <t>Pure magic-2012.jpg</t>
-  </si>
-  <si>
     <t>Spain Ronda 1</t>
   </si>
   <si>
-    <t>Spain Ronda 1-2022.jpg</t>
-  </si>
-  <si>
     <t>Spain Ronda 2</t>
   </si>
   <si>
-    <t>Spain Ronda 2-2022.jpg</t>
-  </si>
-  <si>
     <t>Spring Sonata 1</t>
   </si>
   <si>
-    <t>Spring Sonata 1-2022.jpg</t>
-  </si>
-  <si>
     <t>Spring Sonata 2</t>
   </si>
   <si>
-    <t>Spring Sonata 2-2022.jpg</t>
-  </si>
-  <si>
     <t>Spring Sonata 3</t>
   </si>
   <si>
-    <t>Spring Sonata 3-2022.jpg</t>
-  </si>
-  <si>
-    <t>Sunday. No Sunshine</t>
-  </si>
-  <si>
-    <t>Sunday. No Sunshine-2012.jpg</t>
-  </si>
-  <si>
-    <t>Sun Shower</t>
-  </si>
-  <si>
-    <t>Sun-Shower-2012.jpg</t>
-  </si>
-  <si>
     <t>Ottchil (Korean Lacquer Work)</t>
   </si>
   <si>
-    <t>삼베</t>
-  </si>
-  <si>
     <t>Liberal Ashanti1_1</t>
   </si>
   <si>
@@ -490,9 +302,6 @@
     <t>Liberal Ashanti5_4_2018.jpg</t>
   </si>
   <si>
-    <t>자개</t>
-  </si>
-  <si>
     <t>Autumn Leaves of NAMSAN_1</t>
   </si>
   <si>
@@ -655,123 +464,13 @@
     <t>Oil on Wood Kettle Lid</t>
   </si>
   <si>
-    <t>Cycle of Nature 1 Wagon Wheel</t>
-  </si>
-  <si>
-    <t>Cycle of Nature 1 Wagon Wheel-2012.jpg</t>
-  </si>
-  <si>
-    <t>Cycle of Nature 2 Wagon Wheel</t>
-  </si>
-  <si>
-    <t>Cycle of Nature 2 Wagon Wheel-2012.jpg</t>
-  </si>
-  <si>
-    <t>Oil on Kettle Lid, Mixed Media</t>
-  </si>
-  <si>
-    <t>Cycle of Nature 3 Wagon Wheel</t>
-  </si>
-  <si>
-    <t>Cycle of Nature 3 Wagon Wheel-2014.jpg</t>
-  </si>
-  <si>
     <t>Brass, Wood, Copper Wire</t>
   </si>
   <si>
-    <t>Rhythm 1</t>
-  </si>
-  <si>
-    <t>Rhythm 1-2017.jpg</t>
-  </si>
-  <si>
     <t>What’s Left</t>
   </si>
   <si>
-    <t>What’s Left-2017.jpg</t>
-  </si>
-  <si>
-    <t>Dragon Above the Clouds01-2017.jpg</t>
-  </si>
-  <si>
-    <t>Dragon Above the Clouds02-2017.jpg</t>
-  </si>
-  <si>
-    <t>Dragon Above the Clouds03-2017.jpg</t>
-  </si>
-  <si>
-    <t>For The Aborted Young Souls01-2017.jpg</t>
-  </si>
-  <si>
-    <t>For The Aborted Young Souls02-2017.jpg</t>
-  </si>
-  <si>
-    <t>For The Aborted Young Souls03-2017.jpg</t>
-  </si>
-  <si>
-    <t>For The Aborted Young Souls04-2017.jpg</t>
-  </si>
-  <si>
-    <t>For The Aborted Young Souls05-2017.jpg</t>
-  </si>
-  <si>
-    <t>Breeding01_2017.jpg</t>
-  </si>
-  <si>
-    <t>Breeding02_2017.jpg</t>
-  </si>
-  <si>
-    <t>Breeding03_2017.jpg</t>
-  </si>
-  <si>
-    <t>Breeding04_2017.jpg</t>
-  </si>
-  <si>
-    <t>Breeding05_2017.jpg</t>
-  </si>
-  <si>
-    <t>Breeding06_2017.jpg</t>
-  </si>
-  <si>
-    <t>Indra and Amulets</t>
-  </si>
-  <si>
-    <t>Indra and Amulets_2016.jpg</t>
-  </si>
-  <si>
-    <t>Mask 1</t>
-  </si>
-  <si>
-    <t>Mask 1_2017.jpg</t>
-  </si>
-  <si>
-    <t>Mask 3</t>
-  </si>
-  <si>
-    <t>Mask 3_2016.jpg</t>
-  </si>
-  <si>
     <t>The Masks</t>
-  </si>
-  <si>
-    <t>The Masks_2016.jpg</t>
-  </si>
-  <si>
-    <t>Hope and Birth01_2016.jpg</t>
-  </si>
-  <si>
-    <t>Hope and Birth02_2016.jpg</t>
-  </si>
-  <si>
-    <t>Hope and Birth03_2016.jpg</t>
-  </si>
-  <si>
-    <t>Consolation 2-2018.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Bulging Image-0.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Ottchil (Korean Lacquer Work)</t>
@@ -786,18 +485,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Hope and Birth_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hope and Birth_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hope and Birth_03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Breeding_01</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -808,41 +495,6 @@
     <t>Breeding_03</t>
   </si>
   <si>
-    <t>Breeding_04</t>
-  </si>
-  <si>
-    <t>Breeding_05</t>
-  </si>
-  <si>
-    <t>Breeding_06</t>
-  </si>
-  <si>
-    <t>For The Aborted Young Souls_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>For The Aborted Young Souls_02</t>
-  </si>
-  <si>
-    <t>For The Aborted Young Souls_03</t>
-  </si>
-  <si>
-    <t>For The Aborted Young Souls_04</t>
-  </si>
-  <si>
-    <t>For The Aborted Young Souls_05</t>
-  </si>
-  <si>
-    <t>Dragon Above the Clouds_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dragon Above the Clouds_02</t>
-  </si>
-  <si>
-    <t>Dragon Above the Clouds_03</t>
-  </si>
-  <si>
     <t>mainImg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -852,6 +504,338 @@
   </si>
   <si>
     <t>Denver Spanish Town-2022.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consolation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mixed Media on Steel Plate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue Moon Light 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clemency</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lotus Flowers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modesty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rumination 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rumination 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mixed Media on Cooper Plate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paradox</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector Space</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Words 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Words 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hanji</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handmade Korean paper Work</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Cycle of Life 5 Handmade Paper, Hemp string, Linen 107x 148cm_2018.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Cycle of Life 6 Handmade Paper, Hemp string, Linen 120.9x325.1cm_2018.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Cycle of Life 1_213.4x142.2cm_2018.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Cycle of Life 1</t>
+  </si>
+  <si>
+    <t>The Cycle of Life 5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Cycle of Life 6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Cycle of Life 7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Cycle of Life 8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hemp Cloth, Glutinous Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hemp Cloth, Glutinous Rice, Mother-of–Pearl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mother-of–Pearl on Metal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Big Dipper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full Moon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cycle of Nature Wagon Wheel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rhythm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragon Above the Clouds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>For The Aborted Young Souls</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mask</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cycle of Nature_ Wagon Wheel, Oil on Wood Kettle Lid 99.5x99.5cm_2012.jpg</t>
+  </si>
+  <si>
+    <t>Rhythm_ Brass, Wood, Copper Wire 200x145cm_2017.jpg</t>
+  </si>
+  <si>
+    <t>What’s Left_2017.jpg</t>
+  </si>
+  <si>
+    <t>Dragon Above the Clouds 0_2017.jpg</t>
+  </si>
+  <si>
+    <t>Dragon Above the Clouds 1_2017.jpg</t>
+  </si>
+  <si>
+    <t>Dragon Above the Clouds 2_2017.jpg</t>
+  </si>
+  <si>
+    <t>For The Aborted Young Souls 0_2017.jpg</t>
+  </si>
+  <si>
+    <t>For The Aborted Young Souls 1_2017.jpg</t>
+  </si>
+  <si>
+    <t>For The Aborted Young Souls 2_2017.jpg</t>
+  </si>
+  <si>
+    <t>Breeding 0_2017.jpg</t>
+  </si>
+  <si>
+    <t>Breeding 1_2017.jpg</t>
+  </si>
+  <si>
+    <t>Breeding 2_2017.jpg</t>
+  </si>
+  <si>
+    <t>Mask0_2016-2017.jpg</t>
+  </si>
+  <si>
+    <t>Mask1_37x 40x13cm_2016.jpg</t>
+  </si>
+  <si>
+    <t>Mask2_2017.jpg</t>
+  </si>
+  <si>
+    <t>Words 1_Patina on Cooper Plate 50x50cm_2014.jpg</t>
+  </si>
+  <si>
+    <t>Words 2_Patina on Cooper Plate 50x50cm_2014.jpg</t>
+  </si>
+  <si>
+    <t>The Big Dipper 50x50cm_2017.jpg</t>
+  </si>
+  <si>
+    <t>Full Moon 65x63cm_2021.jpg</t>
+  </si>
+  <si>
+    <t>Consolation_Oil on canvas 72.7x60.5cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Blue Moon Light 1_229X148cm, 2012.jpg</t>
+  </si>
+  <si>
+    <t>Blue moon light 2.jpg</t>
+  </si>
+  <si>
+    <t>Clemency_Mixed Media on Steel Plate 50x50cm_2017.jpg</t>
+  </si>
+  <si>
+    <t>Lotus Flowers_Mixed Media on Steel Plate 63.5x123.2cm 4 each_2012.jpg</t>
+  </si>
+  <si>
+    <t>Modesty_Mixed Media on Steel Plate 50x 50cm_2017.jpg</t>
+  </si>
+  <si>
+    <t>Retrospective Image of the way, Mixed Media on Scrap Metal, 92 x 91cm, 2015.jpg</t>
+  </si>
+  <si>
+    <t>Rumination 1_Patina on Steel Plate 50x50cm_2013.jpg</t>
+  </si>
+  <si>
+    <t>Rumination 2_Patina on Steel Plate 50x50cm_2013.jpg</t>
+  </si>
+  <si>
+    <t>Journey 1 Fabric collage on Canvas 53x72.2cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Journey 2 Fabric collage on Canvas 53x72.2cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Journey 3 Fabric collage on Canvas 53x72.2cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Journey 4 Fabric collage on Canvas 53x72.2cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Journey 5 Fabric collage on Canvas 53x72.2cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Journey 6 Fabric collage on Canvas 53x72.2cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Journey 7 Fabric collage on Canvas 53x72.2cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Journey 8 Fabric collage on Canvas 53x72.2cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Delphi 1 Patina on Steel 150x94.7cm_2015.jpg</t>
+  </si>
+  <si>
+    <t>Spirit 1 Patina on Steel 59x59cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Spirit 2 Patina on Steel 59x59cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Spirit 3 Patina on Steel 59x59cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Spirit 4 Patina on Steel 59x59cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Paradox_Patina on Cooper Plate 50x50cm_2017.jpg</t>
+  </si>
+  <si>
+    <t>Vector Space_Patina on Cooper Plate 50x50cm_2017.jpg</t>
+  </si>
+  <si>
+    <t>Denver Spanish Town Oil on canvas 72.7x90.9cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Dream Oil on canvas 53x72.7cm_2018.jpg</t>
+  </si>
+  <si>
+    <t>Greece Morning 1 Oil on canvas 30.4x30.4cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Greece Morning 2 Oil on canvas 30.4x30.4cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Green Greeting Oil on canvas 56x71.3cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Life and Dream 2 Oil on canvas 30x30cm 2022.jpg</t>
+  </si>
+  <si>
+    <t>Life and Dream 3 Oil on canvas 45.6x61cm_2018.jpg</t>
+  </si>
+  <si>
+    <t>Light of City 1 Oil on canvas 45.6x61cm_2021.jpg</t>
+  </si>
+  <si>
+    <t>Light of City 2 Oil on canvas 46x60.7cm_2021.jpg</t>
+  </si>
+  <si>
+    <t>Light of City 3 Oil on canvas 30x30cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Manhattan Street Oil on canvas 45.5x53cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Morning of City 1 Oil on canvas 50x55.2cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Morning of City 2 Oil on canvas 56x71.3cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Over the Rainbow 1 Oil on canvas 53x72.7cm_2019.jpg</t>
+  </si>
+  <si>
+    <t>Over the Rainbow 2 Oil on canvas 53x72.7cm_2019.jpg</t>
+  </si>
+  <si>
+    <t>Spain Ronda 1 Oil on canvas 91x116.8cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Spain Ronda 2 Oil on canvas 101.5x101cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Spring Sonata 1 Oil on canvas 45.5x53cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Spring Sonata 2 Oil on canvas 53x72.7cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>Spring Sonata 3 2022 Oil on canvas 60.6x72.7cm_2022.jpg</t>
+  </si>
+  <si>
+    <t>The Cycle of Life 7_Handmade Paper, Hemp string, Linen 142.2x106.7cm_2018.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Cycle of Life 8 Handmade Paper, Hemp string, Linen 120.9x325.1cm_2018.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Omega Point3_1_2018.jpg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -859,10 +843,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="177" formatCode="0.0;[Red]0.0"/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -932,6 +918,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1239,28 +1231,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.9140625" customWidth="1"/>
+    <col min="10" max="10" width="28.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1289,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1306,761 +1298,761 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="7">
+        <v>72.7</v>
+      </c>
+      <c r="G2" s="7">
+        <v>60.5</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2022</v>
+      </c>
+      <c r="I2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5">
-        <v>300</v>
-      </c>
-      <c r="G2" s="5">
-        <v>300</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I2" t="s">
-        <v>248</v>
-      </c>
-      <c r="J2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5">
-        <v>732</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1144</v>
+        <v>13</v>
+      </c>
+      <c r="F3" s="7">
+        <v>229</v>
+      </c>
+      <c r="G3" s="7">
+        <v>148</v>
       </c>
       <c r="H3" s="5">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="I3" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2290</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1480</v>
+        <v>156</v>
+      </c>
+      <c r="F4" s="7">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="G4" s="7">
+        <v>58.3</v>
       </c>
       <c r="H4" s="5">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5">
-        <v>920</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1110</v>
+        <v>157</v>
+      </c>
+      <c r="F5" s="7">
+        <v>50</v>
+      </c>
+      <c r="G5" s="7">
+        <v>50</v>
       </c>
       <c r="H5" s="5">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5">
-        <v>960</v>
-      </c>
-      <c r="G6" s="5">
-        <v>890</v>
+        <v>158</v>
+      </c>
+      <c r="F6" s="7">
+        <v>63.5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>123.2</v>
       </c>
       <c r="H6" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="D7" s="3">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="5">
-        <v>920</v>
-      </c>
-      <c r="G7" s="5">
-        <v>910</v>
+        <v>159</v>
+      </c>
+      <c r="F7" s="7">
+        <v>50</v>
+      </c>
+      <c r="G7" s="7">
+        <v>50</v>
       </c>
       <c r="H7" s="5">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="D8" s="3">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="5">
-        <v>749</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1650</v>
+        <v>14</v>
+      </c>
+      <c r="F8" s="7">
+        <v>92</v>
+      </c>
+      <c r="G8" s="7">
+        <v>91</v>
       </c>
       <c r="H8" s="5">
         <v>2015</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="D9" s="3">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="5">
-        <v>610</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1520</v>
+        <v>160</v>
+      </c>
+      <c r="F9" s="7">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7">
+        <v>50</v>
       </c>
       <c r="H9" s="5">
         <v>2013</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>213</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="D10" s="3">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1150</v>
-      </c>
-      <c r="G10" s="5">
-        <v>750</v>
+        <v>161</v>
+      </c>
+      <c r="F10" s="7">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7">
+        <v>50</v>
       </c>
       <c r="H10" s="5">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="J10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="5">
-        <v>530</v>
-      </c>
-      <c r="G11" s="5">
-        <v>722</v>
+      <c r="F11" s="7">
+        <v>53</v>
+      </c>
+      <c r="G11" s="7">
+        <v>72.2</v>
       </c>
       <c r="H11" s="5">
         <v>2022</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="5">
-        <v>530</v>
-      </c>
-      <c r="G12" s="5">
-        <v>722</v>
+        <v>18</v>
+      </c>
+      <c r="F12" s="7">
+        <v>53</v>
+      </c>
+      <c r="G12" s="7">
+        <v>72.2</v>
       </c>
       <c r="H12" s="5">
         <v>2022</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>216</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="5">
-        <v>530</v>
-      </c>
-      <c r="G13" s="5">
-        <v>722</v>
+        <v>19</v>
+      </c>
+      <c r="F13" s="7">
+        <v>53</v>
+      </c>
+      <c r="G13" s="7">
+        <v>72.2</v>
       </c>
       <c r="H13" s="5">
         <v>2022</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="5">
-        <v>530</v>
-      </c>
-      <c r="G14" s="5">
-        <v>722</v>
+        <v>20</v>
+      </c>
+      <c r="F14" s="7">
+        <v>53</v>
+      </c>
+      <c r="G14" s="7">
+        <v>72.2</v>
       </c>
       <c r="H14" s="5">
         <v>2022</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="5">
-        <v>530</v>
-      </c>
-      <c r="G15" s="5">
-        <v>722</v>
+        <v>21</v>
+      </c>
+      <c r="F15" s="7">
+        <v>53</v>
+      </c>
+      <c r="G15" s="7">
+        <v>72.2</v>
       </c>
       <c r="H15" s="5">
         <v>2022</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3">
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="5">
-        <v>530</v>
-      </c>
-      <c r="G16" s="5">
-        <v>722</v>
+        <v>23</v>
+      </c>
+      <c r="F16" s="7">
+        <v>53</v>
+      </c>
+      <c r="G16" s="7">
+        <v>72.2</v>
       </c>
       <c r="H16" s="5">
         <v>2022</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="5">
-        <v>530</v>
-      </c>
-      <c r="G17" s="5">
-        <v>722</v>
+        <v>24</v>
+      </c>
+      <c r="F17" s="7">
+        <v>53</v>
+      </c>
+      <c r="G17" s="7">
+        <v>72.2</v>
       </c>
       <c r="H17" s="5">
         <v>2022</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="5">
-        <v>530</v>
-      </c>
-      <c r="G18" s="5">
-        <v>722</v>
+        <v>25</v>
+      </c>
+      <c r="F18" s="7">
+        <v>53</v>
+      </c>
+      <c r="G18" s="7">
+        <v>72.2</v>
       </c>
       <c r="H18" s="5">
         <v>2022</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="D19" s="3">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1500</v>
-      </c>
-      <c r="G19" s="5">
-        <v>947</v>
+        <v>26</v>
+      </c>
+      <c r="F19" s="7">
+        <v>150</v>
+      </c>
+      <c r="G19" s="7">
+        <v>94.7</v>
       </c>
       <c r="H19" s="5">
         <v>2015</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>223</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="D20" s="3">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="5">
-        <v>590</v>
-      </c>
-      <c r="G20" s="5">
-        <v>590</v>
+        <v>27</v>
+      </c>
+      <c r="F20" s="7">
+        <v>59</v>
+      </c>
+      <c r="G20" s="7">
+        <v>59</v>
       </c>
       <c r="H20" s="5">
         <v>2022</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>224</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="D21" s="3">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="5">
-        <v>590</v>
-      </c>
-      <c r="G21" s="5">
-        <v>590</v>
+        <v>28</v>
+      </c>
+      <c r="F21" s="7">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7">
+        <v>59</v>
       </c>
       <c r="H21" s="5">
         <v>2022</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="D22" s="3">
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="5">
-        <v>590</v>
-      </c>
-      <c r="G22" s="5">
-        <v>590</v>
+        <v>29</v>
+      </c>
+      <c r="F22" s="7">
+        <v>59</v>
+      </c>
+      <c r="G22" s="7">
+        <v>59</v>
       </c>
       <c r="H22" s="5">
         <v>2022</v>
       </c>
       <c r="I22" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="D23" s="3">
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="5">
-        <v>590</v>
-      </c>
-      <c r="G23" s="5">
-        <v>590</v>
+        <v>30</v>
+      </c>
+      <c r="F23" s="7">
+        <v>59</v>
+      </c>
+      <c r="G23" s="7">
+        <v>59</v>
       </c>
       <c r="H23" s="5">
         <v>2022</v>
       </c>
       <c r="I23" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="19.5" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="D24" s="3">
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="5">
-        <v>590</v>
-      </c>
-      <c r="G24" s="5">
-        <v>590</v>
+        <v>163</v>
+      </c>
+      <c r="F24" s="7">
+        <v>50</v>
+      </c>
+      <c r="G24" s="7">
+        <v>50</v>
       </c>
       <c r="H24" s="5">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="J24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="19.5" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="D25" s="3">
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="5">
-        <v>590</v>
-      </c>
-      <c r="G25" s="5">
-        <v>590</v>
+        <v>164</v>
+      </c>
+      <c r="F25" s="7">
+        <v>50</v>
+      </c>
+      <c r="G25" s="7">
+        <v>50</v>
       </c>
       <c r="H25" s="5">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="I25" t="s">
-        <v>61</v>
+        <v>229</v>
       </c>
       <c r="J25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="19.5" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2074,25 +2066,25 @@
         <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="5">
-        <v>810</v>
-      </c>
-      <c r="G26" s="5">
-        <v>1160</v>
+        <v>31</v>
+      </c>
+      <c r="F26" s="7">
+        <v>72.7</v>
+      </c>
+      <c r="G26" s="7">
+        <v>90.9</v>
       </c>
       <c r="H26" s="5">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="I26" t="s">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="J26" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2106,25 +2098,25 @@
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="5">
-        <v>810</v>
-      </c>
-      <c r="G27" s="5">
-        <v>1160</v>
+        <v>32</v>
+      </c>
+      <c r="F27" s="7">
+        <v>53</v>
+      </c>
+      <c r="G27" s="7">
+        <v>72.7</v>
       </c>
       <c r="H27" s="5">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="I27" t="s">
-        <v>65</v>
+        <v>231</v>
       </c>
       <c r="J27" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2138,25 +2130,25 @@
         <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="5">
-        <v>727</v>
-      </c>
-      <c r="G28" s="5">
-        <v>909</v>
+        <v>33</v>
+      </c>
+      <c r="F28" s="7">
+        <v>30.4</v>
+      </c>
+      <c r="G28" s="7">
+        <v>30.4</v>
       </c>
       <c r="H28" s="5">
         <v>2022</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
       <c r="J28" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2170,25 +2162,25 @@
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="5">
-        <v>530</v>
-      </c>
-      <c r="G29" s="5">
-        <v>727</v>
+        <v>34</v>
+      </c>
+      <c r="F29" s="7">
+        <v>30.4</v>
+      </c>
+      <c r="G29" s="7">
+        <v>30.4</v>
       </c>
       <c r="H29" s="5">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c r="J29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2202,25 +2194,25 @@
         <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1020</v>
-      </c>
-      <c r="G30" s="5">
-        <v>760</v>
+        <v>35</v>
+      </c>
+      <c r="F30" s="7">
+        <v>56</v>
+      </c>
+      <c r="G30" s="7">
+        <v>71.3</v>
       </c>
       <c r="H30" s="5">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="I30" t="s">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="J30" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2234,25 +2226,25 @@
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="5">
-        <v>970</v>
-      </c>
-      <c r="G31" s="5">
-        <v>920</v>
+        <v>36</v>
+      </c>
+      <c r="F31" s="7">
+        <v>30</v>
+      </c>
+      <c r="G31" s="7">
+        <v>30</v>
       </c>
       <c r="H31" s="5">
-        <v>2009</v>
+        <v>2022</v>
       </c>
       <c r="I31" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="J31" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2266,25 +2258,25 @@
         <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="5">
-        <v>304</v>
-      </c>
-      <c r="G32" s="5">
-        <v>304</v>
+        <v>37</v>
+      </c>
+      <c r="F32" s="7">
+        <v>45.6</v>
+      </c>
+      <c r="G32" s="7">
+        <v>61</v>
       </c>
       <c r="H32" s="5">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="I32" t="s">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="J32" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -2298,25 +2290,25 @@
         <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="5">
-        <v>304</v>
-      </c>
-      <c r="G33" s="5">
-        <v>304</v>
+        <v>38</v>
+      </c>
+      <c r="F33" s="7">
+        <v>45.6</v>
+      </c>
+      <c r="G33" s="7">
+        <v>61</v>
       </c>
       <c r="H33" s="5">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I33" t="s">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="J33" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2330,25 +2322,25 @@
         <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="5">
-        <v>560</v>
-      </c>
-      <c r="G34" s="5">
-        <v>713</v>
+        <v>39</v>
+      </c>
+      <c r="F34" s="7">
+        <v>46</v>
+      </c>
+      <c r="G34" s="7">
+        <v>60.7</v>
       </c>
       <c r="H34" s="5">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I34" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="J34" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -2362,25 +2354,25 @@
         <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="5">
-        <v>300</v>
-      </c>
-      <c r="G35" s="5">
-        <v>300</v>
+        <v>40</v>
+      </c>
+      <c r="F35" s="7">
+        <v>30</v>
+      </c>
+      <c r="G35" s="7">
+        <v>30</v>
       </c>
       <c r="H35" s="5">
         <v>2022</v>
       </c>
       <c r="I35" t="s">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="J35" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2394,25 +2386,25 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" s="5">
-        <v>456</v>
-      </c>
-      <c r="G36" s="5">
-        <v>610</v>
+        <v>41</v>
+      </c>
+      <c r="F36" s="7">
+        <v>45.5</v>
+      </c>
+      <c r="G36" s="7">
+        <v>53</v>
       </c>
       <c r="H36" s="5">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="I36" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="J36" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -2426,25 +2418,25 @@
         <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" s="5">
-        <v>300</v>
-      </c>
-      <c r="G37" s="5">
-        <v>300</v>
+        <v>42</v>
+      </c>
+      <c r="F37" s="7">
+        <v>50</v>
+      </c>
+      <c r="G37" s="7">
+        <v>55.2</v>
       </c>
       <c r="H37" s="5">
         <v>2022</v>
       </c>
       <c r="I37" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="J37" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2458,25 +2450,25 @@
         <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" s="5">
-        <v>456</v>
-      </c>
-      <c r="G38" s="5">
-        <v>610</v>
+        <v>43</v>
+      </c>
+      <c r="F38" s="7">
+        <v>56</v>
+      </c>
+      <c r="G38" s="7">
+        <v>71.3</v>
       </c>
       <c r="H38" s="5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I38" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="J38" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -2490,25 +2482,25 @@
         <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" s="5">
-        <v>460</v>
-      </c>
-      <c r="G39" s="5">
-        <v>607</v>
+        <v>44</v>
+      </c>
+      <c r="F39" s="7">
+        <v>53</v>
+      </c>
+      <c r="G39" s="7">
+        <v>72.7</v>
       </c>
       <c r="H39" s="5">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="I39" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="J39" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2522,25 +2514,25 @@
         <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="5">
-        <v>300</v>
-      </c>
-      <c r="G40" s="5">
-        <v>300</v>
+        <v>45</v>
+      </c>
+      <c r="F40" s="7">
+        <v>53</v>
+      </c>
+      <c r="G40" s="7">
+        <v>72.7</v>
       </c>
       <c r="H40" s="5">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="I40" t="s">
-        <v>91</v>
+        <v>244</v>
       </c>
       <c r="J40" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -2554,25 +2546,25 @@
         <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="5">
-        <v>455</v>
-      </c>
-      <c r="G41" s="5">
-        <v>530</v>
+        <v>46</v>
+      </c>
+      <c r="F41" s="7">
+        <v>91</v>
+      </c>
+      <c r="G41" s="7">
+        <v>116.8</v>
       </c>
       <c r="H41" s="5">
         <v>2022</v>
       </c>
       <c r="I41" t="s">
-        <v>93</v>
+        <v>245</v>
       </c>
       <c r="J41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2586,25 +2578,25 @@
         <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>94</v>
-      </c>
-      <c r="F42" s="5">
-        <v>500</v>
-      </c>
-      <c r="G42" s="5">
-        <v>552</v>
+        <v>47</v>
+      </c>
+      <c r="F42" s="7">
+        <v>101.5</v>
+      </c>
+      <c r="G42" s="7">
+        <v>101</v>
       </c>
       <c r="H42" s="5">
         <v>2022</v>
       </c>
       <c r="I42" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="J42" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2618,25 +2610,25 @@
         <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>96</v>
-      </c>
-      <c r="F43" s="5">
-        <v>560</v>
-      </c>
-      <c r="G43" s="5">
-        <v>713</v>
+        <v>48</v>
+      </c>
+      <c r="F43" s="7">
+        <v>45.5</v>
+      </c>
+      <c r="G43" s="7">
+        <v>53</v>
       </c>
       <c r="H43" s="5">
         <v>2022</v>
       </c>
       <c r="I43" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="J43" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -2650,25 +2642,25 @@
         <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="5">
-        <v>530</v>
-      </c>
-      <c r="G44" s="5">
-        <v>727</v>
+        <v>49</v>
+      </c>
+      <c r="F44" s="7">
+        <v>53</v>
+      </c>
+      <c r="G44" s="7">
+        <v>72.7</v>
       </c>
       <c r="H44" s="5">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="I44" t="s">
-        <v>99</v>
+        <v>248</v>
       </c>
       <c r="J44" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -2682,2671 +2674,2298 @@
         <v>43</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
-      </c>
-      <c r="F45" s="5">
-        <v>530</v>
-      </c>
-      <c r="G45" s="5">
-        <v>727</v>
+        <v>50</v>
+      </c>
+      <c r="F45" s="7">
+        <v>60.6</v>
+      </c>
+      <c r="G45" s="7">
+        <v>72.7</v>
       </c>
       <c r="H45" s="5">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="I45" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="J45" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="19.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="D46" s="3">
         <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46" s="5">
-        <v>1020</v>
-      </c>
-      <c r="G46" s="5">
-        <v>760</v>
+        <v>52</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0</v>
       </c>
       <c r="H46" s="5">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="I46" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="J46" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="D47" s="3">
         <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" s="5">
-        <v>910</v>
-      </c>
-      <c r="G47" s="5">
-        <v>1168</v>
+        <v>54</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0</v>
       </c>
       <c r="H47" s="5">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="I47" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="J47" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="D48" s="3">
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" s="5">
-        <v>1015</v>
-      </c>
-      <c r="G48" s="5">
-        <v>1010</v>
+        <v>56</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0</v>
       </c>
       <c r="H48" s="5">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="I48" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="J48" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="D49" s="3">
         <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
-      </c>
-      <c r="F49" s="5">
-        <v>455</v>
-      </c>
-      <c r="G49" s="5">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0</v>
       </c>
       <c r="H49" s="5">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="I49" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="J49" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="D50" s="3">
         <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>110</v>
-      </c>
-      <c r="F50" s="5">
-        <v>530</v>
-      </c>
-      <c r="G50" s="5">
-        <v>727</v>
+        <v>60</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
       </c>
       <c r="H50" s="5">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="I50" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="J50" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="D51" s="3">
         <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>112</v>
-      </c>
-      <c r="F51" s="5">
-        <v>606</v>
-      </c>
-      <c r="G51" s="5">
-        <v>727</v>
+        <v>62</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
       </c>
       <c r="H51" s="5">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="I51" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="J51" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="D52" s="3">
         <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>114</v>
-      </c>
-      <c r="F52" s="5">
-        <v>970</v>
-      </c>
-      <c r="G52" s="5">
-        <v>920</v>
+        <v>64</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
       </c>
       <c r="H52" s="5">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="I52" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="J52" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="D53" s="3">
         <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>116</v>
-      </c>
-      <c r="F53" s="5">
-        <v>810</v>
-      </c>
-      <c r="G53" s="5">
-        <v>1160</v>
+        <v>66</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
       </c>
       <c r="H53" s="5">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="I53" t="s">
+        <v>67</v>
+      </c>
+      <c r="J53" t="s">
         <v>117</v>
       </c>
-      <c r="J53" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="19.5" customHeight="1">
+    </row>
+    <row r="54" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="D54" s="3">
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>120</v>
-      </c>
-      <c r="F54" s="5">
-        <v>0</v>
-      </c>
-      <c r="G54" s="5">
+        <v>68</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
         <v>0</v>
       </c>
       <c r="H54" s="5">
         <v>2018</v>
       </c>
       <c r="I54" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="J54" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="D55" s="3">
         <v>53</v>
       </c>
       <c r="E55" t="s">
-        <v>122</v>
-      </c>
-      <c r="F55" s="5">
-        <v>0</v>
-      </c>
-      <c r="G55" s="5">
+        <v>70</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0</v>
+      </c>
+      <c r="G55" s="7">
         <v>0</v>
       </c>
       <c r="H55" s="5">
         <v>2018</v>
       </c>
       <c r="I55" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="J55" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="D56" s="3">
         <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="5">
-        <v>0</v>
-      </c>
-      <c r="G56" s="5">
+        <v>72</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0</v>
+      </c>
+      <c r="G56" s="7">
         <v>0</v>
       </c>
       <c r="H56" s="5">
         <v>2018</v>
       </c>
       <c r="I56" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="J56" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="D57" s="3">
         <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>126</v>
-      </c>
-      <c r="F57" s="5">
-        <v>0</v>
-      </c>
-      <c r="G57" s="5">
+        <v>74</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0</v>
+      </c>
+      <c r="G57" s="7">
         <v>0</v>
       </c>
       <c r="H57" s="5">
         <v>2018</v>
       </c>
       <c r="I57" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="J57" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="D58" s="3">
         <v>56</v>
       </c>
       <c r="E58" t="s">
-        <v>128</v>
-      </c>
-      <c r="F58" s="5">
-        <v>0</v>
-      </c>
-      <c r="G58" s="5">
+        <v>76</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0</v>
+      </c>
+      <c r="G58" s="7">
         <v>0</v>
       </c>
       <c r="H58" s="5">
         <v>2018</v>
       </c>
       <c r="I58" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="D59" s="3">
         <v>57</v>
       </c>
       <c r="E59" t="s">
-        <v>130</v>
-      </c>
-      <c r="F59" s="5">
-        <v>0</v>
-      </c>
-      <c r="G59" s="5">
+        <v>78</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0</v>
+      </c>
+      <c r="G59" s="7">
         <v>0</v>
       </c>
       <c r="H59" s="5">
         <v>2018</v>
       </c>
       <c r="I59" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="D60" s="3">
         <v>58</v>
       </c>
       <c r="E60" t="s">
-        <v>132</v>
-      </c>
-      <c r="F60" s="5">
-        <v>0</v>
-      </c>
-      <c r="G60" s="5">
+        <v>80</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0</v>
+      </c>
+      <c r="G60" s="7">
         <v>0</v>
       </c>
       <c r="H60" s="5">
         <v>2018</v>
       </c>
       <c r="I60" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="J60" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="D61" s="3">
         <v>59</v>
       </c>
       <c r="E61" t="s">
-        <v>134</v>
-      </c>
-      <c r="F61" s="5">
-        <v>0</v>
-      </c>
-      <c r="G61" s="5">
+        <v>82</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7">
         <v>0</v>
       </c>
       <c r="H61" s="5">
         <v>2018</v>
       </c>
       <c r="I61" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="J61" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="D62" s="3">
         <v>60</v>
       </c>
       <c r="E62" t="s">
-        <v>136</v>
-      </c>
-      <c r="F62" s="5">
-        <v>0</v>
-      </c>
-      <c r="G62" s="5">
+        <v>84</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
         <v>0</v>
       </c>
       <c r="H62" s="5">
         <v>2018</v>
       </c>
       <c r="I62" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="J62" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="D63" s="3">
         <v>61</v>
       </c>
       <c r="E63" t="s">
-        <v>138</v>
-      </c>
-      <c r="F63" s="5">
-        <v>0</v>
-      </c>
-      <c r="G63" s="5">
+        <v>86</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7">
         <v>0</v>
       </c>
       <c r="H63" s="5">
         <v>2018</v>
       </c>
       <c r="I63" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="J63" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="D64" s="3">
         <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>140</v>
-      </c>
-      <c r="F64" s="5">
-        <v>0</v>
-      </c>
-      <c r="G64" s="5">
+        <v>88</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0</v>
+      </c>
+      <c r="G64" s="7">
         <v>0</v>
       </c>
       <c r="H64" s="5">
         <v>2018</v>
       </c>
       <c r="I64" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="D65" s="3">
         <v>63</v>
       </c>
       <c r="E65" t="s">
-        <v>142</v>
-      </c>
-      <c r="F65" s="5">
-        <v>0</v>
-      </c>
-      <c r="G65" s="5">
+        <v>90</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7">
         <v>0</v>
       </c>
       <c r="H65" s="5">
         <v>2018</v>
       </c>
       <c r="I65" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="J65" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="D66" s="3">
         <v>64</v>
       </c>
       <c r="E66" t="s">
-        <v>144</v>
-      </c>
-      <c r="F66" s="5">
-        <v>0</v>
-      </c>
-      <c r="G66" s="5">
+        <v>92</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7">
         <v>0</v>
       </c>
       <c r="H66" s="5">
         <v>2018</v>
       </c>
       <c r="I66" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="J66" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="D67" s="3">
         <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>146</v>
-      </c>
-      <c r="F67" s="5">
-        <v>0</v>
-      </c>
-      <c r="G67" s="5">
+        <v>94</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0</v>
+      </c>
+      <c r="G67" s="7">
         <v>0</v>
       </c>
       <c r="H67" s="5">
         <v>2018</v>
       </c>
       <c r="I67" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="J67" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="D68" s="3">
         <v>66</v>
       </c>
       <c r="E68" t="s">
-        <v>148</v>
-      </c>
-      <c r="F68" s="5">
-        <v>0</v>
-      </c>
-      <c r="G68" s="5">
+        <v>96</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
+      <c r="G68" s="7">
         <v>0</v>
       </c>
       <c r="H68" s="5">
         <v>2018</v>
       </c>
       <c r="I68" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="J68" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="D69" s="3">
         <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>150</v>
-      </c>
-      <c r="F69" s="5">
-        <v>0</v>
-      </c>
-      <c r="G69" s="5">
+        <v>98</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0</v>
+      </c>
+      <c r="G69" s="7">
         <v>0</v>
       </c>
       <c r="H69" s="5">
         <v>2018</v>
       </c>
       <c r="I69" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="J69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="D70" s="3">
         <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>152</v>
-      </c>
-      <c r="F70" s="5">
-        <v>0</v>
-      </c>
-      <c r="G70" s="5">
+        <v>100</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0</v>
+      </c>
+      <c r="G70" s="7">
         <v>0</v>
       </c>
       <c r="H70" s="5">
         <v>2018</v>
       </c>
       <c r="I70" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="J70" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="D71" s="3">
         <v>69</v>
       </c>
       <c r="E71" t="s">
-        <v>154</v>
-      </c>
-      <c r="F71" s="5">
-        <v>0</v>
-      </c>
-      <c r="G71" s="5">
+        <v>102</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0</v>
+      </c>
+      <c r="G71" s="7">
         <v>0</v>
       </c>
       <c r="H71" s="5">
         <v>2018</v>
       </c>
       <c r="I71" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="J71" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D72" s="3">
         <v>70</v>
       </c>
       <c r="E72" t="s">
-        <v>157</v>
-      </c>
-      <c r="F72" s="5">
-        <v>0</v>
-      </c>
-      <c r="G72" s="5">
+        <v>104</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
         <v>0</v>
       </c>
       <c r="H72" s="5">
         <v>2018</v>
       </c>
       <c r="I72" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="J72" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D73" s="3">
         <v>71</v>
       </c>
       <c r="E73" t="s">
-        <v>159</v>
-      </c>
-      <c r="F73" s="5">
-        <v>0</v>
-      </c>
-      <c r="G73" s="5">
+        <v>106</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
         <v>0</v>
       </c>
       <c r="H73" s="5">
         <v>2018</v>
       </c>
       <c r="I73" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="J73" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D74" s="3">
         <v>72</v>
       </c>
       <c r="E74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F74" s="5">
-        <v>0</v>
-      </c>
-      <c r="G74" s="5">
+        <v>108</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
         <v>0</v>
       </c>
       <c r="H74" s="5">
         <v>2018</v>
       </c>
       <c r="I74" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="J74" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D75" s="3">
         <v>73</v>
       </c>
       <c r="E75" t="s">
-        <v>163</v>
-      </c>
-      <c r="F75" s="5">
-        <v>0</v>
-      </c>
-      <c r="G75" s="5">
+        <v>110</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7">
         <v>0</v>
       </c>
       <c r="H75" s="5">
         <v>2018</v>
       </c>
       <c r="I75" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="J75" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D76" s="3">
         <v>74</v>
       </c>
       <c r="E76" t="s">
-        <v>165</v>
-      </c>
-      <c r="F76" s="5">
-        <v>0</v>
-      </c>
-      <c r="G76" s="5">
+        <v>112</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
         <v>0</v>
       </c>
       <c r="H76" s="5">
         <v>2018</v>
       </c>
       <c r="I76" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="J76" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D77" s="3">
         <v>75</v>
       </c>
       <c r="E77" t="s">
-        <v>167</v>
-      </c>
-      <c r="F77" s="5">
-        <v>0</v>
-      </c>
-      <c r="G77" s="5">
+        <v>114</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0</v>
+      </c>
+      <c r="G77" s="7">
         <v>0</v>
       </c>
       <c r="H77" s="5">
         <v>2018</v>
       </c>
       <c r="I77" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="J77" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D78" s="3">
         <v>76</v>
       </c>
       <c r="E78" t="s">
-        <v>169</v>
-      </c>
-      <c r="F78" s="5">
-        <v>0</v>
-      </c>
-      <c r="G78" s="5">
+        <v>116</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
         <v>0</v>
       </c>
       <c r="H78" s="5">
         <v>2018</v>
       </c>
       <c r="I78" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="J78" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D79" s="3">
         <v>77</v>
       </c>
       <c r="E79" t="s">
-        <v>171</v>
-      </c>
-      <c r="F79" s="5">
-        <v>0</v>
-      </c>
-      <c r="G79" s="5">
+        <v>118</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
+      <c r="G79" s="7">
         <v>0</v>
       </c>
       <c r="H79" s="5">
         <v>2018</v>
       </c>
       <c r="I79" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="J79" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D80" s="3">
         <v>78</v>
       </c>
       <c r="E80" t="s">
-        <v>173</v>
-      </c>
-      <c r="F80" s="5">
-        <v>0</v>
-      </c>
-      <c r="G80" s="5">
+        <v>120</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
         <v>0</v>
       </c>
       <c r="H80" s="5">
         <v>2018</v>
       </c>
       <c r="I80" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="J80" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D81" s="3">
         <v>79</v>
       </c>
       <c r="E81" t="s">
-        <v>175</v>
-      </c>
-      <c r="F81" s="5">
-        <v>0</v>
-      </c>
-      <c r="G81" s="5">
+        <v>122</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0</v>
+      </c>
+      <c r="G81" s="7">
         <v>0</v>
       </c>
       <c r="H81" s="5">
         <v>2018</v>
       </c>
       <c r="I81" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="J81" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D82" s="3">
         <v>80</v>
       </c>
       <c r="E82" t="s">
-        <v>177</v>
-      </c>
-      <c r="F82" s="5">
-        <v>0</v>
-      </c>
-      <c r="G82" s="5">
+        <v>124</v>
+      </c>
+      <c r="F82" s="7">
+        <v>0</v>
+      </c>
+      <c r="G82" s="7">
         <v>0</v>
       </c>
       <c r="H82" s="5">
         <v>2018</v>
       </c>
       <c r="I82" t="s">
+        <v>125</v>
+      </c>
+      <c r="J82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" t="s">
         <v>178</v>
-      </c>
-      <c r="J82" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A83" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" t="s">
-        <v>118</v>
-      </c>
-      <c r="C83" t="s">
-        <v>156</v>
       </c>
       <c r="D83" s="3">
         <v>81</v>
       </c>
       <c r="E83" t="s">
-        <v>179</v>
-      </c>
-      <c r="F83" s="5">
-        <v>0</v>
-      </c>
-      <c r="G83" s="5">
+        <v>126</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0</v>
+      </c>
+      <c r="G83" s="7">
         <v>0</v>
       </c>
       <c r="H83" s="5">
         <v>2018</v>
       </c>
       <c r="I83" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="J83" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D84" s="3">
         <v>82</v>
       </c>
       <c r="E84" t="s">
-        <v>181</v>
-      </c>
-      <c r="F84" s="5">
-        <v>0</v>
-      </c>
-      <c r="G84" s="5">
+        <v>128</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
         <v>0</v>
       </c>
       <c r="H84" s="5">
         <v>2018</v>
       </c>
       <c r="I84" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="J84" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D85" s="3">
         <v>83</v>
       </c>
       <c r="E85" t="s">
-        <v>183</v>
-      </c>
-      <c r="F85" s="5">
-        <v>0</v>
-      </c>
-      <c r="G85" s="5">
+        <v>130</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0</v>
+      </c>
+      <c r="G85" s="7">
         <v>0</v>
       </c>
       <c r="H85" s="5">
         <v>2018</v>
       </c>
       <c r="I85" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="J85" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C86" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D86" s="3">
         <v>84</v>
       </c>
       <c r="E86" t="s">
-        <v>185</v>
-      </c>
-      <c r="F86" s="5">
-        <v>0</v>
-      </c>
-      <c r="G86" s="5">
+        <v>132</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0</v>
+      </c>
+      <c r="G86" s="7">
         <v>0</v>
       </c>
       <c r="H86" s="5">
         <v>2018</v>
       </c>
       <c r="I86" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="J86" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D87" s="3">
         <v>85</v>
       </c>
       <c r="E87" t="s">
-        <v>187</v>
-      </c>
-      <c r="F87" s="5">
-        <v>0</v>
-      </c>
-      <c r="G87" s="5">
+        <v>134</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
         <v>0</v>
       </c>
       <c r="H87" s="5">
         <v>2018</v>
       </c>
       <c r="I87" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="J87" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D88" s="3">
         <v>86</v>
       </c>
       <c r="E88" t="s">
-        <v>189</v>
-      </c>
-      <c r="F88" s="5">
-        <v>0</v>
-      </c>
-      <c r="G88" s="5">
+        <v>136</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0</v>
+      </c>
+      <c r="G88" s="7">
         <v>0</v>
       </c>
       <c r="H88" s="5">
         <v>2018</v>
       </c>
       <c r="I88" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="J88" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D89" s="3">
         <v>87</v>
       </c>
       <c r="E89" t="s">
-        <v>191</v>
-      </c>
-      <c r="F89" s="5">
-        <v>0</v>
-      </c>
-      <c r="G89" s="5">
+        <v>138</v>
+      </c>
+      <c r="F89" s="7">
+        <v>0</v>
+      </c>
+      <c r="G89" s="7">
         <v>0</v>
       </c>
       <c r="H89" s="5">
         <v>2018</v>
       </c>
       <c r="I89" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="J89" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="17.25" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C90" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D90" s="3">
         <v>88</v>
       </c>
       <c r="E90" t="s">
-        <v>193</v>
-      </c>
-      <c r="F90" s="5">
-        <v>0</v>
-      </c>
-      <c r="G90" s="5">
-        <v>0</v>
+        <v>182</v>
+      </c>
+      <c r="F90" s="7">
+        <v>99.5</v>
+      </c>
+      <c r="G90" s="7">
+        <v>99.5</v>
       </c>
       <c r="H90" s="5">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="I90" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J90" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="17.25" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C91" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D91" s="3">
         <v>89</v>
       </c>
       <c r="E91" t="s">
-        <v>195</v>
-      </c>
-      <c r="F91" s="5">
-        <v>0</v>
-      </c>
-      <c r="G91" s="5">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="F91" s="7">
+        <v>200</v>
+      </c>
+      <c r="G91" s="7">
+        <v>145</v>
       </c>
       <c r="H91" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I91" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J91" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="17.25" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C92" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D92" s="3">
         <v>90</v>
       </c>
       <c r="E92" t="s">
-        <v>197</v>
-      </c>
-      <c r="F92" s="5">
-        <v>0</v>
-      </c>
-      <c r="G92" s="5">
+        <v>143</v>
+      </c>
+      <c r="F92" s="7">
+        <v>0</v>
+      </c>
+      <c r="G92" s="7">
         <v>0</v>
       </c>
       <c r="H92" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I92" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="J92" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="17.25" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C93" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D93" s="3">
         <v>91</v>
       </c>
       <c r="E93" t="s">
-        <v>199</v>
-      </c>
-      <c r="F93" s="5">
-        <v>0</v>
-      </c>
-      <c r="G93" s="5">
+        <v>184</v>
+      </c>
+      <c r="F93" s="7">
+        <v>0</v>
+      </c>
+      <c r="G93" s="7">
         <v>0</v>
       </c>
       <c r="H93" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I93" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="J93" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="17.25" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C94" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D94" s="3">
         <v>92</v>
       </c>
       <c r="E94" t="s">
-        <v>201</v>
-      </c>
-      <c r="F94" s="5">
-        <v>0</v>
-      </c>
-      <c r="G94" s="5">
+        <v>184</v>
+      </c>
+      <c r="F94" s="7">
+        <v>0</v>
+      </c>
+      <c r="G94" s="7">
         <v>0</v>
       </c>
       <c r="H94" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I94" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="J94" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="17.25" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C95" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D95" s="3">
         <v>93</v>
       </c>
       <c r="E95" t="s">
-        <v>203</v>
-      </c>
-      <c r="F95" s="5">
-        <v>0</v>
-      </c>
-      <c r="G95" s="5">
+        <v>184</v>
+      </c>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
+      <c r="G95" s="7">
         <v>0</v>
       </c>
       <c r="H95" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I95" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="J95" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="17.25" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C96" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D96" s="3">
         <v>94</v>
       </c>
       <c r="E96" t="s">
-        <v>205</v>
-      </c>
-      <c r="F96" s="5">
-        <v>0</v>
-      </c>
-      <c r="G96" s="5">
+        <v>185</v>
+      </c>
+      <c r="F96" s="7">
+        <v>0</v>
+      </c>
+      <c r="G96" s="7">
         <v>0</v>
       </c>
       <c r="H96" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I96" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="J96" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="17.25" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C97" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D97" s="3">
         <v>95</v>
       </c>
       <c r="E97" t="s">
-        <v>207</v>
-      </c>
-      <c r="F97" s="5">
-        <v>0</v>
-      </c>
-      <c r="G97" s="5">
+        <v>185</v>
+      </c>
+      <c r="F97" s="7">
+        <v>0</v>
+      </c>
+      <c r="G97" s="7">
         <v>0</v>
       </c>
       <c r="H97" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I97" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="J97" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="19.5" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="C98" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="D98" s="3">
         <v>96</v>
       </c>
       <c r="E98" t="s">
-        <v>211</v>
-      </c>
-      <c r="F98" s="5">
-        <v>995</v>
-      </c>
-      <c r="G98" s="5">
-        <v>995</v>
+        <v>185</v>
+      </c>
+      <c r="F98" s="7">
+        <v>0</v>
+      </c>
+      <c r="G98" s="7">
+        <v>0</v>
       </c>
       <c r="H98" s="5">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="I98" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="J98" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="19.5" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="C99" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="D99" s="3">
         <v>97</v>
       </c>
       <c r="E99" t="s">
-        <v>213</v>
-      </c>
-      <c r="F99" s="5">
-        <v>995</v>
-      </c>
-      <c r="G99" s="5">
-        <v>995</v>
+        <v>148</v>
+      </c>
+      <c r="F99" s="7">
+        <v>0</v>
+      </c>
+      <c r="G99" s="7">
+        <v>0</v>
       </c>
       <c r="H99" s="5">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="I99" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="J99" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="19.5" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="D100" s="3">
         <v>98</v>
       </c>
       <c r="E100" t="s">
-        <v>216</v>
-      </c>
-      <c r="F100" s="5">
-        <v>890</v>
-      </c>
-      <c r="G100" s="5">
-        <v>890</v>
+        <v>149</v>
+      </c>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
+      <c r="G100" s="7">
+        <v>0</v>
       </c>
       <c r="H100" s="5">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="I100" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="J100" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="19.5" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="C101" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="D101" s="3">
         <v>99</v>
       </c>
       <c r="E101" t="s">
-        <v>219</v>
-      </c>
-      <c r="F101" s="5">
-        <v>2000</v>
-      </c>
-      <c r="G101" s="5">
-        <v>1450</v>
+        <v>150</v>
+      </c>
+      <c r="F101" s="7">
+        <v>0</v>
+      </c>
+      <c r="G101" s="7">
+        <v>0</v>
       </c>
       <c r="H101" s="5">
         <v>2017</v>
       </c>
       <c r="I101" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="J101" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="19.5" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="C102" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="D102" s="3">
         <v>100</v>
       </c>
       <c r="E102" t="s">
-        <v>221</v>
-      </c>
-      <c r="F102" s="5">
-        <v>0</v>
-      </c>
-      <c r="G102" s="5">
-        <v>0</v>
+        <v>144</v>
+      </c>
+      <c r="F102" s="7">
+        <v>40</v>
+      </c>
+      <c r="G102" s="7">
+        <v>13</v>
       </c>
       <c r="H102" s="5">
         <v>2017</v>
       </c>
       <c r="I102" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="J102" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="19.5" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="C103" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="D103" s="3">
         <v>101</v>
       </c>
       <c r="E103" t="s">
-        <v>267</v>
-      </c>
-      <c r="F103" s="5">
-        <v>0</v>
-      </c>
-      <c r="G103" s="5">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="F103" s="7">
+        <v>40</v>
+      </c>
+      <c r="G103" s="7">
+        <v>13</v>
       </c>
       <c r="H103" s="5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I103" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="J103" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="19.5" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="C104" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="D104" s="3">
         <v>102</v>
       </c>
       <c r="E104" t="s">
-        <v>268</v>
-      </c>
-      <c r="F104" s="5">
-        <v>0</v>
-      </c>
-      <c r="G104" s="5">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="F104" s="7">
+        <v>40</v>
+      </c>
+      <c r="G104" s="7">
+        <v>13</v>
       </c>
       <c r="H104" s="5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I104" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="J104" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="19.5" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="D105" s="3">
         <v>103</v>
       </c>
       <c r="E105" t="s">
-        <v>269</v>
-      </c>
-      <c r="F105" s="5">
-        <v>0</v>
-      </c>
-      <c r="G105" s="5">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="F105" s="7">
+        <v>50</v>
+      </c>
+      <c r="G105" s="7">
+        <v>50</v>
       </c>
       <c r="H105" s="5">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="I105" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="J105" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="19.5" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="D106" s="3">
         <v>104</v>
       </c>
       <c r="E106" t="s">
-        <v>262</v>
-      </c>
-      <c r="F106" s="5">
-        <v>0</v>
-      </c>
-      <c r="G106" s="5">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="F106" s="7">
+        <v>50</v>
+      </c>
+      <c r="G106" s="7">
+        <v>50</v>
       </c>
       <c r="H106" s="5">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="I106" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="J106" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="19.5" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="C107" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="D107" s="3">
         <v>105</v>
       </c>
       <c r="E107" t="s">
-        <v>263</v>
-      </c>
-      <c r="F107" s="5">
-        <v>0</v>
-      </c>
-      <c r="G107" s="5">
-        <v>0</v>
+        <v>172</v>
+      </c>
+      <c r="F107" s="7">
+        <v>213.4</v>
+      </c>
+      <c r="G107" s="7">
+        <v>142.19999999999999</v>
       </c>
       <c r="H107" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="I107" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="J107" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="19.5" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="C108" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="D108" s="3">
         <v>106</v>
       </c>
       <c r="E108" t="s">
-        <v>264</v>
-      </c>
-      <c r="F108" s="5">
-        <v>0</v>
-      </c>
-      <c r="G108" s="5">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="F108" s="7">
+        <v>107</v>
+      </c>
+      <c r="G108" s="7">
+        <v>148</v>
       </c>
       <c r="H108" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="I108" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="J108" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="19.5" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="C109" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="D109" s="3">
         <v>107</v>
       </c>
       <c r="E109" t="s">
-        <v>265</v>
-      </c>
-      <c r="F109" s="5">
-        <v>0</v>
-      </c>
-      <c r="G109" s="5">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="F109" s="7">
+        <v>120.9</v>
+      </c>
+      <c r="G109" s="7">
+        <v>325.10000000000002</v>
       </c>
       <c r="H109" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="I109" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="J109" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="19.5" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="C110" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="D110" s="3">
         <v>108</v>
       </c>
       <c r="E110" t="s">
-        <v>266</v>
-      </c>
-      <c r="F110" s="5">
-        <v>0</v>
-      </c>
-      <c r="G110" s="5">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="F110" s="7">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="G110" s="7">
+        <v>106.7</v>
       </c>
       <c r="H110" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="I110" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="J110" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="19.5" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="C111" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="D111" s="3">
         <v>109</v>
       </c>
       <c r="E111" t="s">
-        <v>256</v>
-      </c>
-      <c r="F111" s="5">
-        <v>0</v>
-      </c>
-      <c r="G111" s="5">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="F111" s="7">
+        <v>120.9</v>
+      </c>
+      <c r="G111" s="7">
+        <v>325.10000000000002</v>
       </c>
       <c r="H111" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="I111" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="J111" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="19.5" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="C112" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="D112" s="3">
         <v>110</v>
       </c>
       <c r="E112" t="s">
-        <v>257</v>
-      </c>
-      <c r="F112" s="5">
-        <v>0</v>
-      </c>
-      <c r="G112" s="5">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="F112" s="7">
+        <v>50</v>
+      </c>
+      <c r="G112" s="7">
+        <v>50</v>
       </c>
       <c r="H112" s="5">
         <v>2017</v>
       </c>
       <c r="I112" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="J112" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="19.5" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="C113" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="D113" s="3">
         <v>111</v>
       </c>
       <c r="E113" t="s">
-        <v>258</v>
-      </c>
-      <c r="F113" s="5">
-        <v>0</v>
-      </c>
-      <c r="G113" s="5">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="F113" s="7">
+        <v>65</v>
+      </c>
+      <c r="G113" s="7">
+        <v>63</v>
       </c>
       <c r="H113" s="5">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="I113" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="J113" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A114" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" t="s">
-        <v>209</v>
-      </c>
-      <c r="C114" t="s">
-        <v>209</v>
-      </c>
-      <c r="D114" s="3">
-        <v>112</v>
-      </c>
-      <c r="E114" t="s">
-        <v>259</v>
-      </c>
-      <c r="F114" s="5">
-        <v>0</v>
-      </c>
-      <c r="G114" s="5">
-        <v>0</v>
-      </c>
-      <c r="H114" s="5">
-        <v>2017</v>
-      </c>
-      <c r="I114" t="s">
-        <v>234</v>
-      </c>
-      <c r="J114" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A115" t="s">
-        <v>9</v>
-      </c>
-      <c r="B115" t="s">
-        <v>209</v>
-      </c>
-      <c r="C115" t="s">
-        <v>209</v>
-      </c>
-      <c r="D115" s="3">
-        <v>113</v>
-      </c>
-      <c r="E115" t="s">
-        <v>260</v>
-      </c>
-      <c r="F115" s="5">
-        <v>0</v>
-      </c>
-      <c r="G115" s="5">
-        <v>0</v>
-      </c>
-      <c r="H115" s="5">
-        <v>2017</v>
-      </c>
-      <c r="I115" t="s">
-        <v>235</v>
-      </c>
-      <c r="J115" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A116" t="s">
-        <v>9</v>
-      </c>
-      <c r="B116" t="s">
-        <v>209</v>
-      </c>
-      <c r="C116" t="s">
-        <v>209</v>
-      </c>
-      <c r="D116" s="3">
-        <v>114</v>
-      </c>
-      <c r="E116" t="s">
-        <v>261</v>
-      </c>
-      <c r="F116" s="5">
-        <v>0</v>
-      </c>
-      <c r="G116" s="5">
-        <v>0</v>
-      </c>
-      <c r="H116" s="5">
-        <v>2017</v>
-      </c>
-      <c r="I116" t="s">
-        <v>236</v>
-      </c>
-      <c r="J116" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A117" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117" t="s">
-        <v>209</v>
-      </c>
-      <c r="C117" t="s">
-        <v>209</v>
-      </c>
-      <c r="D117" s="3">
-        <v>115</v>
-      </c>
-      <c r="E117" t="s">
-        <v>237</v>
-      </c>
-      <c r="F117" s="5">
-        <v>0</v>
-      </c>
-      <c r="G117" s="5">
-        <v>0</v>
-      </c>
-      <c r="H117" s="5">
-        <v>2016</v>
-      </c>
-      <c r="I117" t="s">
-        <v>238</v>
-      </c>
-      <c r="J117" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A118" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" t="s">
-        <v>209</v>
-      </c>
-      <c r="C118" t="s">
-        <v>209</v>
-      </c>
-      <c r="D118" s="3">
-        <v>116</v>
-      </c>
-      <c r="E118" t="s">
-        <v>239</v>
-      </c>
-      <c r="F118" s="5">
-        <v>0</v>
-      </c>
-      <c r="G118" s="5">
-        <v>0</v>
-      </c>
-      <c r="H118" s="5">
-        <v>2017</v>
-      </c>
-      <c r="I118" t="s">
-        <v>240</v>
-      </c>
-      <c r="J118" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A119" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" t="s">
-        <v>209</v>
-      </c>
-      <c r="C119" t="s">
-        <v>209</v>
-      </c>
-      <c r="D119" s="3">
-        <v>117</v>
-      </c>
-      <c r="E119" t="s">
-        <v>241</v>
-      </c>
-      <c r="F119" s="5">
-        <v>400</v>
-      </c>
-      <c r="G119" s="5">
-        <v>130</v>
-      </c>
-      <c r="H119" s="5">
-        <v>2016</v>
-      </c>
-      <c r="I119" t="s">
-        <v>242</v>
-      </c>
-      <c r="J119" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A120" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120" t="s">
-        <v>209</v>
-      </c>
-      <c r="C120" t="s">
-        <v>209</v>
-      </c>
-      <c r="D120" s="3">
-        <v>118</v>
-      </c>
-      <c r="E120" t="s">
-        <v>243</v>
-      </c>
-      <c r="F120" s="5">
-        <v>0</v>
-      </c>
-      <c r="G120" s="5">
-        <v>0</v>
-      </c>
-      <c r="H120" s="5">
-        <v>2016</v>
-      </c>
-      <c r="I120" t="s">
-        <v>244</v>
-      </c>
-      <c r="J120" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A121" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" t="s">
-        <v>209</v>
-      </c>
-      <c r="C121" t="s">
-        <v>209</v>
-      </c>
-      <c r="D121" s="3">
-        <v>119</v>
-      </c>
-      <c r="E121" t="s">
-        <v>253</v>
-      </c>
-      <c r="F121" s="5">
-        <v>750</v>
-      </c>
-      <c r="G121" s="5">
-        <v>160</v>
-      </c>
-      <c r="H121" s="5">
-        <v>2016</v>
-      </c>
-      <c r="I121" t="s">
-        <v>245</v>
-      </c>
-      <c r="J121" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A122" t="s">
-        <v>9</v>
-      </c>
-      <c r="B122" t="s">
-        <v>209</v>
-      </c>
-      <c r="C122" t="s">
-        <v>209</v>
-      </c>
-      <c r="D122" s="3">
-        <v>120</v>
-      </c>
-      <c r="E122" t="s">
-        <v>254</v>
-      </c>
-      <c r="F122" s="5">
-        <v>750</v>
-      </c>
-      <c r="G122" s="5">
-        <v>160</v>
-      </c>
-      <c r="H122" s="5">
-        <v>2016</v>
-      </c>
-      <c r="I122" t="s">
-        <v>246</v>
-      </c>
-      <c r="J122" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A123" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" t="s">
-        <v>209</v>
-      </c>
-      <c r="C123" t="s">
-        <v>209</v>
-      </c>
-      <c r="D123" s="3">
-        <v>121</v>
-      </c>
-      <c r="E123" t="s">
-        <v>255</v>
-      </c>
-      <c r="F123" s="5">
-        <v>750</v>
-      </c>
-      <c r="G123" s="5">
-        <v>160</v>
-      </c>
-      <c r="H123" s="5">
-        <v>2016</v>
-      </c>
-      <c r="I123" t="s">
-        <v>247</v>
-      </c>
-      <c r="J123" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="17.25" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D114" s="3"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+    </row>
+    <row r="115" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D115" s="3"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+    </row>
+    <row r="116" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D116" s="3"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D117" s="3"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D118" s="3"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D119" s="3"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D120" s="3"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+    </row>
+    <row r="121" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D121" s="3"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+    </row>
+    <row r="122" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D122" s="3"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+    </row>
+    <row r="123" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D123" s="3"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+    </row>
+    <row r="124" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D124" s="3"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
     </row>
-    <row r="125" spans="1:10" ht="17.25" customHeight="1">
+    <row r="125" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D125" s="3"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
     </row>
-    <row r="126" spans="1:10" ht="17.25" customHeight="1">
+    <row r="126" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D126" s="3"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
     </row>
-    <row r="127" spans="1:10" ht="17.25" customHeight="1">
+    <row r="127" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D127" s="3"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
     </row>
-    <row r="128" spans="1:10" ht="17.25" customHeight="1">
+    <row r="128" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D128" s="3"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
     </row>
-    <row r="129" spans="4:8" ht="17.25" customHeight="1">
+    <row r="129" spans="4:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D129" s="3"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
     </row>
-    <row r="130" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D130" s="3"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-    </row>
-    <row r="131" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D131" s="3"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-    </row>
-    <row r="132" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D132" s="3"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-    </row>
-    <row r="133" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D133" s="3"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
-    </row>
-    <row r="134" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D134" s="3"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-    </row>
-    <row r="135" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D135" s="3"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-    </row>
-    <row r="136" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D136" s="3"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-    </row>
-    <row r="137" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D137" s="3"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-    </row>
-    <row r="138" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D138" s="3"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-    </row>
-    <row r="139" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D139" s="3"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-    </row>
-    <row r="140" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D140" s="3"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-    </row>
-    <row r="141" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D141" s="3"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-    </row>
-    <row r="142" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D142" s="3"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-    </row>
-    <row r="143" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D143" s="3"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-    </row>
-    <row r="144" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D144" s="3"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-    </row>
-    <row r="145" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D145" s="3"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-    </row>
-    <row r="146" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D146" s="3"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-    </row>
-    <row r="147" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D147" s="3"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-    </row>
-    <row r="148" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D148" s="3"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:J113" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Artworks.xlsx
+++ b/Artworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cording\hijonam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangjin/web_renewal/hijonam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9E0C5E-DFB7-4BB0-A98A-779E28021C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961B2DE8-C509-0346-BB13-D3A10328DC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40580" yWindow="1320" windowWidth="29100" windowHeight="18610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2080" yWindow="3680" windowWidth="23880" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="250">
   <si>
     <t>category</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>Journey 5</t>
-  </si>
-  <si>
-    <t>Journey 5-2022.jpg</t>
   </si>
   <si>
     <t>Journey 6</t>
@@ -499,14 +496,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Breeding01_2017.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Denver Spanish Town-2022.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Consolation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -634,10 +623,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Mask</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Cycle of Nature_ Wagon Wheel, Oil on Wood Kettle Lid 99.5x99.5cm_2012.jpg</t>
   </si>
   <si>
@@ -732,9 +717,6 @@
   </si>
   <si>
     <t>Journey 4 Fabric collage on Canvas 53x72.2cm_2022.jpg</t>
-  </si>
-  <si>
-    <t>Journey 5 Fabric collage on Canvas 53x72.2cm_2022.jpg</t>
   </si>
   <si>
     <t>Journey 6 Fabric collage on Canvas 53x72.2cm_2022.jpg</t>
@@ -836,6 +818,14 @@
   </si>
   <si>
     <t>Omega Point3_1_2018.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breeding 0_2017.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journey 5 Fabric collage on Canvas 53x72.2cm_2022.jpg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -848,7 +838,7 @@
     <numFmt numFmtId="177" formatCode="0.0;[Red]0.0"/>
     <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,17 +1218,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" customWidth="1"/>
@@ -1248,11 +1238,11 @@
     <col min="6" max="6" width="9.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.9140625" customWidth="1"/>
-    <col min="10" max="10" width="28.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.83203125" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1281,10 +1271,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1298,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F2" s="7">
         <v>72.7</v>
@@ -1310,13 +1300,13 @@
         <v>2022</v>
       </c>
       <c r="I2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1324,7 +1314,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1342,13 +1332,13 @@
         <v>2012</v>
       </c>
       <c r="I3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1356,13 +1346,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7">
         <v>69.400000000000006</v>
@@ -1374,13 +1364,13 @@
         <v>2017</v>
       </c>
       <c r="I4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1388,13 +1378,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7">
         <v>50</v>
@@ -1406,13 +1396,13 @@
         <v>2017</v>
       </c>
       <c r="I5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1420,31 +1410,31 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D6" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6" s="7">
-        <v>63.5</v>
+        <v>50</v>
       </c>
       <c r="G6" s="7">
-        <v>123.2</v>
+        <v>50</v>
       </c>
       <c r="H6" s="5">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="I6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1452,13 +1442,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D7" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7">
         <v>50</v>
@@ -1467,16 +1457,16 @@
         <v>50</v>
       </c>
       <c r="H7" s="5">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="I7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1484,31 +1474,31 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D8" s="3">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F8" s="7">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7">
-        <v>91</v>
+        <v>94.7</v>
       </c>
       <c r="H8" s="5">
         <v>2015</v>
       </c>
       <c r="I8" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1516,13 +1506,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D9" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F9" s="7">
         <v>50</v>
@@ -1531,16 +1521,16 @@
         <v>50</v>
       </c>
       <c r="H9" s="5">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="I9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="J9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1548,173 +1538,173 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D10" s="3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="F10" s="7">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H10" s="5">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="I10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="J10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="D11" s="3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F11" s="7">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7">
-        <v>72.2</v>
+        <v>59</v>
       </c>
       <c r="H11" s="5">
         <v>2022</v>
       </c>
       <c r="I11" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="D12" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G12" s="7">
-        <v>72.2</v>
+        <v>59</v>
       </c>
       <c r="H12" s="5">
         <v>2022</v>
       </c>
       <c r="I12" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="D13" s="3">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F13" s="7">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7">
-        <v>72.2</v>
+        <v>59</v>
       </c>
       <c r="H13" s="5">
         <v>2022</v>
       </c>
       <c r="I13" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="D14" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="F14" s="7">
-        <v>53</v>
+        <v>63.5</v>
       </c>
       <c r="G14" s="7">
-        <v>72.2</v>
+        <v>123.2</v>
       </c>
       <c r="H14" s="5">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="I14" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F15" s="7">
         <v>53</v>
@@ -1726,13 +1716,13 @@
         <v>2022</v>
       </c>
       <c r="I15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1743,10 +1733,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7">
         <v>53</v>
@@ -1758,13 +1748,13 @@
         <v>2022</v>
       </c>
       <c r="I16" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1775,10 +1765,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F17" s="7">
         <v>53</v>
@@ -1790,13 +1780,13 @@
         <v>2022</v>
       </c>
       <c r="I17" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1807,10 +1797,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7">
         <v>53</v>
@@ -1822,141 +1812,141 @@
         <v>2022</v>
       </c>
       <c r="I18" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="J18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="7">
+        <v>53</v>
+      </c>
+      <c r="G19" s="7">
+        <v>72.2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2022</v>
+      </c>
+      <c r="I19" t="s">
+        <v>249</v>
+      </c>
+      <c r="J19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="3">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="7">
-        <v>150</v>
-      </c>
-      <c r="G19" s="7">
-        <v>94.7</v>
-      </c>
-      <c r="H19" s="5">
-        <v>2015</v>
-      </c>
-      <c r="I19" t="s">
-        <v>223</v>
-      </c>
-      <c r="J19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="3">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
       <c r="F20" s="7">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7">
-        <v>59</v>
+        <v>72.2</v>
       </c>
       <c r="H20" s="5">
         <v>2022</v>
       </c>
       <c r="I20" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7">
-        <v>59</v>
+        <v>72.2</v>
       </c>
       <c r="H21" s="5">
         <v>2022</v>
       </c>
       <c r="I21" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F22" s="7">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G22" s="7">
-        <v>59</v>
+        <v>72.2</v>
       </c>
       <c r="H22" s="5">
         <v>2022</v>
       </c>
       <c r="I22" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" customHeight="1">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1964,31 +1954,31 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D23" s="3">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F23" s="7">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="G23" s="7">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="H23" s="5">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="I23" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="19.5" customHeight="1">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1996,14 +1986,14 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="3">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="3">
-        <v>22</v>
-      </c>
-      <c r="E24" t="s">
-        <v>163</v>
-      </c>
       <c r="F24" s="7">
         <v>50</v>
       </c>
@@ -2011,16 +2001,16 @@
         <v>50</v>
       </c>
       <c r="H24" s="5">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="I24" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="19.5" customHeight="1">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2028,95 +2018,95 @@
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D25" s="3">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="7">
+        <v>50</v>
+      </c>
+      <c r="G25" s="7">
+        <v>50</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2014</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="3">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="7">
+        <v>50</v>
+      </c>
+      <c r="G26" s="7">
+        <v>50</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2017</v>
+      </c>
+      <c r="I26" t="s">
+        <v>223</v>
+      </c>
+      <c r="J26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="3">
         <v>23</v>
       </c>
-      <c r="E25" t="s">
-        <v>164</v>
-      </c>
-      <c r="F25" s="7">
-        <v>50</v>
-      </c>
-      <c r="G25" s="7">
-        <v>50</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="E27" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="7">
+        <v>50</v>
+      </c>
+      <c r="G27" s="7">
+        <v>50</v>
+      </c>
+      <c r="H27" s="5">
         <v>2017</v>
       </c>
-      <c r="I25" t="s">
-        <v>229</v>
-      </c>
-      <c r="J25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="3">
-        <v>24</v>
-      </c>
-      <c r="E26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="7">
-        <v>72.7</v>
-      </c>
-      <c r="G26" s="7">
-        <v>90.9</v>
-      </c>
-      <c r="H26" s="5">
-        <v>2022</v>
-      </c>
-      <c r="I26" t="s">
-        <v>230</v>
-      </c>
-      <c r="J26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="7">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7">
-        <v>72.7</v>
-      </c>
-      <c r="H27" s="5">
-        <v>2018</v>
-      </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="J27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2127,28 +2117,28 @@
         <v>11</v>
       </c>
       <c r="D28" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F28" s="7">
-        <v>30.4</v>
+        <v>72.7</v>
       </c>
       <c r="G28" s="7">
-        <v>30.4</v>
+        <v>90.9</v>
       </c>
       <c r="H28" s="5">
         <v>2022</v>
       </c>
       <c r="I28" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="J28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2159,28 +2149,28 @@
         <v>11</v>
       </c>
       <c r="D29" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F29" s="7">
-        <v>30.4</v>
+        <v>53</v>
       </c>
       <c r="G29" s="7">
-        <v>30.4</v>
+        <v>72.7</v>
       </c>
       <c r="H29" s="5">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="I29" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2191,28 +2181,28 @@
         <v>11</v>
       </c>
       <c r="D30" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F30" s="7">
-        <v>56</v>
+        <v>30.4</v>
       </c>
       <c r="G30" s="7">
-        <v>71.3</v>
+        <v>30.4</v>
       </c>
       <c r="H30" s="5">
         <v>2022</v>
       </c>
       <c r="I30" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2223,28 +2213,28 @@
         <v>11</v>
       </c>
       <c r="D31" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F31" s="7">
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="G31" s="7">
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="H31" s="5">
         <v>2022</v>
       </c>
       <c r="I31" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2255,28 +2245,28 @@
         <v>11</v>
       </c>
       <c r="D32" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F32" s="7">
-        <v>45.6</v>
+        <v>56</v>
       </c>
       <c r="G32" s="7">
-        <v>61</v>
+        <v>71.3</v>
       </c>
       <c r="H32" s="5">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="I32" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="J32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -2287,28 +2277,28 @@
         <v>11</v>
       </c>
       <c r="D33" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F33" s="7">
-        <v>45.6</v>
+        <v>30</v>
       </c>
       <c r="G33" s="7">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="H33" s="5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I33" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="J33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2319,28 +2309,28 @@
         <v>11</v>
       </c>
       <c r="D34" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F34" s="7">
-        <v>46</v>
+        <v>45.6</v>
       </c>
       <c r="G34" s="7">
-        <v>60.7</v>
+        <v>61</v>
       </c>
       <c r="H34" s="5">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="I34" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -2351,28 +2341,28 @@
         <v>11</v>
       </c>
       <c r="D35" s="3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F35" s="7">
-        <v>30</v>
+        <v>45.6</v>
       </c>
       <c r="G35" s="7">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H35" s="5">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I35" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="J35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2383,28 +2373,28 @@
         <v>11</v>
       </c>
       <c r="D36" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F36" s="7">
-        <v>45.5</v>
+        <v>46</v>
       </c>
       <c r="G36" s="7">
-        <v>53</v>
+        <v>60.7</v>
       </c>
       <c r="H36" s="5">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I36" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="J36" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -2415,28 +2405,28 @@
         <v>11</v>
       </c>
       <c r="D37" s="3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F37" s="7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G37" s="7">
-        <v>55.2</v>
+        <v>30</v>
       </c>
       <c r="H37" s="5">
         <v>2022</v>
       </c>
       <c r="I37" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="J37" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2447,28 +2437,28 @@
         <v>11</v>
       </c>
       <c r="D38" s="3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F38" s="7">
-        <v>56</v>
+        <v>45.5</v>
       </c>
       <c r="G38" s="7">
-        <v>71.3</v>
+        <v>53</v>
       </c>
       <c r="H38" s="5">
         <v>2022</v>
       </c>
       <c r="I38" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="J38" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -2479,28 +2469,28 @@
         <v>11</v>
       </c>
       <c r="D39" s="3">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F39" s="7">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G39" s="7">
-        <v>72.7</v>
+        <v>55.2</v>
       </c>
       <c r="H39" s="5">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="I39" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J39" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2511,28 +2501,28 @@
         <v>11</v>
       </c>
       <c r="D40" s="3">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F40" s="7">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G40" s="7">
-        <v>72.7</v>
+        <v>71.3</v>
       </c>
       <c r="H40" s="5">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="I40" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="J40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -2543,28 +2533,28 @@
         <v>11</v>
       </c>
       <c r="D41" s="3">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F41" s="7">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="G41" s="7">
-        <v>116.8</v>
+        <v>72.7</v>
       </c>
       <c r="H41" s="5">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="I41" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="J41" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2575,28 +2565,28 @@
         <v>11</v>
       </c>
       <c r="D42" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F42" s="7">
-        <v>101.5</v>
+        <v>53</v>
       </c>
       <c r="G42" s="7">
-        <v>101</v>
+        <v>72.7</v>
       </c>
       <c r="H42" s="5">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="I42" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J42" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2607,28 +2597,28 @@
         <v>11</v>
       </c>
       <c r="D43" s="3">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F43" s="7">
-        <v>45.5</v>
+        <v>91</v>
       </c>
       <c r="G43" s="7">
-        <v>53</v>
+        <v>116.8</v>
       </c>
       <c r="H43" s="5">
         <v>2022</v>
       </c>
       <c r="I43" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J43" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -2639,28 +2629,28 @@
         <v>11</v>
       </c>
       <c r="D44" s="3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F44" s="7">
-        <v>53</v>
+        <v>101.5</v>
       </c>
       <c r="G44" s="7">
-        <v>72.7</v>
+        <v>101</v>
       </c>
       <c r="H44" s="5">
         <v>2022</v>
       </c>
       <c r="I44" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -2671,1578 +2661,1578 @@
         <v>11</v>
       </c>
       <c r="D45" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F45" s="7">
-        <v>60.6</v>
+        <v>45.5</v>
       </c>
       <c r="G45" s="7">
-        <v>72.7</v>
+        <v>53</v>
       </c>
       <c r="H45" s="5">
         <v>2022</v>
       </c>
       <c r="I45" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="J45" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A46" t="s">
         <v>9</v>
       </c>
       <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="3">
+        <v>42</v>
+      </c>
+      <c r="E46" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="7">
+        <v>53</v>
+      </c>
+      <c r="G46" s="7">
+        <v>72.7</v>
+      </c>
+      <c r="H46" s="5">
+        <v>2022</v>
+      </c>
+      <c r="I46" t="s">
+        <v>243</v>
+      </c>
+      <c r="J46" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="3">
+        <v>43</v>
+      </c>
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="7">
+        <v>60.6</v>
+      </c>
+      <c r="G47" s="7">
+        <v>72.7</v>
+      </c>
+      <c r="H47" s="5">
+        <v>2022</v>
+      </c>
+      <c r="I47" t="s">
+        <v>244</v>
+      </c>
+      <c r="J47" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="3">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I48" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="3">
+        <v>45</v>
+      </c>
+      <c r="E49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I49" t="s">
+        <v>54</v>
+      </c>
+      <c r="J49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="3">
+        <v>46</v>
+      </c>
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I50" t="s">
+        <v>56</v>
+      </c>
+      <c r="J50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="3">
+        <v>47</v>
+      </c>
+      <c r="E51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I51" t="s">
+        <v>58</v>
+      </c>
+      <c r="J51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="3">
+        <v>48</v>
+      </c>
+      <c r="E52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I52" t="s">
+        <v>60</v>
+      </c>
+      <c r="J52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="3">
+        <v>49</v>
+      </c>
+      <c r="E53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I53" t="s">
+        <v>62</v>
+      </c>
+      <c r="J53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" s="3">
+        <v>50</v>
+      </c>
+      <c r="E54" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I54" t="s">
+        <v>64</v>
+      </c>
+      <c r="J54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" s="3">
+        <v>51</v>
+      </c>
+      <c r="E55" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I55" t="s">
+        <v>66</v>
+      </c>
+      <c r="J55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" s="3">
+        <v>52</v>
+      </c>
+      <c r="E56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I56" t="s">
+        <v>68</v>
+      </c>
+      <c r="J56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" s="3">
+        <v>53</v>
+      </c>
+      <c r="E57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="3">
+        <v>54</v>
+      </c>
+      <c r="E58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I58" t="s">
+        <v>72</v>
+      </c>
+      <c r="J58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="3">
+        <v>55</v>
+      </c>
+      <c r="E59" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I59" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="3">
+        <v>56</v>
+      </c>
+      <c r="E60" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I60" t="s">
+        <v>76</v>
+      </c>
+      <c r="J60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" s="3">
+        <v>57</v>
+      </c>
+      <c r="E61" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0</v>
+      </c>
+      <c r="H61" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I61" t="s">
+        <v>78</v>
+      </c>
+      <c r="J61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="3">
+        <v>58</v>
+      </c>
+      <c r="E62" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
+      <c r="H62" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I62" t="s">
+        <v>80</v>
+      </c>
+      <c r="J62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63" s="3">
+        <v>59</v>
+      </c>
+      <c r="E63" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0</v>
+      </c>
+      <c r="H63" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I63" t="s">
+        <v>82</v>
+      </c>
+      <c r="J63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="3">
+        <v>60</v>
+      </c>
+      <c r="E64" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0</v>
+      </c>
+      <c r="G64" s="7">
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I64" t="s">
+        <v>84</v>
+      </c>
+      <c r="J64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" s="3">
+        <v>61</v>
+      </c>
+      <c r="E65" t="s">
+        <v>85</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I65" t="s">
+        <v>86</v>
+      </c>
+      <c r="J65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" s="3">
+        <v>62</v>
+      </c>
+      <c r="E66" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+      <c r="H66" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I66" t="s">
+        <v>88</v>
+      </c>
+      <c r="J66" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" s="3">
+        <v>63</v>
+      </c>
+      <c r="E67" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0</v>
+      </c>
+      <c r="H67" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
+      <c r="J67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68" s="3">
+        <v>64</v>
+      </c>
+      <c r="E68" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+      <c r="J68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" s="3">
+        <v>65</v>
+      </c>
+      <c r="E69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0</v>
+      </c>
+      <c r="G69" s="7">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+      <c r="J69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="3">
+        <v>66</v>
+      </c>
+      <c r="E70" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0</v>
+      </c>
+      <c r="G70" s="7">
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I70" t="s">
+        <v>96</v>
+      </c>
+      <c r="J70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="3">
+        <v>67</v>
+      </c>
+      <c r="E71" t="s">
+        <v>97</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+      <c r="J71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" t="s">
+        <v>175</v>
+      </c>
+      <c r="D72" s="3">
+        <v>68</v>
+      </c>
+      <c r="E72" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+      <c r="J72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" t="s">
+        <v>175</v>
+      </c>
+      <c r="D73" s="3">
+        <v>69</v>
+      </c>
+      <c r="E73" t="s">
+        <v>101</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I73" t="s">
+        <v>102</v>
+      </c>
+      <c r="J73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D74" s="3">
+        <v>70</v>
+      </c>
+      <c r="E74" t="s">
+        <v>103</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0</v>
+      </c>
+      <c r="H74" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I74" t="s">
+        <v>104</v>
+      </c>
+      <c r="J74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" s="3">
+        <v>71</v>
+      </c>
+      <c r="E75" t="s">
+        <v>105</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0</v>
+      </c>
+      <c r="H75" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I75" t="s">
+        <v>106</v>
+      </c>
+      <c r="J75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" t="s">
+        <v>175</v>
+      </c>
+      <c r="D76" s="3">
+        <v>72</v>
+      </c>
+      <c r="E76" t="s">
+        <v>107</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
+      <c r="H76" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I76" t="s">
+        <v>108</v>
+      </c>
+      <c r="J76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" t="s">
+        <v>175</v>
+      </c>
+      <c r="D77" s="3">
+        <v>73</v>
+      </c>
+      <c r="E77" t="s">
+        <v>109</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
+      <c r="H77" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I77" t="s">
+        <v>110</v>
+      </c>
+      <c r="J77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" s="3">
+        <v>74</v>
+      </c>
+      <c r="E78" t="s">
+        <v>111</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0</v>
+      </c>
+      <c r="H78" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I78" t="s">
+        <v>112</v>
+      </c>
+      <c r="J78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79" s="3">
+        <v>75</v>
+      </c>
+      <c r="E79" t="s">
+        <v>113</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
+      <c r="G79" s="7">
+        <v>0</v>
+      </c>
+      <c r="H79" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I79" t="s">
+        <v>114</v>
+      </c>
+      <c r="J79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" t="s">
+        <v>175</v>
+      </c>
+      <c r="D80" s="3">
+        <v>76</v>
+      </c>
+      <c r="E80" t="s">
+        <v>115</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
+        <v>0</v>
+      </c>
+      <c r="H80" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I80" t="s">
+        <v>116</v>
+      </c>
+      <c r="J80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81" s="3">
+        <v>77</v>
+      </c>
+      <c r="E81" t="s">
+        <v>117</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
+      <c r="H81" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I81" t="s">
+        <v>118</v>
+      </c>
+      <c r="J81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" t="s">
+        <v>175</v>
+      </c>
+      <c r="D82" s="3">
+        <v>78</v>
+      </c>
+      <c r="E82" t="s">
+        <v>119</v>
+      </c>
+      <c r="F82" s="7">
+        <v>0</v>
+      </c>
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
+      <c r="H82" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I82" t="s">
+        <v>120</v>
+      </c>
+      <c r="J82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" t="s">
+        <v>175</v>
+      </c>
+      <c r="D83" s="3">
+        <v>79</v>
+      </c>
+      <c r="E83" t="s">
+        <v>121</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0</v>
+      </c>
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
+      <c r="H83" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I83" t="s">
+        <v>122</v>
+      </c>
+      <c r="J83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" s="3">
+        <v>80</v>
+      </c>
+      <c r="E84" t="s">
+        <v>123</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0</v>
+      </c>
+      <c r="H84" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I84" t="s">
+        <v>124</v>
+      </c>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85" s="3">
+        <v>81</v>
+      </c>
+      <c r="E85" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0</v>
+      </c>
+      <c r="G85" s="7">
+        <v>0</v>
+      </c>
+      <c r="H85" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I85" t="s">
+        <v>126</v>
+      </c>
+      <c r="J85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" s="3">
+        <v>82</v>
+      </c>
+      <c r="E86" t="s">
+        <v>127</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0</v>
+      </c>
+      <c r="H86" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I86" t="s">
+        <v>128</v>
+      </c>
+      <c r="J86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" s="3">
+        <v>83</v>
+      </c>
+      <c r="E87" t="s">
+        <v>129</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0</v>
+      </c>
+      <c r="H87" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I87" t="s">
+        <v>130</v>
+      </c>
+      <c r="J87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" t="s">
+        <v>175</v>
+      </c>
+      <c r="D88" s="3">
+        <v>84</v>
+      </c>
+      <c r="E88" t="s">
+        <v>131</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0</v>
+      </c>
+      <c r="G88" s="7">
+        <v>0</v>
+      </c>
+      <c r="H88" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I88" t="s">
+        <v>132</v>
+      </c>
+      <c r="J88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" t="s">
+        <v>175</v>
+      </c>
+      <c r="D89" s="3">
+        <v>85</v>
+      </c>
+      <c r="E89" t="s">
+        <v>133</v>
+      </c>
+      <c r="F89" s="7">
+        <v>0</v>
+      </c>
+      <c r="G89" s="7">
+        <v>0</v>
+      </c>
+      <c r="H89" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I89" t="s">
+        <v>134</v>
+      </c>
+      <c r="J89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" t="s">
+        <v>175</v>
+      </c>
+      <c r="D90" s="3">
+        <v>86</v>
+      </c>
+      <c r="E90" t="s">
+        <v>135</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0</v>
+      </c>
+      <c r="G90" s="7">
+        <v>0</v>
+      </c>
+      <c r="H90" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I90" t="s">
+        <v>136</v>
+      </c>
+      <c r="J90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" s="3">
+        <v>87</v>
+      </c>
+      <c r="E91" t="s">
+        <v>137</v>
+      </c>
+      <c r="F91" s="7">
+        <v>0</v>
+      </c>
+      <c r="G91" s="7">
+        <v>0</v>
+      </c>
+      <c r="H91" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I91" t="s">
+        <v>138</v>
+      </c>
+      <c r="J91" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
         <v>145</v>
-      </c>
-      <c r="C46" t="s">
-        <v>177</v>
-      </c>
-      <c r="D46" s="3">
-        <v>44</v>
-      </c>
-      <c r="E46" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="7">
-        <v>0</v>
-      </c>
-      <c r="G46" s="7">
-        <v>0</v>
-      </c>
-      <c r="H46" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I46" t="s">
-        <v>53</v>
-      </c>
-      <c r="J46" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" s="3">
-        <v>45</v>
-      </c>
-      <c r="E47" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="7">
-        <v>0</v>
-      </c>
-      <c r="G47" s="7">
-        <v>0</v>
-      </c>
-      <c r="H47" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I47" t="s">
-        <v>55</v>
-      </c>
-      <c r="J47" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" t="s">
-        <v>177</v>
-      </c>
-      <c r="D48" s="3">
-        <v>46</v>
-      </c>
-      <c r="E48" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0</v>
-      </c>
-      <c r="G48" s="7">
-        <v>0</v>
-      </c>
-      <c r="H48" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I48" t="s">
-        <v>57</v>
-      </c>
-      <c r="J48" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" t="s">
-        <v>177</v>
-      </c>
-      <c r="D49" s="3">
-        <v>47</v>
-      </c>
-      <c r="E49" t="s">
-        <v>58</v>
-      </c>
-      <c r="F49" s="7">
-        <v>0</v>
-      </c>
-      <c r="G49" s="7">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I49" t="s">
-        <v>59</v>
-      </c>
-      <c r="J49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" s="3">
-        <v>48</v>
-      </c>
-      <c r="E50" t="s">
-        <v>60</v>
-      </c>
-      <c r="F50" s="7">
-        <v>0</v>
-      </c>
-      <c r="G50" s="7">
-        <v>0</v>
-      </c>
-      <c r="H50" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I50" t="s">
-        <v>61</v>
-      </c>
-      <c r="J50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" t="s">
-        <v>177</v>
-      </c>
-      <c r="D51" s="3">
-        <v>49</v>
-      </c>
-      <c r="E51" t="s">
-        <v>62</v>
-      </c>
-      <c r="F51" s="7">
-        <v>0</v>
-      </c>
-      <c r="G51" s="7">
-        <v>0</v>
-      </c>
-      <c r="H51" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I51" t="s">
-        <v>63</v>
-      </c>
-      <c r="J51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" s="3">
-        <v>50</v>
-      </c>
-      <c r="E52" t="s">
-        <v>64</v>
-      </c>
-      <c r="F52" s="7">
-        <v>0</v>
-      </c>
-      <c r="G52" s="7">
-        <v>0</v>
-      </c>
-      <c r="H52" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I52" t="s">
-        <v>65</v>
-      </c>
-      <c r="J52" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" t="s">
-        <v>177</v>
-      </c>
-      <c r="D53" s="3">
-        <v>51</v>
-      </c>
-      <c r="E53" t="s">
-        <v>66</v>
-      </c>
-      <c r="F53" s="7">
-        <v>0</v>
-      </c>
-      <c r="G53" s="7">
-        <v>0</v>
-      </c>
-      <c r="H53" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I53" t="s">
-        <v>67</v>
-      </c>
-      <c r="J53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" t="s">
-        <v>177</v>
-      </c>
-      <c r="D54" s="3">
-        <v>52</v>
-      </c>
-      <c r="E54" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" s="7">
-        <v>0</v>
-      </c>
-      <c r="G54" s="7">
-        <v>0</v>
-      </c>
-      <c r="H54" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I54" t="s">
-        <v>69</v>
-      </c>
-      <c r="J54" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" s="3">
-        <v>53</v>
-      </c>
-      <c r="E55" t="s">
-        <v>70</v>
-      </c>
-      <c r="F55" s="7">
-        <v>0</v>
-      </c>
-      <c r="G55" s="7">
-        <v>0</v>
-      </c>
-      <c r="H55" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I55" t="s">
-        <v>71</v>
-      </c>
-      <c r="J55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" t="s">
-        <v>177</v>
-      </c>
-      <c r="D56" s="3">
-        <v>54</v>
-      </c>
-      <c r="E56" t="s">
-        <v>72</v>
-      </c>
-      <c r="F56" s="7">
-        <v>0</v>
-      </c>
-      <c r="G56" s="7">
-        <v>0</v>
-      </c>
-      <c r="H56" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I56" t="s">
-        <v>73</v>
-      </c>
-      <c r="J56" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" t="s">
-        <v>177</v>
-      </c>
-      <c r="D57" s="3">
-        <v>55</v>
-      </c>
-      <c r="E57" t="s">
-        <v>74</v>
-      </c>
-      <c r="F57" s="7">
-        <v>0</v>
-      </c>
-      <c r="G57" s="7">
-        <v>0</v>
-      </c>
-      <c r="H57" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I57" t="s">
-        <v>75</v>
-      </c>
-      <c r="J57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" t="s">
-        <v>177</v>
-      </c>
-      <c r="D58" s="3">
-        <v>56</v>
-      </c>
-      <c r="E58" t="s">
-        <v>76</v>
-      </c>
-      <c r="F58" s="7">
-        <v>0</v>
-      </c>
-      <c r="G58" s="7">
-        <v>0</v>
-      </c>
-      <c r="H58" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I58" t="s">
-        <v>77</v>
-      </c>
-      <c r="J58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59" s="3">
-        <v>57</v>
-      </c>
-      <c r="E59" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" s="7">
-        <v>0</v>
-      </c>
-      <c r="G59" s="7">
-        <v>0</v>
-      </c>
-      <c r="H59" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I59" t="s">
-        <v>79</v>
-      </c>
-      <c r="J59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" t="s">
-        <v>177</v>
-      </c>
-      <c r="D60" s="3">
-        <v>58</v>
-      </c>
-      <c r="E60" t="s">
-        <v>80</v>
-      </c>
-      <c r="F60" s="7">
-        <v>0</v>
-      </c>
-      <c r="G60" s="7">
-        <v>0</v>
-      </c>
-      <c r="H60" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I60" t="s">
-        <v>81</v>
-      </c>
-      <c r="J60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" t="s">
-        <v>177</v>
-      </c>
-      <c r="D61" s="3">
-        <v>59</v>
-      </c>
-      <c r="E61" t="s">
-        <v>82</v>
-      </c>
-      <c r="F61" s="7">
-        <v>0</v>
-      </c>
-      <c r="G61" s="7">
-        <v>0</v>
-      </c>
-      <c r="H61" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I61" t="s">
-        <v>83</v>
-      </c>
-      <c r="J61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" t="s">
-        <v>177</v>
-      </c>
-      <c r="D62" s="3">
-        <v>60</v>
-      </c>
-      <c r="E62" t="s">
-        <v>84</v>
-      </c>
-      <c r="F62" s="7">
-        <v>0</v>
-      </c>
-      <c r="G62" s="7">
-        <v>0</v>
-      </c>
-      <c r="H62" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I62" t="s">
-        <v>85</v>
-      </c>
-      <c r="J62" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" t="s">
-        <v>177</v>
-      </c>
-      <c r="D63" s="3">
-        <v>61</v>
-      </c>
-      <c r="E63" t="s">
-        <v>86</v>
-      </c>
-      <c r="F63" s="7">
-        <v>0</v>
-      </c>
-      <c r="G63" s="7">
-        <v>0</v>
-      </c>
-      <c r="H63" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I63" t="s">
-        <v>87</v>
-      </c>
-      <c r="J63" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" t="s">
-        <v>178</v>
-      </c>
-      <c r="D64" s="3">
-        <v>62</v>
-      </c>
-      <c r="E64" t="s">
-        <v>88</v>
-      </c>
-      <c r="F64" s="7">
-        <v>0</v>
-      </c>
-      <c r="G64" s="7">
-        <v>0</v>
-      </c>
-      <c r="H64" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I64" t="s">
-        <v>89</v>
-      </c>
-      <c r="J64" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" t="s">
-        <v>178</v>
-      </c>
-      <c r="D65" s="3">
-        <v>63</v>
-      </c>
-      <c r="E65" t="s">
-        <v>90</v>
-      </c>
-      <c r="F65" s="7">
-        <v>0</v>
-      </c>
-      <c r="G65" s="7">
-        <v>0</v>
-      </c>
-      <c r="H65" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I65" t="s">
-        <v>91</v>
-      </c>
-      <c r="J65" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" t="s">
-        <v>51</v>
-      </c>
-      <c r="C66" t="s">
-        <v>178</v>
-      </c>
-      <c r="D66" s="3">
-        <v>64</v>
-      </c>
-      <c r="E66" t="s">
-        <v>92</v>
-      </c>
-      <c r="F66" s="7">
-        <v>0</v>
-      </c>
-      <c r="G66" s="7">
-        <v>0</v>
-      </c>
-      <c r="H66" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I66" t="s">
-        <v>93</v>
-      </c>
-      <c r="J66" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" t="s">
-        <v>178</v>
-      </c>
-      <c r="D67" s="3">
-        <v>65</v>
-      </c>
-      <c r="E67" t="s">
-        <v>94</v>
-      </c>
-      <c r="F67" s="7">
-        <v>0</v>
-      </c>
-      <c r="G67" s="7">
-        <v>0</v>
-      </c>
-      <c r="H67" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I67" t="s">
-        <v>95</v>
-      </c>
-      <c r="J67" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" t="s">
-        <v>178</v>
-      </c>
-      <c r="D68" s="3">
-        <v>66</v>
-      </c>
-      <c r="E68" t="s">
-        <v>96</v>
-      </c>
-      <c r="F68" s="7">
-        <v>0</v>
-      </c>
-      <c r="G68" s="7">
-        <v>0</v>
-      </c>
-      <c r="H68" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I68" t="s">
-        <v>97</v>
-      </c>
-      <c r="J68" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69" t="s">
-        <v>178</v>
-      </c>
-      <c r="D69" s="3">
-        <v>67</v>
-      </c>
-      <c r="E69" t="s">
-        <v>98</v>
-      </c>
-      <c r="F69" s="7">
-        <v>0</v>
-      </c>
-      <c r="G69" s="7">
-        <v>0</v>
-      </c>
-      <c r="H69" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I69" t="s">
-        <v>99</v>
-      </c>
-      <c r="J69" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" t="s">
-        <v>178</v>
-      </c>
-      <c r="D70" s="3">
-        <v>68</v>
-      </c>
-      <c r="E70" t="s">
-        <v>100</v>
-      </c>
-      <c r="F70" s="7">
-        <v>0</v>
-      </c>
-      <c r="G70" s="7">
-        <v>0</v>
-      </c>
-      <c r="H70" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I70" t="s">
-        <v>101</v>
-      </c>
-      <c r="J70" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" t="s">
-        <v>178</v>
-      </c>
-      <c r="D71" s="3">
-        <v>69</v>
-      </c>
-      <c r="E71" t="s">
-        <v>102</v>
-      </c>
-      <c r="F71" s="7">
-        <v>0</v>
-      </c>
-      <c r="G71" s="7">
-        <v>0</v>
-      </c>
-      <c r="H71" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I71" t="s">
-        <v>103</v>
-      </c>
-      <c r="J71" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" t="s">
-        <v>178</v>
-      </c>
-      <c r="D72" s="3">
-        <v>70</v>
-      </c>
-      <c r="E72" t="s">
-        <v>104</v>
-      </c>
-      <c r="F72" s="7">
-        <v>0</v>
-      </c>
-      <c r="G72" s="7">
-        <v>0</v>
-      </c>
-      <c r="H72" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I72" t="s">
-        <v>105</v>
-      </c>
-      <c r="J72" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" t="s">
-        <v>178</v>
-      </c>
-      <c r="D73" s="3">
-        <v>71</v>
-      </c>
-      <c r="E73" t="s">
-        <v>106</v>
-      </c>
-      <c r="F73" s="7">
-        <v>0</v>
-      </c>
-      <c r="G73" s="7">
-        <v>0</v>
-      </c>
-      <c r="H73" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I73" t="s">
-        <v>107</v>
-      </c>
-      <c r="J73" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" t="s">
-        <v>178</v>
-      </c>
-      <c r="D74" s="3">
-        <v>72</v>
-      </c>
-      <c r="E74" t="s">
-        <v>108</v>
-      </c>
-      <c r="F74" s="7">
-        <v>0</v>
-      </c>
-      <c r="G74" s="7">
-        <v>0</v>
-      </c>
-      <c r="H74" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I74" t="s">
-        <v>109</v>
-      </c>
-      <c r="J74" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" t="s">
-        <v>178</v>
-      </c>
-      <c r="D75" s="3">
-        <v>73</v>
-      </c>
-      <c r="E75" t="s">
-        <v>110</v>
-      </c>
-      <c r="F75" s="7">
-        <v>0</v>
-      </c>
-      <c r="G75" s="7">
-        <v>0</v>
-      </c>
-      <c r="H75" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I75" t="s">
-        <v>111</v>
-      </c>
-      <c r="J75" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" t="s">
-        <v>51</v>
-      </c>
-      <c r="C76" t="s">
-        <v>178</v>
-      </c>
-      <c r="D76" s="3">
-        <v>74</v>
-      </c>
-      <c r="E76" t="s">
-        <v>112</v>
-      </c>
-      <c r="F76" s="7">
-        <v>0</v>
-      </c>
-      <c r="G76" s="7">
-        <v>0</v>
-      </c>
-      <c r="H76" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I76" t="s">
-        <v>113</v>
-      </c>
-      <c r="J76" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77" t="s">
-        <v>51</v>
-      </c>
-      <c r="C77" t="s">
-        <v>178</v>
-      </c>
-      <c r="D77" s="3">
-        <v>75</v>
-      </c>
-      <c r="E77" t="s">
-        <v>114</v>
-      </c>
-      <c r="F77" s="7">
-        <v>0</v>
-      </c>
-      <c r="G77" s="7">
-        <v>0</v>
-      </c>
-      <c r="H77" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I77" t="s">
-        <v>115</v>
-      </c>
-      <c r="J77" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78" t="s">
-        <v>178</v>
-      </c>
-      <c r="D78" s="3">
-        <v>76</v>
-      </c>
-      <c r="E78" t="s">
-        <v>116</v>
-      </c>
-      <c r="F78" s="7">
-        <v>0</v>
-      </c>
-      <c r="G78" s="7">
-        <v>0</v>
-      </c>
-      <c r="H78" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I78" t="s">
-        <v>117</v>
-      </c>
-      <c r="J78" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" t="s">
-        <v>51</v>
-      </c>
-      <c r="C79" t="s">
-        <v>178</v>
-      </c>
-      <c r="D79" s="3">
-        <v>77</v>
-      </c>
-      <c r="E79" t="s">
-        <v>118</v>
-      </c>
-      <c r="F79" s="7">
-        <v>0</v>
-      </c>
-      <c r="G79" s="7">
-        <v>0</v>
-      </c>
-      <c r="H79" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I79" t="s">
-        <v>119</v>
-      </c>
-      <c r="J79" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80" t="s">
-        <v>178</v>
-      </c>
-      <c r="D80" s="3">
-        <v>78</v>
-      </c>
-      <c r="E80" t="s">
-        <v>120</v>
-      </c>
-      <c r="F80" s="7">
-        <v>0</v>
-      </c>
-      <c r="G80" s="7">
-        <v>0</v>
-      </c>
-      <c r="H80" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I80" t="s">
-        <v>121</v>
-      </c>
-      <c r="J80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" t="s">
-        <v>51</v>
-      </c>
-      <c r="C81" t="s">
-        <v>178</v>
-      </c>
-      <c r="D81" s="3">
-        <v>79</v>
-      </c>
-      <c r="E81" t="s">
-        <v>122</v>
-      </c>
-      <c r="F81" s="7">
-        <v>0</v>
-      </c>
-      <c r="G81" s="7">
-        <v>0</v>
-      </c>
-      <c r="H81" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I81" t="s">
-        <v>123</v>
-      </c>
-      <c r="J81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" t="s">
-        <v>51</v>
-      </c>
-      <c r="C82" t="s">
-        <v>178</v>
-      </c>
-      <c r="D82" s="3">
-        <v>80</v>
-      </c>
-      <c r="E82" t="s">
-        <v>124</v>
-      </c>
-      <c r="F82" s="7">
-        <v>0</v>
-      </c>
-      <c r="G82" s="7">
-        <v>0</v>
-      </c>
-      <c r="H82" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I82" t="s">
-        <v>125</v>
-      </c>
-      <c r="J82" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" t="s">
-        <v>178</v>
-      </c>
-      <c r="D83" s="3">
-        <v>81</v>
-      </c>
-      <c r="E83" t="s">
-        <v>126</v>
-      </c>
-      <c r="F83" s="7">
-        <v>0</v>
-      </c>
-      <c r="G83" s="7">
-        <v>0</v>
-      </c>
-      <c r="H83" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I83" t="s">
-        <v>127</v>
-      </c>
-      <c r="J83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" t="s">
-        <v>178</v>
-      </c>
-      <c r="D84" s="3">
-        <v>82</v>
-      </c>
-      <c r="E84" t="s">
-        <v>128</v>
-      </c>
-      <c r="F84" s="7">
-        <v>0</v>
-      </c>
-      <c r="G84" s="7">
-        <v>0</v>
-      </c>
-      <c r="H84" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I84" t="s">
-        <v>129</v>
-      </c>
-      <c r="J84" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" t="s">
-        <v>178</v>
-      </c>
-      <c r="D85" s="3">
-        <v>83</v>
-      </c>
-      <c r="E85" t="s">
-        <v>130</v>
-      </c>
-      <c r="F85" s="7">
-        <v>0</v>
-      </c>
-      <c r="G85" s="7">
-        <v>0</v>
-      </c>
-      <c r="H85" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I85" t="s">
-        <v>131</v>
-      </c>
-      <c r="J85" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" t="s">
-        <v>178</v>
-      </c>
-      <c r="D86" s="3">
-        <v>84</v>
-      </c>
-      <c r="E86" t="s">
-        <v>132</v>
-      </c>
-      <c r="F86" s="7">
-        <v>0</v>
-      </c>
-      <c r="G86" s="7">
-        <v>0</v>
-      </c>
-      <c r="H86" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I86" t="s">
-        <v>133</v>
-      </c>
-      <c r="J86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" t="s">
-        <v>51</v>
-      </c>
-      <c r="C87" t="s">
-        <v>178</v>
-      </c>
-      <c r="D87" s="3">
-        <v>85</v>
-      </c>
-      <c r="E87" t="s">
-        <v>134</v>
-      </c>
-      <c r="F87" s="7">
-        <v>0</v>
-      </c>
-      <c r="G87" s="7">
-        <v>0</v>
-      </c>
-      <c r="H87" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I87" t="s">
-        <v>135</v>
-      </c>
-      <c r="J87" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" t="s">
-        <v>51</v>
-      </c>
-      <c r="C88" t="s">
-        <v>178</v>
-      </c>
-      <c r="D88" s="3">
-        <v>86</v>
-      </c>
-      <c r="E88" t="s">
-        <v>136</v>
-      </c>
-      <c r="F88" s="7">
-        <v>0</v>
-      </c>
-      <c r="G88" s="7">
-        <v>0</v>
-      </c>
-      <c r="H88" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I88" t="s">
-        <v>137</v>
-      </c>
-      <c r="J88" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" t="s">
-        <v>51</v>
-      </c>
-      <c r="C89" t="s">
-        <v>178</v>
-      </c>
-      <c r="D89" s="3">
-        <v>87</v>
-      </c>
-      <c r="E89" t="s">
-        <v>138</v>
-      </c>
-      <c r="F89" s="7">
-        <v>0</v>
-      </c>
-      <c r="G89" s="7">
-        <v>0</v>
-      </c>
-      <c r="H89" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I89" t="s">
-        <v>139</v>
-      </c>
-      <c r="J89" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" t="s">
-        <v>146</v>
-      </c>
-      <c r="C90" t="s">
-        <v>141</v>
-      </c>
-      <c r="D90" s="3">
-        <v>88</v>
-      </c>
-      <c r="E90" t="s">
-        <v>182</v>
-      </c>
-      <c r="F90" s="7">
-        <v>99.5</v>
-      </c>
-      <c r="G90" s="7">
-        <v>99.5</v>
-      </c>
-      <c r="H90" s="5">
-        <v>2012</v>
-      </c>
-      <c r="I90" t="s">
-        <v>187</v>
-      </c>
-      <c r="J90" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" t="s">
-        <v>140</v>
-      </c>
-      <c r="C91" t="s">
-        <v>142</v>
-      </c>
-      <c r="D91" s="3">
-        <v>89</v>
-      </c>
-      <c r="E91" t="s">
-        <v>183</v>
-      </c>
-      <c r="F91" s="7">
-        <v>200</v>
-      </c>
-      <c r="G91" s="7">
-        <v>145</v>
-      </c>
-      <c r="H91" s="5">
-        <v>2017</v>
-      </c>
-      <c r="I91" t="s">
-        <v>188</v>
-      </c>
-      <c r="J91" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" t="s">
-        <v>140</v>
       </c>
       <c r="C92" t="s">
         <v>140</v>
       </c>
       <c r="D92" s="3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E92" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="F92" s="7">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G92" s="7">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="H92" s="5">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="I92" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="J92" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A93" t="s">
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D93" s="3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E93" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F93" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G93" s="7">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="H93" s="5">
         <v>2017</v>
       </c>
       <c r="I93" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="J93" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A94" t="s">
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D94" s="3">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E94" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="F94" s="7">
         <v>0</v>
@@ -4254,27 +4244,27 @@
         <v>2017</v>
       </c>
       <c r="I94" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="J94" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A95" t="s">
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D95" s="3">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F95" s="7">
         <v>0</v>
@@ -4286,27 +4276,27 @@
         <v>2017</v>
       </c>
       <c r="I95" t="s">
+        <v>186</v>
+      </c>
+      <c r="J95" t="s">
         <v>192</v>
       </c>
-      <c r="J95" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="96" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A96" t="s">
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C96" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D96" s="3">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F96" s="7">
         <v>0</v>
@@ -4318,27 +4308,27 @@
         <v>2017</v>
       </c>
       <c r="I96" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="J96" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A97" t="s">
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C97" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D97" s="3">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F97" s="7">
         <v>0</v>
@@ -4350,27 +4340,27 @@
         <v>2017</v>
       </c>
       <c r="I97" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J97" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A98" t="s">
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D98" s="3">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F98" s="7">
         <v>0</v>
@@ -4382,27 +4372,27 @@
         <v>2017</v>
       </c>
       <c r="I98" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="J98" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A99" t="s">
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D99" s="3">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E99" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="F99" s="7">
         <v>0</v>
@@ -4414,27 +4404,27 @@
         <v>2017</v>
       </c>
       <c r="I99" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J99" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A100" t="s">
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D100" s="3">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E100" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="F100" s="7">
         <v>0</v>
@@ -4446,27 +4436,27 @@
         <v>2017</v>
       </c>
       <c r="I100" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="J100" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A101" t="s">
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D101" s="3">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E101" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F101" s="7">
         <v>0</v>
@@ -4478,91 +4468,91 @@
         <v>2017</v>
       </c>
       <c r="I101" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="J101" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A102" t="s">
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C102" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E102" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F102" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G102" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H102" s="5">
         <v>2017</v>
       </c>
       <c r="I102" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="J102" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A103" t="s">
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C103" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D103" s="3">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E103" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="F103" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G103" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H103" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="I103" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="J103" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A104" t="s">
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C104" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D104" s="3">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E104" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="F104" s="7">
         <v>40</v>
@@ -4571,94 +4561,94 @@
         <v>13</v>
       </c>
       <c r="H104" s="5">
+        <v>2017</v>
+      </c>
+      <c r="I104" t="s">
+        <v>195</v>
+      </c>
+      <c r="J104" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>139</v>
+      </c>
+      <c r="C105" t="s">
+        <v>139</v>
+      </c>
+      <c r="D105" s="3">
+        <v>101</v>
+      </c>
+      <c r="E105" t="s">
+        <v>143</v>
+      </c>
+      <c r="F105" s="7">
+        <v>40</v>
+      </c>
+      <c r="G105" s="7">
+        <v>13</v>
+      </c>
+      <c r="H105" s="5">
         <v>2016</v>
       </c>
-      <c r="I104" t="s">
-        <v>201</v>
-      </c>
-      <c r="J104" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" t="s">
-        <v>12</v>
-      </c>
-      <c r="C105" t="s">
-        <v>162</v>
-      </c>
-      <c r="D105" s="3">
-        <v>103</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="I105" t="s">
+        <v>196</v>
+      </c>
+      <c r="J105" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>139</v>
+      </c>
+      <c r="C106" t="s">
+        <v>139</v>
+      </c>
+      <c r="D106" s="3">
+        <v>102</v>
+      </c>
+      <c r="E106" t="s">
+        <v>143</v>
+      </c>
+      <c r="F106" s="7">
+        <v>40</v>
+      </c>
+      <c r="G106" s="7">
+        <v>13</v>
+      </c>
+      <c r="H106" s="5">
+        <v>2016</v>
+      </c>
+      <c r="I106" t="s">
+        <v>197</v>
+      </c>
+      <c r="J106" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>164</v>
+      </c>
+      <c r="C107" t="s">
         <v>165</v>
-      </c>
-      <c r="F105" s="7">
-        <v>50</v>
-      </c>
-      <c r="G105" s="7">
-        <v>50</v>
-      </c>
-      <c r="H105" s="5">
-        <v>2014</v>
-      </c>
-      <c r="I105" t="s">
-        <v>202</v>
-      </c>
-      <c r="J105" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" t="s">
-        <v>162</v>
-      </c>
-      <c r="D106" s="3">
-        <v>104</v>
-      </c>
-      <c r="E106" t="s">
-        <v>166</v>
-      </c>
-      <c r="F106" s="7">
-        <v>50</v>
-      </c>
-      <c r="G106" s="7">
-        <v>50</v>
-      </c>
-      <c r="H106" s="5">
-        <v>2014</v>
-      </c>
-      <c r="I106" t="s">
-        <v>203</v>
-      </c>
-      <c r="J106" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" t="s">
-        <v>167</v>
-      </c>
-      <c r="C107" t="s">
-        <v>168</v>
       </c>
       <c r="D107" s="3">
         <v>105</v>
       </c>
       <c r="E107" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F107" s="7">
         <v>213.4</v>
@@ -4670,27 +4660,27 @@
         <v>2018</v>
       </c>
       <c r="I107" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J107" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="17.25" hidden="1" customHeight="1">
       <c r="A108" t="s">
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C108" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D108" s="3">
         <v>106</v>
       </c>
       <c r="E108" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F108" s="7">
         <v>107</v>
@@ -4702,27 +4692,27 @@
         <v>2018</v>
       </c>
       <c r="I108" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J108" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="17.25" hidden="1" customHeight="1">
       <c r="A109" t="s">
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C109" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D109" s="3">
         <v>107</v>
       </c>
       <c r="E109" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F109" s="7">
         <v>120.9</v>
@@ -4734,27 +4724,27 @@
         <v>2018</v>
       </c>
       <c r="I109" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J109" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="17.25" hidden="1" customHeight="1">
       <c r="A110" t="s">
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C110" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D110" s="3">
         <v>108</v>
       </c>
       <c r="E110" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F110" s="7">
         <v>142.19999999999999</v>
@@ -4766,27 +4756,27 @@
         <v>2018</v>
       </c>
       <c r="I110" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="J110" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="17.25" hidden="1" customHeight="1">
       <c r="A111" t="s">
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C111" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D111" s="3">
         <v>109</v>
       </c>
       <c r="E111" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F111" s="7">
         <v>120.9</v>
@@ -4798,27 +4788,27 @@
         <v>2018</v>
       </c>
       <c r="I111" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J111" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="17.25" hidden="1" customHeight="1">
       <c r="A112" t="s">
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C112" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D112" s="3">
         <v>110</v>
       </c>
       <c r="E112" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F112" s="7">
         <v>50</v>
@@ -4830,27 +4820,27 @@
         <v>2017</v>
       </c>
       <c r="I112" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J112" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="17.25" hidden="1" customHeight="1">
       <c r="A113" t="s">
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C113" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D113" s="3">
         <v>111</v>
       </c>
       <c r="E113" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F113" s="7">
         <v>65</v>
@@ -4862,110 +4852,116 @@
         <v>2021</v>
       </c>
       <c r="I113" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J113" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="17.25" customHeight="1">
       <c r="D114" s="3"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
     </row>
-    <row r="115" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:10" ht="17.25" customHeight="1">
       <c r="D115" s="3"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
     </row>
-    <row r="116" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:10" ht="17.25" customHeight="1">
       <c r="D116" s="3"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
     </row>
-    <row r="117" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:10" ht="17.25" customHeight="1">
       <c r="D117" s="3"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
     </row>
-    <row r="118" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:10" ht="17.25" customHeight="1">
       <c r="D118" s="3"/>
       <c r="F118" s="6"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
     </row>
-    <row r="119" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:10" ht="17.25" customHeight="1">
       <c r="D119" s="3"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
     </row>
-    <row r="120" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:10" ht="17.25" customHeight="1">
       <c r="D120" s="3"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
     </row>
-    <row r="121" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:10" ht="17.25" customHeight="1">
       <c r="D121" s="3"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
     </row>
-    <row r="122" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:10" ht="17.25" customHeight="1">
       <c r="D122" s="3"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
     </row>
-    <row r="123" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:10" ht="17.25" customHeight="1">
       <c r="D123" s="3"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
     </row>
-    <row r="124" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:10" ht="17.25" customHeight="1">
       <c r="D124" s="3"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
     </row>
-    <row r="125" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:10" ht="17.25" customHeight="1">
       <c r="D125" s="3"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
     </row>
-    <row r="126" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:10" ht="17.25" customHeight="1">
       <c r="D126" s="3"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
     </row>
-    <row r="127" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:10" ht="17.25" customHeight="1">
       <c r="D127" s="3"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
     </row>
-    <row r="128" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:10" ht="17.25" customHeight="1">
       <c r="D128" s="3"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
     </row>
-    <row r="129" spans="4:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="4:8" ht="17.25" customHeight="1">
       <c r="D129" s="3"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J113" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J113" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Patina"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Artworks.xlsx
+++ b/Artworks.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangjin/web_renewal/hijonam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961B2DE8-C509-0346-BB13-D3A10328DC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E570F8-A575-6F40-BA67-316193D3BA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="3680" windowWidth="23880" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18960" yWindow="4720" windowWidth="29020" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="248">
   <si>
     <t>category</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Journey 3</t>
-  </si>
-  <si>
-    <t>Journey 4</t>
   </si>
   <si>
     <t>Journey 5</t>
@@ -714,9 +711,6 @@
   </si>
   <si>
     <t>Journey 3 Fabric collage on Canvas 53x72.2cm_2022.jpg</t>
-  </si>
-  <si>
-    <t>Journey 4 Fabric collage on Canvas 53x72.2cm_2022.jpg</t>
   </si>
   <si>
     <t>Journey 6 Fabric collage on Canvas 53x72.2cm_2022.jpg</t>
@@ -1221,11 +1215,11 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J129"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
+      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1271,7 +1265,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -1288,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F2" s="7">
         <v>72.7</v>
@@ -1300,10 +1294,10 @@
         <v>2022</v>
       </c>
       <c r="I2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1">
@@ -1314,7 +1308,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1332,10 +1326,10 @@
         <v>2012</v>
       </c>
       <c r="I3" t="s">
+        <v>202</v>
+      </c>
+      <c r="J3" t="s">
         <v>203</v>
-      </c>
-      <c r="J3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1">
@@ -1346,13 +1340,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F4" s="7">
         <v>69.400000000000006</v>
@@ -1364,10 +1358,10 @@
         <v>2017</v>
       </c>
       <c r="I4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1">
@@ -1378,13 +1372,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7">
         <v>50</v>
@@ -1396,10 +1390,10 @@
         <v>2017</v>
       </c>
       <c r="I5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1">
@@ -1410,13 +1404,13 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="3">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F6" s="7">
         <v>50</v>
@@ -1428,10 +1422,10 @@
         <v>2013</v>
       </c>
       <c r="I6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1">
@@ -1442,13 +1436,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="3">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F7" s="7">
         <v>50</v>
@@ -1460,10 +1454,10 @@
         <v>2013</v>
       </c>
       <c r="I7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1">
@@ -1474,13 +1468,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" s="3">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="7">
         <v>150</v>
@@ -1492,10 +1486,10 @@
         <v>2015</v>
       </c>
       <c r="I8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.5" customHeight="1">
@@ -1506,28 +1500,28 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="3">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="F9" s="7">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H9" s="5">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="I9" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="J9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.5" customHeight="1">
@@ -1538,10 +1532,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -1556,10 +1550,10 @@
         <v>2022</v>
       </c>
       <c r="I10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1">
@@ -1570,28 +1564,28 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="3">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="F11" s="7">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H11" s="5">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="I11" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="J11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1">
@@ -1602,13 +1596,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12" s="3">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="7">
         <v>59</v>
@@ -1620,10 +1614,10 @@
         <v>2022</v>
       </c>
       <c r="I12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1">
@@ -1634,13 +1628,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D13" s="3">
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="7">
         <v>59</v>
@@ -1652,10 +1646,10 @@
         <v>2022</v>
       </c>
       <c r="I13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
@@ -1666,13 +1660,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7">
         <v>63.5</v>
@@ -1684,10 +1678,10 @@
         <v>2012</v>
       </c>
       <c r="I14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -1695,7 +1689,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -1716,10 +1710,10 @@
         <v>2022</v>
       </c>
       <c r="I15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -1748,10 +1742,10 @@
         <v>2022</v>
       </c>
       <c r="I16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -1780,10 +1774,10 @@
         <v>2022</v>
       </c>
       <c r="I17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -1797,7 +1791,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -1812,10 +1806,10 @@
         <v>2022</v>
       </c>
       <c r="I18" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="J18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -1829,7 +1823,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -1844,10 +1838,10 @@
         <v>2022</v>
       </c>
       <c r="I19" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="J19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -1861,7 +1855,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -1876,10 +1870,10 @@
         <v>2022</v>
       </c>
       <c r="I20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -1893,7 +1887,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
@@ -1908,42 +1902,42 @@
         <v>2022</v>
       </c>
       <c r="I21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J21" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="19.5" customHeight="1">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="D22" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F22" s="7">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="G22" s="7">
-        <v>72.2</v>
+        <v>91</v>
       </c>
       <c r="H22" s="5">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="J22" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
@@ -1954,28 +1948,28 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D23" s="3">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H23" s="5">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="19.5" customHeight="1">
@@ -1986,10 +1980,10 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D24" s="3">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E24" t="s">
         <v>162</v>
@@ -2007,7 +2001,7 @@
         <v>198</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="19.5" customHeight="1">
@@ -2018,13 +2012,13 @@
         <v>12</v>
       </c>
       <c r="C25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="3">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
         <v>159</v>
-      </c>
-      <c r="D25" s="3">
-        <v>104</v>
-      </c>
-      <c r="E25" t="s">
-        <v>163</v>
       </c>
       <c r="F25" s="7">
         <v>50</v>
@@ -2033,13 +2027,13 @@
         <v>50</v>
       </c>
       <c r="H25" s="5">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="I25" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="J25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="19.5" customHeight="1">
@@ -2050,10 +2044,10 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
         <v>160</v>
@@ -2068,42 +2062,42 @@
         <v>2017</v>
       </c>
       <c r="I26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="7">
+        <v>72.7</v>
+      </c>
+      <c r="G27" s="7">
+        <v>90.9</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2022</v>
+      </c>
+      <c r="I27" t="s">
         <v>223</v>
       </c>
-      <c r="J26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="3">
-        <v>23</v>
-      </c>
-      <c r="E27" t="s">
-        <v>161</v>
-      </c>
-      <c r="F27" s="7">
-        <v>50</v>
-      </c>
-      <c r="G27" s="7">
-        <v>50</v>
-      </c>
-      <c r="H27" s="5">
-        <v>2017</v>
-      </c>
-      <c r="I27" t="s">
-        <v>224</v>
-      </c>
       <c r="J27" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2117,25 +2111,25 @@
         <v>11</v>
       </c>
       <c r="D28" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
       <c r="F28" s="7">
+        <v>53</v>
+      </c>
+      <c r="G28" s="7">
         <v>72.7</v>
       </c>
-      <c r="G28" s="7">
-        <v>90.9</v>
-      </c>
       <c r="H28" s="5">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="I28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2149,25 +2143,25 @@
         <v>11</v>
       </c>
       <c r="D29" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="7">
-        <v>53</v>
+        <v>30.4</v>
       </c>
       <c r="G29" s="7">
-        <v>72.7</v>
+        <v>30.4</v>
       </c>
       <c r="H29" s="5">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="I29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2181,7 +2175,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
         <v>32</v>
@@ -2196,10 +2190,10 @@
         <v>2022</v>
       </c>
       <c r="I30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2213,25 +2207,25 @@
         <v>11</v>
       </c>
       <c r="D31" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
       </c>
       <c r="F31" s="7">
-        <v>30.4</v>
+        <v>56</v>
       </c>
       <c r="G31" s="7">
-        <v>30.4</v>
+        <v>71.3</v>
       </c>
       <c r="H31" s="5">
         <v>2022</v>
       </c>
       <c r="I31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2245,25 +2239,25 @@
         <v>11</v>
       </c>
       <c r="D32" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
         <v>34</v>
       </c>
       <c r="F32" s="7">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G32" s="7">
-        <v>71.3</v>
+        <v>30</v>
       </c>
       <c r="H32" s="5">
         <v>2022</v>
       </c>
       <c r="I32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2277,25 +2271,25 @@
         <v>11</v>
       </c>
       <c r="D33" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
         <v>35</v>
       </c>
       <c r="F33" s="7">
-        <v>30</v>
+        <v>45.6</v>
       </c>
       <c r="G33" s="7">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H33" s="5">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="I33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2309,7 +2303,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -2321,13 +2315,13 @@
         <v>61</v>
       </c>
       <c r="H34" s="5">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="I34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2341,25 +2335,25 @@
         <v>11</v>
       </c>
       <c r="D35" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
         <v>37</v>
       </c>
       <c r="F35" s="7">
-        <v>45.6</v>
+        <v>46</v>
       </c>
       <c r="G35" s="7">
-        <v>61</v>
+        <v>60.7</v>
       </c>
       <c r="H35" s="5">
         <v>2021</v>
       </c>
       <c r="I35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2373,25 +2367,25 @@
         <v>11</v>
       </c>
       <c r="D36" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
       </c>
       <c r="F36" s="7">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G36" s="7">
-        <v>60.7</v>
+        <v>30</v>
       </c>
       <c r="H36" s="5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2405,25 +2399,25 @@
         <v>11</v>
       </c>
       <c r="D37" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
         <v>39</v>
       </c>
       <c r="F37" s="7">
-        <v>30</v>
+        <v>45.5</v>
       </c>
       <c r="G37" s="7">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H37" s="5">
         <v>2022</v>
       </c>
       <c r="I37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J37" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2437,25 +2431,25 @@
         <v>11</v>
       </c>
       <c r="D38" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="7">
-        <v>45.5</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7">
-        <v>53</v>
+        <v>55.2</v>
       </c>
       <c r="H38" s="5">
         <v>2022</v>
       </c>
       <c r="I38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2469,25 +2463,25 @@
         <v>11</v>
       </c>
       <c r="D39" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
       </c>
       <c r="F39" s="7">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7">
-        <v>55.2</v>
+        <v>71.3</v>
       </c>
       <c r="H39" s="5">
         <v>2022</v>
       </c>
       <c r="I39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2501,25 +2495,25 @@
         <v>11</v>
       </c>
       <c r="D40" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E40" t="s">
         <v>42</v>
       </c>
       <c r="F40" s="7">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G40" s="7">
-        <v>71.3</v>
+        <v>72.7</v>
       </c>
       <c r="H40" s="5">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="I40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2533,7 +2527,7 @@
         <v>11</v>
       </c>
       <c r="D41" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s">
         <v>43</v>
@@ -2548,10 +2542,10 @@
         <v>2019</v>
       </c>
       <c r="I41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J41" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2565,25 +2559,25 @@
         <v>11</v>
       </c>
       <c r="D42" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="7">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="G42" s="7">
-        <v>72.7</v>
+        <v>116.8</v>
       </c>
       <c r="H42" s="5">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="I42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J42" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2597,25 +2591,25 @@
         <v>11</v>
       </c>
       <c r="D43" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
         <v>45</v>
       </c>
       <c r="F43" s="7">
-        <v>91</v>
+        <v>101.5</v>
       </c>
       <c r="G43" s="7">
-        <v>116.8</v>
+        <v>101</v>
       </c>
       <c r="H43" s="5">
         <v>2022</v>
       </c>
       <c r="I43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2629,25 +2623,25 @@
         <v>11</v>
       </c>
       <c r="D44" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
         <v>46</v>
       </c>
       <c r="F44" s="7">
-        <v>101.5</v>
+        <v>45.5</v>
       </c>
       <c r="G44" s="7">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="H44" s="5">
         <v>2022</v>
       </c>
       <c r="I44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2661,25 +2655,25 @@
         <v>11</v>
       </c>
       <c r="D45" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
         <v>47</v>
       </c>
       <c r="F45" s="7">
-        <v>45.5</v>
+        <v>53</v>
       </c>
       <c r="G45" s="7">
-        <v>53</v>
+        <v>72.7</v>
       </c>
       <c r="H45" s="5">
         <v>2022</v>
       </c>
       <c r="I45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J45" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2693,13 +2687,13 @@
         <v>11</v>
       </c>
       <c r="D46" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E46" t="s">
         <v>48</v>
       </c>
       <c r="F46" s="7">
-        <v>53</v>
+        <v>60.6</v>
       </c>
       <c r="G46" s="7">
         <v>72.7</v>
@@ -2708,10 +2702,10 @@
         <v>2022</v>
       </c>
       <c r="I46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J46" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2719,31 +2713,31 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="D47" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F47" s="7">
-        <v>60.6</v>
+        <v>0</v>
       </c>
       <c r="G47" s="7">
-        <v>72.7</v>
+        <v>0</v>
       </c>
       <c r="H47" s="5">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="I47" t="s">
-        <v>244</v>
+        <v>51</v>
       </c>
       <c r="J47" t="s">
-        <v>225</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2751,16 +2745,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D48" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F48" s="7">
         <v>0</v>
@@ -2772,10 +2766,10 @@
         <v>2018</v>
       </c>
       <c r="I48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2783,16 +2777,16 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D49" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F49" s="7">
         <v>0</v>
@@ -2804,10 +2798,10 @@
         <v>2018</v>
       </c>
       <c r="I49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2815,16 +2809,16 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D50" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50" s="7">
         <v>0</v>
@@ -2836,10 +2830,10 @@
         <v>2018</v>
       </c>
       <c r="I50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2847,16 +2841,16 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D51" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F51" s="7">
         <v>0</v>
@@ -2868,10 +2862,10 @@
         <v>2018</v>
       </c>
       <c r="I51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2879,16 +2873,16 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D52" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F52" s="7">
         <v>0</v>
@@ -2900,10 +2894,10 @@
         <v>2018</v>
       </c>
       <c r="I52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2911,16 +2905,16 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="3">
         <v>50</v>
       </c>
-      <c r="C53" t="s">
-        <v>174</v>
-      </c>
-      <c r="D53" s="3">
-        <v>49</v>
-      </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53" s="7">
         <v>0</v>
@@ -2932,10 +2926,10 @@
         <v>2018</v>
       </c>
       <c r="I53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2943,16 +2937,16 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D54" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F54" s="7">
         <v>0</v>
@@ -2964,10 +2958,10 @@
         <v>2018</v>
       </c>
       <c r="I54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2975,16 +2969,16 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D55" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F55" s="7">
         <v>0</v>
@@ -2996,10 +2990,10 @@
         <v>2018</v>
       </c>
       <c r="I55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -3007,16 +3001,16 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F56" s="7">
         <v>0</v>
@@ -3028,10 +3022,10 @@
         <v>2018</v>
       </c>
       <c r="I56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -3039,16 +3033,16 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F57" s="7">
         <v>0</v>
@@ -3060,10 +3054,10 @@
         <v>2018</v>
       </c>
       <c r="I57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -3071,16 +3065,16 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F58" s="7">
         <v>0</v>
@@ -3092,10 +3086,10 @@
         <v>2018</v>
       </c>
       <c r="I58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -3103,16 +3097,16 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F59" s="7">
         <v>0</v>
@@ -3124,10 +3118,10 @@
         <v>2018</v>
       </c>
       <c r="I59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -3135,16 +3129,16 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E60" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F60" s="7">
         <v>0</v>
@@ -3156,10 +3150,10 @@
         <v>2018</v>
       </c>
       <c r="I60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -3167,16 +3161,16 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F61" s="7">
         <v>0</v>
@@ -3188,27 +3182,27 @@
         <v>2018</v>
       </c>
       <c r="I61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="17.25" hidden="1" customHeight="1">
       <c r="A62" t="s">
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D62" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F62" s="7">
         <v>0</v>
@@ -3220,10 +3214,10 @@
         <v>2018</v>
       </c>
       <c r="I62" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3231,16 +3225,16 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D63" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F63" s="7">
         <v>0</v>
@@ -3252,10 +3246,10 @@
         <v>2018</v>
       </c>
       <c r="I63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3263,16 +3257,16 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D64" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F64" s="7">
         <v>0</v>
@@ -3284,10 +3278,10 @@
         <v>2018</v>
       </c>
       <c r="I64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3295,16 +3289,16 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" t="s">
         <v>174</v>
       </c>
       <c r="D65" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F65" s="7">
         <v>0</v>
@@ -3316,10 +3310,10 @@
         <v>2018</v>
       </c>
       <c r="I65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3327,16 +3321,16 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D66" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F66" s="7">
         <v>0</v>
@@ -3348,10 +3342,10 @@
         <v>2018</v>
       </c>
       <c r="I66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3359,16 +3353,16 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D67" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F67" s="7">
         <v>0</v>
@@ -3380,10 +3374,10 @@
         <v>2018</v>
       </c>
       <c r="I67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3391,16 +3385,16 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D68" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F68" s="7">
         <v>0</v>
@@ -3412,10 +3406,10 @@
         <v>2018</v>
       </c>
       <c r="I68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3423,16 +3417,16 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D69" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E69" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F69" s="7">
         <v>0</v>
@@ -3444,10 +3438,10 @@
         <v>2018</v>
       </c>
       <c r="I69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3455,16 +3449,16 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D70" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E70" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F70" s="7">
         <v>0</v>
@@ -3476,10 +3470,10 @@
         <v>2018</v>
       </c>
       <c r="I70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3487,16 +3481,16 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D71" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F71" s="7">
         <v>0</v>
@@ -3508,10 +3502,10 @@
         <v>2018</v>
       </c>
       <c r="I71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3519,16 +3513,16 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D72" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F72" s="7">
         <v>0</v>
@@ -3540,10 +3534,10 @@
         <v>2018</v>
       </c>
       <c r="I72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3551,16 +3545,16 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D73" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F73" s="7">
         <v>0</v>
@@ -3572,10 +3566,10 @@
         <v>2018</v>
       </c>
       <c r="I73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3583,16 +3577,16 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D74" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F74" s="7">
         <v>0</v>
@@ -3604,10 +3598,10 @@
         <v>2018</v>
       </c>
       <c r="I74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3615,16 +3609,16 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D75" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F75" s="7">
         <v>0</v>
@@ -3636,10 +3630,10 @@
         <v>2018</v>
       </c>
       <c r="I75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3647,16 +3641,16 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D76" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F76" s="7">
         <v>0</v>
@@ -3668,10 +3662,10 @@
         <v>2018</v>
       </c>
       <c r="I76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3679,16 +3673,16 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D77" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F77" s="7">
         <v>0</v>
@@ -3700,10 +3694,10 @@
         <v>2018</v>
       </c>
       <c r="I77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3711,16 +3705,16 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D78" s="3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F78" s="7">
         <v>0</v>
@@ -3732,10 +3726,10 @@
         <v>2018</v>
       </c>
       <c r="I78" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3743,16 +3737,16 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D79" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E79" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F79" s="7">
         <v>0</v>
@@ -3764,10 +3758,10 @@
         <v>2018</v>
       </c>
       <c r="I79" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3775,31 +3769,31 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D80" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E80" t="s">
+        <v>116</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
+        <v>0</v>
+      </c>
+      <c r="H80" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I80" t="s">
+        <v>117</v>
+      </c>
+      <c r="J80" t="s">
         <v>115</v>
-      </c>
-      <c r="F80" s="7">
-        <v>0</v>
-      </c>
-      <c r="G80" s="7">
-        <v>0</v>
-      </c>
-      <c r="H80" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I80" t="s">
-        <v>116</v>
-      </c>
-      <c r="J80" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3807,16 +3801,16 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D81" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E81" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F81" s="7">
         <v>0</v>
@@ -3828,10 +3822,10 @@
         <v>2018</v>
       </c>
       <c r="I81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3839,16 +3833,16 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D82" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E82" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F82" s="7">
         <v>0</v>
@@ -3860,10 +3854,10 @@
         <v>2018</v>
       </c>
       <c r="I82" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3871,16 +3865,16 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D83" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E83" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F83" s="7">
         <v>0</v>
@@ -3892,10 +3886,10 @@
         <v>2018</v>
       </c>
       <c r="I83" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3903,16 +3897,16 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D84" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E84" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F84" s="7">
         <v>0</v>
@@ -3924,10 +3918,10 @@
         <v>2018</v>
       </c>
       <c r="I84" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3935,16 +3929,16 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D85" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E85" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F85" s="7">
         <v>0</v>
@@ -3956,10 +3950,10 @@
         <v>2018</v>
       </c>
       <c r="I85" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3967,16 +3961,16 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D86" s="3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E86" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F86" s="7">
         <v>0</v>
@@ -3988,10 +3982,10 @@
         <v>2018</v>
       </c>
       <c r="I86" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -3999,16 +3993,16 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D87" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E87" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F87" s="7">
         <v>0</v>
@@ -4020,10 +4014,10 @@
         <v>2018</v>
       </c>
       <c r="I87" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J87" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -4031,16 +4025,16 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D88" s="3">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E88" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F88" s="7">
         <v>0</v>
@@ -4052,10 +4046,10 @@
         <v>2018</v>
       </c>
       <c r="I88" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -4063,16 +4057,16 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D89" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E89" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F89" s="7">
         <v>0</v>
@@ -4084,10 +4078,10 @@
         <v>2018</v>
       </c>
       <c r="I89" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J89" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -4095,16 +4089,16 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D90" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E90" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F90" s="7">
         <v>0</v>
@@ -4116,42 +4110,42 @@
         <v>2018</v>
       </c>
       <c r="I90" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J90" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A91" t="s">
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="C91" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="D91" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E91" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="F91" s="7">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G91" s="7">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="H91" s="5">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="I91" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="J91" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4159,31 +4153,31 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C92" t="s">
         <v>140</v>
       </c>
       <c r="D92" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E92" t="s">
         <v>179</v>
       </c>
       <c r="F92" s="7">
-        <v>99.5</v>
+        <v>200</v>
       </c>
       <c r="G92" s="7">
-        <v>99.5</v>
+        <v>145</v>
       </c>
       <c r="H92" s="5">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="I92" t="s">
         <v>183</v>
       </c>
       <c r="J92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4191,22 +4185,22 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C93" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="3">
+        <v>90</v>
+      </c>
+      <c r="E93" t="s">
         <v>141</v>
       </c>
-      <c r="D93" s="3">
-        <v>89</v>
-      </c>
-      <c r="E93" t="s">
-        <v>180</v>
-      </c>
       <c r="F93" s="7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G93" s="7">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="H93" s="5">
         <v>2017</v>
@@ -4215,7 +4209,7 @@
         <v>184</v>
       </c>
       <c r="J93" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4223,16 +4217,16 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D94" s="3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E94" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="F94" s="7">
         <v>0</v>
@@ -4247,7 +4241,7 @@
         <v>185</v>
       </c>
       <c r="J94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4255,16 +4249,16 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C95" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D95" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F95" s="7">
         <v>0</v>
@@ -4279,7 +4273,7 @@
         <v>186</v>
       </c>
       <c r="J95" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4287,16 +4281,16 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D96" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F96" s="7">
         <v>0</v>
@@ -4311,7 +4305,7 @@
         <v>187</v>
       </c>
       <c r="J96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4319,13 +4313,13 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D97" s="3">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E97" t="s">
         <v>181</v>
@@ -4343,7 +4337,7 @@
         <v>188</v>
       </c>
       <c r="J97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4351,16 +4345,16 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D98" s="3">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E98" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F98" s="7">
         <v>0</v>
@@ -4375,7 +4369,7 @@
         <v>189</v>
       </c>
       <c r="J98" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4383,16 +4377,16 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D99" s="3">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F99" s="7">
         <v>0</v>
@@ -4407,7 +4401,7 @@
         <v>190</v>
       </c>
       <c r="J99" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4415,16 +4409,16 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D100" s="3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E100" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="F100" s="7">
         <v>0</v>
@@ -4436,10 +4430,10 @@
         <v>2017</v>
       </c>
       <c r="I100" t="s">
+        <v>246</v>
+      </c>
+      <c r="J100" t="s">
         <v>191</v>
-      </c>
-      <c r="J100" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4447,13 +4441,13 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D101" s="3">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E101" t="s">
         <v>147</v>
@@ -4468,10 +4462,10 @@
         <v>2017</v>
       </c>
       <c r="I101" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c r="J101" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4479,13 +4473,13 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C102" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D102" s="3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E102" t="s">
         <v>148</v>
@@ -4503,7 +4497,7 @@
         <v>193</v>
       </c>
       <c r="J102" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4511,22 +4505,22 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C103" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D103" s="3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E103" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F103" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G103" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H103" s="5">
         <v>2017</v>
@@ -4535,7 +4529,7 @@
         <v>194</v>
       </c>
       <c r="J103" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4543,16 +4537,16 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C104" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D104" s="3">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F104" s="7">
         <v>40</v>
@@ -4561,13 +4555,13 @@
         <v>13</v>
       </c>
       <c r="H104" s="5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I104" t="s">
         <v>195</v>
       </c>
       <c r="J104" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4575,16 +4569,16 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C105" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D105" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F105" s="7">
         <v>40</v>
@@ -4599,39 +4593,39 @@
         <v>196</v>
       </c>
       <c r="J105" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="17.25" hidden="1" customHeight="1">
       <c r="A106" t="s">
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="C106" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D106" s="3">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="F106" s="7">
-        <v>40</v>
+        <v>213.4</v>
       </c>
       <c r="G106" s="7">
-        <v>13</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="H106" s="5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="I106" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="J106" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -4639,31 +4633,31 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
+        <v>163</v>
+      </c>
+      <c r="C107" t="s">
         <v>164</v>
       </c>
-      <c r="C107" t="s">
-        <v>165</v>
-      </c>
       <c r="D107" s="3">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E107" t="s">
         <v>169</v>
       </c>
       <c r="F107" s="7">
-        <v>213.4</v>
+        <v>107</v>
       </c>
       <c r="G107" s="7">
-        <v>142.19999999999999</v>
+        <v>148</v>
       </c>
       <c r="H107" s="5">
         <v>2018</v>
       </c>
       <c r="I107" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -4671,22 +4665,22 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
+        <v>163</v>
+      </c>
+      <c r="C108" t="s">
         <v>164</v>
       </c>
-      <c r="C108" t="s">
-        <v>165</v>
-      </c>
       <c r="D108" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E108" t="s">
         <v>170</v>
       </c>
       <c r="F108" s="7">
-        <v>107</v>
+        <v>120.9</v>
       </c>
       <c r="G108" s="7">
-        <v>148</v>
+        <v>325.10000000000002</v>
       </c>
       <c r="H108" s="5">
         <v>2018</v>
@@ -4695,7 +4689,7 @@
         <v>166</v>
       </c>
       <c r="J108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -4703,31 +4697,31 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
+        <v>163</v>
+      </c>
+      <c r="C109" t="s">
         <v>164</v>
       </c>
-      <c r="C109" t="s">
-        <v>165</v>
-      </c>
       <c r="D109" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E109" t="s">
         <v>171</v>
       </c>
       <c r="F109" s="7">
-        <v>120.9</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="G109" s="7">
-        <v>325.10000000000002</v>
+        <v>106.7</v>
       </c>
       <c r="H109" s="5">
         <v>2018</v>
       </c>
       <c r="I109" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="J109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -4735,31 +4729,31 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
+        <v>163</v>
+      </c>
+      <c r="C110" t="s">
         <v>164</v>
       </c>
-      <c r="C110" t="s">
-        <v>165</v>
-      </c>
       <c r="D110" s="3">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E110" t="s">
         <v>172</v>
       </c>
       <c r="F110" s="7">
-        <v>142.19999999999999</v>
+        <v>120.9</v>
       </c>
       <c r="G110" s="7">
-        <v>106.7</v>
+        <v>325.10000000000002</v>
       </c>
       <c r="H110" s="5">
         <v>2018</v>
       </c>
       <c r="I110" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -4767,31 +4761,31 @@
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="C111" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D111" s="3">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F111" s="7">
-        <v>120.9</v>
+        <v>50</v>
       </c>
       <c r="G111" s="7">
-        <v>325.10000000000002</v>
+        <v>50</v>
       </c>
       <c r="H111" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I111" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="J111" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -4799,163 +4793,131 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C112" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D112" s="3">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E112" t="s">
         <v>177</v>
       </c>
       <c r="F112" s="7">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G112" s="7">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="H112" s="5">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="I112" t="s">
         <v>200</v>
       </c>
       <c r="J112" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="17.25" hidden="1" customHeight="1">
-      <c r="A113" t="s">
-        <v>9</v>
-      </c>
-      <c r="B113" t="s">
-        <v>50</v>
-      </c>
-      <c r="C113" t="s">
-        <v>175</v>
-      </c>
-      <c r="D113" s="3">
-        <v>111</v>
-      </c>
-      <c r="E113" t="s">
-        <v>178</v>
-      </c>
-      <c r="F113" s="7">
-        <v>65</v>
-      </c>
-      <c r="G113" s="7">
-        <v>63</v>
-      </c>
-      <c r="H113" s="5">
-        <v>2021</v>
-      </c>
-      <c r="I113" t="s">
-        <v>201</v>
-      </c>
-      <c r="J113" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="17.25" customHeight="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="113" spans="4:8" ht="17.25" customHeight="1">
+      <c r="D113" s="3"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+    </row>
+    <row r="114" spans="4:8" ht="17.25" customHeight="1">
       <c r="D114" s="3"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
     </row>
-    <row r="115" spans="1:10" ht="17.25" customHeight="1">
+    <row r="115" spans="4:8" ht="17.25" customHeight="1">
       <c r="D115" s="3"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
     </row>
-    <row r="116" spans="1:10" ht="17.25" customHeight="1">
+    <row r="116" spans="4:8" ht="17.25" customHeight="1">
       <c r="D116" s="3"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
     </row>
-    <row r="117" spans="1:10" ht="17.25" customHeight="1">
+    <row r="117" spans="4:8" ht="17.25" customHeight="1">
       <c r="D117" s="3"/>
-      <c r="F117" s="5"/>
+      <c r="F117" s="6"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
     </row>
-    <row r="118" spans="1:10" ht="17.25" customHeight="1">
+    <row r="118" spans="4:8" ht="17.25" customHeight="1">
       <c r="D118" s="3"/>
-      <c r="F118" s="6"/>
+      <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
     </row>
-    <row r="119" spans="1:10" ht="17.25" customHeight="1">
+    <row r="119" spans="4:8" ht="17.25" customHeight="1">
       <c r="D119" s="3"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
     </row>
-    <row r="120" spans="1:10" ht="17.25" customHeight="1">
+    <row r="120" spans="4:8" ht="17.25" customHeight="1">
       <c r="D120" s="3"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
     </row>
-    <row r="121" spans="1:10" ht="17.25" customHeight="1">
+    <row r="121" spans="4:8" ht="17.25" customHeight="1">
       <c r="D121" s="3"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
     </row>
-    <row r="122" spans="1:10" ht="17.25" customHeight="1">
+    <row r="122" spans="4:8" ht="17.25" customHeight="1">
       <c r="D122" s="3"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
     </row>
-    <row r="123" spans="1:10" ht="17.25" customHeight="1">
+    <row r="123" spans="4:8" ht="17.25" customHeight="1">
       <c r="D123" s="3"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
     </row>
-    <row r="124" spans="1:10" ht="17.25" customHeight="1">
+    <row r="124" spans="4:8" ht="17.25" customHeight="1">
       <c r="D124" s="3"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
     </row>
-    <row r="125" spans="1:10" ht="17.25" customHeight="1">
+    <row r="125" spans="4:8" ht="17.25" customHeight="1">
       <c r="D125" s="3"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
     </row>
-    <row r="126" spans="1:10" ht="17.25" customHeight="1">
+    <row r="126" spans="4:8" ht="17.25" customHeight="1">
       <c r="D126" s="3"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
     </row>
-    <row r="127" spans="1:10" ht="17.25" customHeight="1">
+    <row r="127" spans="4:8" ht="17.25" customHeight="1">
       <c r="D127" s="3"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
     </row>
-    <row r="128" spans="1:10" ht="17.25" customHeight="1">
+    <row r="128" spans="4:8" ht="17.25" customHeight="1">
       <c r="D128" s="3"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
     </row>
-    <row r="129" spans="4:8" ht="17.25" customHeight="1">
-      <c r="D129" s="3"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J113" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:J112" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="Patina"/>

--- a/Artworks.xlsx
+++ b/Artworks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangjin/web_renewal/hijonam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E570F8-A575-6F40-BA67-316193D3BA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E837375-A13B-134C-839C-F3294717F3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18960" yWindow="4720" windowWidth="29020" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6980" yWindow="4720" windowWidth="29020" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="247">
   <si>
     <t>category</t>
   </si>
@@ -185,9 +185,6 @@
     <t>Spring Sonata 3</t>
   </si>
   <si>
-    <t>Ottchil (Korean Lacquer Work)</t>
-  </si>
-  <si>
     <t>Liberal Ashanti1_1</t>
   </si>
   <si>
@@ -465,10 +462,6 @@
   </si>
   <si>
     <t>The Masks</t>
-  </si>
-  <si>
-    <t>Ottchil (Korean Lacquer Work)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Installation</t>
@@ -820,6 +813,10 @@
   </si>
   <si>
     <t>Journey 5 Fabric collage on Canvas 53x72.2cm_2022.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ottchil</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1218,14 +1215,14 @@
   <dimension ref="A1:J128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="2.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.1640625" bestFit="1" customWidth="1"/>
@@ -1265,7 +1262,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -1282,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F2" s="7">
         <v>72.7</v>
@@ -1294,13 +1291,13 @@
         <v>2022</v>
       </c>
       <c r="I2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1308,7 +1305,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1326,13 +1323,13 @@
         <v>2012</v>
       </c>
       <c r="I3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1340,13 +1337,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F4" s="7">
         <v>69.400000000000006</v>
@@ -1358,13 +1355,13 @@
         <v>2017</v>
       </c>
       <c r="I4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1372,13 +1369,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7">
         <v>50</v>
@@ -1390,13 +1387,13 @@
         <v>2017</v>
       </c>
       <c r="I5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1404,13 +1401,13 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D6" s="3">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F6" s="7">
         <v>50</v>
@@ -1422,13 +1419,13 @@
         <v>2013</v>
       </c>
       <c r="I6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1436,13 +1433,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D7" s="3">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F7" s="7">
         <v>50</v>
@@ -1454,13 +1451,13 @@
         <v>2013</v>
       </c>
       <c r="I7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1468,7 +1465,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D8" s="3">
         <v>17</v>
@@ -1486,13 +1483,13 @@
         <v>2015</v>
       </c>
       <c r="I8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1500,7 +1497,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" s="3">
         <v>18</v>
@@ -1518,13 +1515,13 @@
         <v>2022</v>
       </c>
       <c r="I9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1532,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" s="3">
         <v>19</v>
@@ -1550,13 +1547,13 @@
         <v>2022</v>
       </c>
       <c r="I10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1564,13 +1561,13 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" s="3">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7">
         <v>50</v>
@@ -1582,13 +1579,13 @@
         <v>2017</v>
       </c>
       <c r="I11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1596,7 +1593,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D12" s="3">
         <v>20</v>
@@ -1614,13 +1611,13 @@
         <v>2022</v>
       </c>
       <c r="I12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1628,7 +1625,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D13" s="3">
         <v>21</v>
@@ -1646,13 +1643,13 @@
         <v>2022</v>
       </c>
       <c r="I13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1660,13 +1657,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7">
         <v>63.5</v>
@@ -1678,10 +1675,10 @@
         <v>2012</v>
       </c>
       <c r="I14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -1689,7 +1686,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -1710,10 +1707,10 @@
         <v>2022</v>
       </c>
       <c r="I15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -1742,10 +1739,10 @@
         <v>2022</v>
       </c>
       <c r="I16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -1774,10 +1771,10 @@
         <v>2022</v>
       </c>
       <c r="I17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -1806,10 +1803,10 @@
         <v>2022</v>
       </c>
       <c r="I18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -1838,10 +1835,10 @@
         <v>2022</v>
       </c>
       <c r="I19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -1870,10 +1867,10 @@
         <v>2022</v>
       </c>
       <c r="I20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -1902,13 +1899,13 @@
         <v>2022</v>
       </c>
       <c r="I21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J21" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1916,7 +1913,7 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D22" s="3">
         <v>6</v>
@@ -1934,13 +1931,13 @@
         <v>2015</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1948,13 +1945,13 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D23" s="3">
         <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7">
         <v>50</v>
@@ -1966,13 +1963,13 @@
         <v>2014</v>
       </c>
       <c r="I23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="19.5" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1980,13 +1977,13 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D24" s="3">
         <v>104</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7">
         <v>50</v>
@@ -1998,13 +1995,13 @@
         <v>2014</v>
       </c>
       <c r="I24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="19.5" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2012,13 +2009,13 @@
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D25" s="3">
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F25" s="7">
         <v>50</v>
@@ -2030,13 +2027,13 @@
         <v>2017</v>
       </c>
       <c r="I25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="19.5" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="19.5" hidden="1" customHeight="1">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2044,13 +2041,13 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D26" s="3">
         <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F26" s="7">
         <v>50</v>
@@ -2062,10 +2059,10 @@
         <v>2017</v>
       </c>
       <c r="I26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2094,10 +2091,10 @@
         <v>2022</v>
       </c>
       <c r="I27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2126,10 +2123,10 @@
         <v>2018</v>
       </c>
       <c r="I28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2158,10 +2155,10 @@
         <v>2022</v>
       </c>
       <c r="I29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J29" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2190,10 +2187,10 @@
         <v>2022</v>
       </c>
       <c r="I30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2222,10 +2219,10 @@
         <v>2022</v>
       </c>
       <c r="I31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2254,10 +2251,10 @@
         <v>2022</v>
       </c>
       <c r="I32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2286,10 +2283,10 @@
         <v>2018</v>
       </c>
       <c r="I33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2318,10 +2315,10 @@
         <v>2021</v>
       </c>
       <c r="I34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2350,10 +2347,10 @@
         <v>2021</v>
       </c>
       <c r="I35" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J35" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2382,10 +2379,10 @@
         <v>2022</v>
       </c>
       <c r="I36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J36" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2414,10 +2411,10 @@
         <v>2022</v>
       </c>
       <c r="I37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2446,10 +2443,10 @@
         <v>2022</v>
       </c>
       <c r="I38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2478,10 +2475,10 @@
         <v>2022</v>
       </c>
       <c r="I39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2510,10 +2507,10 @@
         <v>2019</v>
       </c>
       <c r="I40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2542,10 +2539,10 @@
         <v>2019</v>
       </c>
       <c r="I41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J41" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2574,10 +2571,10 @@
         <v>2022</v>
       </c>
       <c r="I42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2606,10 +2603,10 @@
         <v>2022</v>
       </c>
       <c r="I43" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J43" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2638,10 +2635,10 @@
         <v>2022</v>
       </c>
       <c r="I44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J44" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2670,10 +2667,10 @@
         <v>2022</v>
       </c>
       <c r="I45" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J45" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -2702,1418 +2699,1418 @@
         <v>2022</v>
       </c>
       <c r="I46" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J46" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="19.5" customHeight="1">
       <c r="A47" t="s">
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D47" s="3">
         <v>44</v>
       </c>
       <c r="E47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I47" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="7">
-        <v>0</v>
-      </c>
-      <c r="G47" s="7">
-        <v>0</v>
-      </c>
-      <c r="H47" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I47" t="s">
-        <v>51</v>
-      </c>
       <c r="J47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="19.5" customHeight="1">
       <c r="A48" t="s">
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D48" s="3">
         <v>45</v>
       </c>
       <c r="E48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I48" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="7">
-        <v>0</v>
-      </c>
-      <c r="G48" s="7">
-        <v>0</v>
-      </c>
-      <c r="H48" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I48" t="s">
-        <v>53</v>
-      </c>
       <c r="J48" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="19.5" customHeight="1">
       <c r="A49" t="s">
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D49" s="3">
         <v>46</v>
       </c>
       <c r="E49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I49" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="7">
-        <v>0</v>
-      </c>
-      <c r="G49" s="7">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I49" t="s">
-        <v>55</v>
-      </c>
       <c r="J49" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="19.5" customHeight="1">
       <c r="A50" t="s">
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D50" s="3">
         <v>47</v>
       </c>
       <c r="E50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I50" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="7">
-        <v>0</v>
-      </c>
-      <c r="G50" s="7">
-        <v>0</v>
-      </c>
-      <c r="H50" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I50" t="s">
-        <v>57</v>
-      </c>
       <c r="J50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="19.5" customHeight="1">
       <c r="A51" t="s">
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C51" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D51" s="3">
         <v>48</v>
       </c>
       <c r="E51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I51" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="7">
-        <v>0</v>
-      </c>
-      <c r="G51" s="7">
-        <v>0</v>
-      </c>
-      <c r="H51" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I51" t="s">
-        <v>59</v>
-      </c>
       <c r="J51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="19.5" customHeight="1">
       <c r="A52" t="s">
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D52" s="3">
         <v>49</v>
       </c>
       <c r="E52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I52" t="s">
         <v>60</v>
       </c>
-      <c r="F52" s="7">
-        <v>0</v>
-      </c>
-      <c r="G52" s="7">
-        <v>0</v>
-      </c>
-      <c r="H52" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I52" t="s">
-        <v>61</v>
-      </c>
       <c r="J52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="19.5" customHeight="1">
       <c r="A53" t="s">
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C53" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D53" s="3">
         <v>50</v>
       </c>
       <c r="E53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I53" t="s">
         <v>62</v>
       </c>
-      <c r="F53" s="7">
-        <v>0</v>
-      </c>
-      <c r="G53" s="7">
-        <v>0</v>
-      </c>
-      <c r="H53" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I53" t="s">
-        <v>63</v>
-      </c>
       <c r="J53" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="19.5" customHeight="1">
       <c r="A54" t="s">
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D54" s="3">
         <v>51</v>
       </c>
       <c r="E54" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I54" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="7">
-        <v>0</v>
-      </c>
-      <c r="G54" s="7">
-        <v>0</v>
-      </c>
-      <c r="H54" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I54" t="s">
-        <v>65</v>
-      </c>
       <c r="J54" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="19.5" customHeight="1">
       <c r="A55" t="s">
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C55" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D55" s="3">
         <v>52</v>
       </c>
       <c r="E55" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I55" t="s">
         <v>66</v>
       </c>
-      <c r="F55" s="7">
-        <v>0</v>
-      </c>
-      <c r="G55" s="7">
-        <v>0</v>
-      </c>
-      <c r="H55" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I55" t="s">
-        <v>67</v>
-      </c>
       <c r="J55" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="19.5" customHeight="1">
       <c r="A56" t="s">
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" s="3">
         <v>53</v>
       </c>
       <c r="E56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I56" t="s">
         <v>68</v>
       </c>
-      <c r="F56" s="7">
-        <v>0</v>
-      </c>
-      <c r="G56" s="7">
-        <v>0</v>
-      </c>
-      <c r="H56" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I56" t="s">
-        <v>69</v>
-      </c>
       <c r="J56" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="19.5" customHeight="1">
       <c r="A57" t="s">
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="3">
         <v>54</v>
       </c>
       <c r="E57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I57" t="s">
         <v>70</v>
       </c>
-      <c r="F57" s="7">
-        <v>0</v>
-      </c>
-      <c r="G57" s="7">
-        <v>0</v>
-      </c>
-      <c r="H57" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I57" t="s">
-        <v>71</v>
-      </c>
       <c r="J57" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="19.5" customHeight="1">
       <c r="A58" t="s">
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="3">
         <v>55</v>
       </c>
       <c r="E58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I58" t="s">
         <v>72</v>
       </c>
-      <c r="F58" s="7">
-        <v>0</v>
-      </c>
-      <c r="G58" s="7">
-        <v>0</v>
-      </c>
-      <c r="H58" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I58" t="s">
-        <v>73</v>
-      </c>
       <c r="J58" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="19.5" customHeight="1">
       <c r="A59" t="s">
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="3">
         <v>56</v>
       </c>
       <c r="E59" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I59" t="s">
         <v>74</v>
       </c>
-      <c r="F59" s="7">
-        <v>0</v>
-      </c>
-      <c r="G59" s="7">
-        <v>0</v>
-      </c>
-      <c r="H59" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I59" t="s">
-        <v>75</v>
-      </c>
       <c r="J59" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="19.5" customHeight="1">
       <c r="A60" t="s">
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C60" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D60" s="3">
         <v>57</v>
       </c>
       <c r="E60" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I60" t="s">
         <v>76</v>
       </c>
-      <c r="F60" s="7">
-        <v>0</v>
-      </c>
-      <c r="G60" s="7">
-        <v>0</v>
-      </c>
-      <c r="H60" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I60" t="s">
-        <v>77</v>
-      </c>
       <c r="J60" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="19.5" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="19.5" customHeight="1">
       <c r="A61" t="s">
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C61" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D61" s="3">
         <v>58</v>
       </c>
       <c r="E61" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0</v>
+      </c>
+      <c r="H61" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I61" t="s">
         <v>78</v>
       </c>
-      <c r="F61" s="7">
-        <v>0</v>
-      </c>
-      <c r="G61" s="7">
-        <v>0</v>
-      </c>
-      <c r="H61" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I61" t="s">
-        <v>79</v>
-      </c>
       <c r="J61" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="17.25" customHeight="1">
       <c r="A62" t="s">
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D62" s="3">
         <v>59</v>
       </c>
       <c r="E62" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
+      <c r="H62" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I62" t="s">
         <v>80</v>
       </c>
-      <c r="F62" s="7">
-        <v>0</v>
-      </c>
-      <c r="G62" s="7">
-        <v>0</v>
-      </c>
-      <c r="H62" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I62" t="s">
-        <v>81</v>
-      </c>
       <c r="J62" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="17.25" customHeight="1">
       <c r="A63" t="s">
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D63" s="3">
         <v>60</v>
       </c>
       <c r="E63" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0</v>
+      </c>
+      <c r="H63" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I63" t="s">
         <v>82</v>
       </c>
-      <c r="F63" s="7">
-        <v>0</v>
-      </c>
-      <c r="G63" s="7">
-        <v>0</v>
-      </c>
-      <c r="H63" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I63" t="s">
-        <v>83</v>
-      </c>
       <c r="J63" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="17.25" customHeight="1">
       <c r="A64" t="s">
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C64" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D64" s="3">
         <v>61</v>
       </c>
       <c r="E64" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0</v>
+      </c>
+      <c r="G64" s="7">
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I64" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="7">
-        <v>0</v>
-      </c>
-      <c r="G64" s="7">
-        <v>0</v>
-      </c>
-      <c r="H64" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I64" t="s">
-        <v>85</v>
-      </c>
       <c r="J64" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="17.25" customHeight="1">
       <c r="A65" t="s">
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D65" s="3">
         <v>62</v>
       </c>
       <c r="E65" t="s">
+        <v>85</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I65" t="s">
         <v>86</v>
       </c>
-      <c r="F65" s="7">
-        <v>0</v>
-      </c>
-      <c r="G65" s="7">
-        <v>0</v>
-      </c>
-      <c r="H65" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I65" t="s">
-        <v>87</v>
-      </c>
       <c r="J65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="17.25" customHeight="1">
       <c r="A66" t="s">
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D66" s="3">
         <v>63</v>
       </c>
       <c r="E66" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+      <c r="H66" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I66" t="s">
         <v>88</v>
       </c>
-      <c r="F66" s="7">
-        <v>0</v>
-      </c>
-      <c r="G66" s="7">
-        <v>0</v>
-      </c>
-      <c r="H66" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I66" t="s">
-        <v>89</v>
-      </c>
       <c r="J66" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="17.25" customHeight="1">
       <c r="A67" t="s">
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C67" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D67" s="3">
         <v>64</v>
       </c>
       <c r="E67" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0</v>
+      </c>
+      <c r="H67" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I67" t="s">
         <v>90</v>
       </c>
-      <c r="F67" s="7">
-        <v>0</v>
-      </c>
-      <c r="G67" s="7">
-        <v>0</v>
-      </c>
-      <c r="H67" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I67" t="s">
-        <v>91</v>
-      </c>
       <c r="J67" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="17.25" customHeight="1">
       <c r="A68" t="s">
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D68" s="3">
         <v>65</v>
       </c>
       <c r="E68" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I68" t="s">
         <v>92</v>
       </c>
-      <c r="F68" s="7">
-        <v>0</v>
-      </c>
-      <c r="G68" s="7">
-        <v>0</v>
-      </c>
-      <c r="H68" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I68" t="s">
-        <v>93</v>
-      </c>
       <c r="J68" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="17.25" customHeight="1">
       <c r="A69" t="s">
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C69" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D69" s="3">
         <v>66</v>
       </c>
       <c r="E69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0</v>
+      </c>
+      <c r="G69" s="7">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I69" t="s">
         <v>94</v>
       </c>
-      <c r="F69" s="7">
-        <v>0</v>
-      </c>
-      <c r="G69" s="7">
-        <v>0</v>
-      </c>
-      <c r="H69" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I69" t="s">
-        <v>95</v>
-      </c>
       <c r="J69" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="17.25" customHeight="1">
       <c r="A70" t="s">
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C70" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D70" s="3">
         <v>67</v>
       </c>
       <c r="E70" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0</v>
+      </c>
+      <c r="G70" s="7">
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I70" t="s">
         <v>96</v>
       </c>
-      <c r="F70" s="7">
-        <v>0</v>
-      </c>
-      <c r="G70" s="7">
-        <v>0</v>
-      </c>
-      <c r="H70" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I70" t="s">
-        <v>97</v>
-      </c>
       <c r="J70" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="17.25" customHeight="1">
       <c r="A71" t="s">
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C71" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D71" s="3">
         <v>68</v>
       </c>
       <c r="E71" t="s">
+        <v>97</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I71" t="s">
         <v>98</v>
       </c>
-      <c r="F71" s="7">
-        <v>0</v>
-      </c>
-      <c r="G71" s="7">
-        <v>0</v>
-      </c>
-      <c r="H71" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I71" t="s">
-        <v>99</v>
-      </c>
       <c r="J71" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="17.25" customHeight="1">
       <c r="A72" t="s">
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C72" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D72" s="3">
         <v>69</v>
       </c>
       <c r="E72" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I72" t="s">
         <v>100</v>
       </c>
-      <c r="F72" s="7">
-        <v>0</v>
-      </c>
-      <c r="G72" s="7">
-        <v>0</v>
-      </c>
-      <c r="H72" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I72" t="s">
-        <v>101</v>
-      </c>
       <c r="J72" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="17.25" customHeight="1">
       <c r="A73" t="s">
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D73" s="3">
         <v>70</v>
       </c>
       <c r="E73" t="s">
+        <v>101</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I73" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="7">
-        <v>0</v>
-      </c>
-      <c r="G73" s="7">
-        <v>0</v>
-      </c>
-      <c r="H73" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I73" t="s">
-        <v>103</v>
-      </c>
       <c r="J73" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="17.25" customHeight="1">
       <c r="A74" t="s">
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D74" s="3">
         <v>71</v>
       </c>
       <c r="E74" t="s">
+        <v>103</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0</v>
+      </c>
+      <c r="H74" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I74" t="s">
         <v>104</v>
       </c>
-      <c r="F74" s="7">
-        <v>0</v>
-      </c>
-      <c r="G74" s="7">
-        <v>0</v>
-      </c>
-      <c r="H74" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I74" t="s">
-        <v>105</v>
-      </c>
       <c r="J74" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="17.25" customHeight="1">
       <c r="A75" t="s">
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C75" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D75" s="3">
         <v>72</v>
       </c>
       <c r="E75" t="s">
+        <v>105</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0</v>
+      </c>
+      <c r="H75" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I75" t="s">
         <v>106</v>
       </c>
-      <c r="F75" s="7">
-        <v>0</v>
-      </c>
-      <c r="G75" s="7">
-        <v>0</v>
-      </c>
-      <c r="H75" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I75" t="s">
-        <v>107</v>
-      </c>
       <c r="J75" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="17.25" customHeight="1">
       <c r="A76" t="s">
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C76" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D76" s="3">
         <v>73</v>
       </c>
       <c r="E76" t="s">
+        <v>107</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
+      <c r="H76" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I76" t="s">
         <v>108</v>
       </c>
-      <c r="F76" s="7">
-        <v>0</v>
-      </c>
-      <c r="G76" s="7">
-        <v>0</v>
-      </c>
-      <c r="H76" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I76" t="s">
-        <v>109</v>
-      </c>
       <c r="J76" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="17.25" customHeight="1">
       <c r="A77" t="s">
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D77" s="3">
         <v>74</v>
       </c>
       <c r="E77" t="s">
+        <v>109</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
+      <c r="H77" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I77" t="s">
         <v>110</v>
       </c>
-      <c r="F77" s="7">
-        <v>0</v>
-      </c>
-      <c r="G77" s="7">
-        <v>0</v>
-      </c>
-      <c r="H77" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I77" t="s">
-        <v>111</v>
-      </c>
       <c r="J77" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="17.25" customHeight="1">
       <c r="A78" t="s">
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C78" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D78" s="3">
         <v>75</v>
       </c>
       <c r="E78" t="s">
+        <v>111</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0</v>
+      </c>
+      <c r="H78" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I78" t="s">
         <v>112</v>
       </c>
-      <c r="F78" s="7">
-        <v>0</v>
-      </c>
-      <c r="G78" s="7">
-        <v>0</v>
-      </c>
-      <c r="H78" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I78" t="s">
-        <v>113</v>
-      </c>
       <c r="J78" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="17.25" customHeight="1">
       <c r="A79" t="s">
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D79" s="3">
         <v>76</v>
       </c>
       <c r="E79" t="s">
+        <v>113</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
+      <c r="G79" s="7">
+        <v>0</v>
+      </c>
+      <c r="H79" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I79" t="s">
         <v>114</v>
       </c>
-      <c r="F79" s="7">
-        <v>0</v>
-      </c>
-      <c r="G79" s="7">
-        <v>0</v>
-      </c>
-      <c r="H79" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I79" t="s">
-        <v>115</v>
-      </c>
       <c r="J79" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="17.25" customHeight="1">
       <c r="A80" t="s">
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C80" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D80" s="3">
         <v>77</v>
       </c>
       <c r="E80" t="s">
+        <v>115</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
+        <v>0</v>
+      </c>
+      <c r="H80" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I80" t="s">
         <v>116</v>
       </c>
-      <c r="F80" s="7">
-        <v>0</v>
-      </c>
-      <c r="G80" s="7">
-        <v>0</v>
-      </c>
-      <c r="H80" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I80" t="s">
-        <v>117</v>
-      </c>
       <c r="J80" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="17.25" customHeight="1">
       <c r="A81" t="s">
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C81" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D81" s="3">
         <v>78</v>
       </c>
       <c r="E81" t="s">
+        <v>117</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
+      <c r="H81" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I81" t="s">
         <v>118</v>
       </c>
-      <c r="F81" s="7">
-        <v>0</v>
-      </c>
-      <c r="G81" s="7">
-        <v>0</v>
-      </c>
-      <c r="H81" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I81" t="s">
-        <v>119</v>
-      </c>
       <c r="J81" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="17.25" customHeight="1">
       <c r="A82" t="s">
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C82" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D82" s="3">
         <v>79</v>
       </c>
       <c r="E82" t="s">
+        <v>119</v>
+      </c>
+      <c r="F82" s="7">
+        <v>0</v>
+      </c>
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
+      <c r="H82" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I82" t="s">
         <v>120</v>
       </c>
-      <c r="F82" s="7">
-        <v>0</v>
-      </c>
-      <c r="G82" s="7">
-        <v>0</v>
-      </c>
-      <c r="H82" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I82" t="s">
-        <v>121</v>
-      </c>
       <c r="J82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="17.25" customHeight="1">
       <c r="A83" t="s">
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D83" s="3">
         <v>80</v>
       </c>
       <c r="E83" t="s">
+        <v>121</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0</v>
+      </c>
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
+      <c r="H83" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I83" t="s">
         <v>122</v>
       </c>
-      <c r="F83" s="7">
-        <v>0</v>
-      </c>
-      <c r="G83" s="7">
-        <v>0</v>
-      </c>
-      <c r="H83" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I83" t="s">
-        <v>123</v>
-      </c>
       <c r="J83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="17.25" customHeight="1">
       <c r="A84" t="s">
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C84" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D84" s="3">
         <v>81</v>
       </c>
       <c r="E84" t="s">
+        <v>123</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0</v>
+      </c>
+      <c r="H84" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I84" t="s">
         <v>124</v>
       </c>
-      <c r="F84" s="7">
-        <v>0</v>
-      </c>
-      <c r="G84" s="7">
-        <v>0</v>
-      </c>
-      <c r="H84" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I84" t="s">
-        <v>125</v>
-      </c>
       <c r="J84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="17.25" customHeight="1">
       <c r="A85" t="s">
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C85" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D85" s="3">
         <v>82</v>
       </c>
       <c r="E85" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0</v>
+      </c>
+      <c r="G85" s="7">
+        <v>0</v>
+      </c>
+      <c r="H85" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I85" t="s">
         <v>126</v>
       </c>
-      <c r="F85" s="7">
-        <v>0</v>
-      </c>
-      <c r="G85" s="7">
-        <v>0</v>
-      </c>
-      <c r="H85" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I85" t="s">
-        <v>127</v>
-      </c>
       <c r="J85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="17.25" customHeight="1">
       <c r="A86" t="s">
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C86" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D86" s="3">
         <v>83</v>
       </c>
       <c r="E86" t="s">
+        <v>127</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0</v>
+      </c>
+      <c r="H86" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I86" t="s">
         <v>128</v>
       </c>
-      <c r="F86" s="7">
-        <v>0</v>
-      </c>
-      <c r="G86" s="7">
-        <v>0</v>
-      </c>
-      <c r="H86" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I86" t="s">
-        <v>129</v>
-      </c>
       <c r="J86" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="17.25" customHeight="1">
       <c r="A87" t="s">
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D87" s="3">
         <v>84</v>
       </c>
       <c r="E87" t="s">
+        <v>129</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0</v>
+      </c>
+      <c r="H87" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I87" t="s">
         <v>130</v>
       </c>
-      <c r="F87" s="7">
-        <v>0</v>
-      </c>
-      <c r="G87" s="7">
-        <v>0</v>
-      </c>
-      <c r="H87" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I87" t="s">
-        <v>131</v>
-      </c>
       <c r="J87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="17.25" customHeight="1">
       <c r="A88" t="s">
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D88" s="3">
         <v>85</v>
       </c>
       <c r="E88" t="s">
+        <v>131</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0</v>
+      </c>
+      <c r="G88" s="7">
+        <v>0</v>
+      </c>
+      <c r="H88" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I88" t="s">
         <v>132</v>
       </c>
-      <c r="F88" s="7">
-        <v>0</v>
-      </c>
-      <c r="G88" s="7">
-        <v>0</v>
-      </c>
-      <c r="H88" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I88" t="s">
-        <v>133</v>
-      </c>
       <c r="J88" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="17.25" customHeight="1">
       <c r="A89" t="s">
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D89" s="3">
         <v>86</v>
       </c>
       <c r="E89" t="s">
+        <v>133</v>
+      </c>
+      <c r="F89" s="7">
+        <v>0</v>
+      </c>
+      <c r="G89" s="7">
+        <v>0</v>
+      </c>
+      <c r="H89" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I89" t="s">
         <v>134</v>
       </c>
-      <c r="F89" s="7">
-        <v>0</v>
-      </c>
-      <c r="G89" s="7">
-        <v>0</v>
-      </c>
-      <c r="H89" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I89" t="s">
-        <v>135</v>
-      </c>
       <c r="J89" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="17.25" customHeight="1">
       <c r="A90" t="s">
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D90" s="3">
         <v>87</v>
       </c>
       <c r="E90" t="s">
+        <v>135</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0</v>
+      </c>
+      <c r="G90" s="7">
+        <v>0</v>
+      </c>
+      <c r="H90" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I90" t="s">
         <v>136</v>
       </c>
-      <c r="F90" s="7">
-        <v>0</v>
-      </c>
-      <c r="G90" s="7">
-        <v>0</v>
-      </c>
-      <c r="H90" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I90" t="s">
-        <v>137</v>
-      </c>
       <c r="J90" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4121,16 +4118,16 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D91" s="3">
         <v>88</v>
       </c>
       <c r="E91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F91" s="7">
         <v>99.5</v>
@@ -4142,10 +4139,10 @@
         <v>2012</v>
       </c>
       <c r="I91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J91" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4153,16 +4150,16 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C92" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D92" s="3">
         <v>89</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" s="7">
         <v>200</v>
@@ -4174,10 +4171,10 @@
         <v>2017</v>
       </c>
       <c r="I92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J92" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4185,16 +4182,16 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C93" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D93" s="3">
         <v>90</v>
       </c>
       <c r="E93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F93" s="7">
         <v>0</v>
@@ -4206,10 +4203,10 @@
         <v>2017</v>
       </c>
       <c r="I93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J93" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4217,16 +4214,16 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D94" s="3">
         <v>91</v>
       </c>
       <c r="E94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F94" s="7">
         <v>0</v>
@@ -4238,10 +4235,10 @@
         <v>2017</v>
       </c>
       <c r="I94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J94" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4249,16 +4246,16 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C95" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D95" s="3">
         <v>92</v>
       </c>
       <c r="E95" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F95" s="7">
         <v>0</v>
@@ -4270,10 +4267,10 @@
         <v>2017</v>
       </c>
       <c r="I95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J95" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4281,16 +4278,16 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C96" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D96" s="3">
         <v>93</v>
       </c>
       <c r="E96" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F96" s="7">
         <v>0</v>
@@ -4302,10 +4299,10 @@
         <v>2017</v>
       </c>
       <c r="I96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4313,16 +4310,16 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D97" s="3">
         <v>94</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F97" s="7">
         <v>0</v>
@@ -4334,10 +4331,10 @@
         <v>2017</v>
       </c>
       <c r="I97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4345,16 +4342,16 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D98" s="3">
         <v>95</v>
       </c>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F98" s="7">
         <v>0</v>
@@ -4366,10 +4363,10 @@
         <v>2017</v>
       </c>
       <c r="I98" t="s">
+        <v>187</v>
+      </c>
+      <c r="J98" t="s">
         <v>189</v>
-      </c>
-      <c r="J98" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4377,16 +4374,16 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D99" s="3">
         <v>96</v>
       </c>
       <c r="E99" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F99" s="7">
         <v>0</v>
@@ -4398,10 +4395,10 @@
         <v>2017</v>
       </c>
       <c r="I99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4409,16 +4406,16 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C100" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D100" s="3">
         <v>97</v>
       </c>
       <c r="E100" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F100" s="7">
         <v>0</v>
@@ -4430,10 +4427,10 @@
         <v>2017</v>
       </c>
       <c r="I100" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J100" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4441,16 +4438,16 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D101" s="3">
         <v>98</v>
       </c>
       <c r="E101" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F101" s="7">
         <v>0</v>
@@ -4462,10 +4459,10 @@
         <v>2017</v>
       </c>
       <c r="I101" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J101" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4473,16 +4470,16 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D102" s="3">
         <v>99</v>
       </c>
       <c r="E102" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F102" s="7">
         <v>0</v>
@@ -4494,10 +4491,10 @@
         <v>2017</v>
       </c>
       <c r="I102" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4505,16 +4502,16 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D103" s="3">
         <v>100</v>
       </c>
       <c r="E103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F103" s="7">
         <v>40</v>
@@ -4526,10 +4523,10 @@
         <v>2017</v>
       </c>
       <c r="I103" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J103" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4537,16 +4534,16 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D104" s="3">
         <v>101</v>
       </c>
       <c r="E104" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F104" s="7">
         <v>40</v>
@@ -4558,10 +4555,10 @@
         <v>2016</v>
       </c>
       <c r="I104" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J104" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="19.5" hidden="1" customHeight="1">
@@ -4569,16 +4566,16 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D105" s="3">
         <v>102</v>
       </c>
       <c r="E105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F105" s="7">
         <v>40</v>
@@ -4590,10 +4587,10 @@
         <v>2016</v>
       </c>
       <c r="I105" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J105" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -4601,16 +4598,16 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C106" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D106" s="3">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F106" s="7">
         <v>213.4</v>
@@ -4622,10 +4619,10 @@
         <v>2018</v>
       </c>
       <c r="I106" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J106" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -4633,16 +4630,16 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C107" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D107" s="3">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F107" s="7">
         <v>107</v>
@@ -4654,10 +4651,10 @@
         <v>2018</v>
       </c>
       <c r="I107" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J107" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -4665,16 +4662,16 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C108" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D108" s="3">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F108" s="7">
         <v>120.9</v>
@@ -4686,10 +4683,10 @@
         <v>2018</v>
       </c>
       <c r="I108" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J108" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -4697,16 +4694,16 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C109" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D109" s="3">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F109" s="7">
         <v>142.19999999999999</v>
@@ -4718,10 +4715,10 @@
         <v>2018</v>
       </c>
       <c r="I109" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J109" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="17.25" hidden="1" customHeight="1">
@@ -4729,16 +4726,16 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C110" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D110" s="3">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F110" s="7">
         <v>120.9</v>
@@ -4750,27 +4747,27 @@
         <v>2018</v>
       </c>
       <c r="I110" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J110" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="17.25" customHeight="1">
       <c r="A111" t="s">
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C111" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D111" s="3">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F111" s="7">
         <v>50</v>
@@ -4782,27 +4779,27 @@
         <v>2017</v>
       </c>
       <c r="I111" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J111" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="17.25" hidden="1" customHeight="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="17.25" customHeight="1">
       <c r="A112" t="s">
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="C112" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D112" s="3">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F112" s="7">
         <v>65</v>
@@ -4814,10 +4811,10 @@
         <v>2021</v>
       </c>
       <c r="I112" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J112" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113" spans="4:8" ht="17.25" customHeight="1">
@@ -4920,7 +4917,7 @@
   <autoFilter ref="A1:J112" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Patina"/>
+        <filter val="Ottchil (Korean Lacquer Work)"/>
       </filters>
     </filterColumn>
   </autoFilter>
